--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F255</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F254"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="B121" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1046368</v>
+        <v>368612</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,18 +2800,18 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>6204005e5a2fea824bf12c398eaba494a661a2ffef9a40ffafa8ec02f4d13c4a</v>
+        <v>8044f34d4833ed1b68f24a17759544c967f02950d9e4c19db4a7542cd9678e11</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="B122" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1563935</v>
+        <v>2273816</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2820,18 +2820,18 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="B123" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C123">
-        <v>374438</v>
+        <v>1563935</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2840,18 +2840,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="B124" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C124">
-        <v>565237</v>
+        <v>374438</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2860,18 +2860,18 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B125" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C125">
-        <v>817918</v>
+        <v>565237</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2880,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1562399</v>
+        <v>817918</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1080988</v>
+        <v>1562399</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C128">
-        <v>922762</v>
+        <v>1080988</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C129">
-        <v>677160</v>
+        <v>922762</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C130">
-        <v>810545</v>
+        <v>677160</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C131">
-        <v>274107</v>
+        <v>810545</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C132">
-        <v>220241</v>
+        <v>274107</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C133">
-        <v>95904</v>
+        <v>220241</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1090287</v>
+        <v>95904</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C135">
-        <v>4141809</v>
+        <v>1090287</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1438334</v>
+        <v>4141809</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C137">
-        <v>883152</v>
+        <v>1438334</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C138">
-        <v>903933</v>
+        <v>883152</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C139">
-        <v>1201326</v>
+        <v>903933</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C140">
-        <v>995069</v>
+        <v>1201326</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1222379</v>
+        <v>995069</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C142">
-        <v>694955</v>
+        <v>1222379</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C143">
-        <v>3816615</v>
+        <v>694955</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C144">
-        <v>1950945</v>
+        <v>3816615</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C145">
-        <v>2974087</v>
+        <v>1950945</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1786521</v>
+        <v>2974087</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C147">
-        <v>2340687</v>
+        <v>1786521</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1950950</v>
+        <v>2340687</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C149">
-        <v>2411026</v>
+        <v>1950950</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C150">
-        <v>2120097</v>
+        <v>2411026</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C151">
-        <v>374485</v>
+        <v>2120097</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>146fe2f3f41260aaf1c14e7ff258f16f6396da62033b3664ba13105530d1953b</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1735996</v>
+        <v>793218</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>0f0f44772ef7970f9d1be2bc31875873673f0dd289d75ccd6addd2b0147a34b2</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C153">
-        <v>316196</v>
+        <v>1735996</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C154">
-        <v>164018</v>
+        <v>316196</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C155">
-        <v>214542</v>
+        <v>164018</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C156">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C157">
-        <v>288931</v>
+        <v>310371</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C158">
-        <v>270545</v>
+        <v>288931</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C159">
-        <v>2495651</v>
+        <v>270545</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C160">
-        <v>2552316</v>
+        <v>2495651</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C161">
-        <v>2506496</v>
+        <v>2552316</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C162">
-        <v>2502115</v>
+        <v>2506496</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C163">
-        <v>2681244</v>
+        <v>2502115</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C164">
-        <v>698614</v>
+        <v>2681244</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C165">
-        <v>162241</v>
+        <v>698614</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C166">
-        <v>2422605</v>
+        <v>162241</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C167">
-        <v>2765350</v>
+        <v>2422605</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C168">
-        <v>2456682</v>
+        <v>2765350</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C169">
-        <v>2504056</v>
+        <v>2456682</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C170">
-        <v>666244</v>
+        <v>2504056</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C171">
-        <v>563882</v>
+        <v>666244</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C172">
-        <v>739598</v>
+        <v>563882</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C173">
-        <v>3045368</v>
+        <v>739598</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C174">
-        <v>754919</v>
+        <v>3045368</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C175">
-        <v>603486</v>
+        <v>754919</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C176">
-        <v>739808</v>
+        <v>603486</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C177">
-        <v>566660</v>
+        <v>739808</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C178">
-        <v>2528471</v>
+        <v>566660</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C179">
-        <v>2936832</v>
+        <v>2528471</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C180">
-        <v>3308612</v>
+        <v>2936832</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C181">
-        <v>2627611</v>
+        <v>3308612</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C182">
-        <v>2617624</v>
+        <v>2627611</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C183">
-        <v>2630207</v>
+        <v>2617624</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C184">
-        <v>2392569</v>
+        <v>2630207</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C185">
-        <v>2995290</v>
+        <v>2392569</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C186">
-        <v>2175267</v>
+        <v>2995290</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C187">
-        <v>2428868</v>
+        <v>2175267</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C188">
-        <v>2427396</v>
+        <v>2428868</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C189">
-        <v>2304469</v>
+        <v>2427396</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C190">
-        <v>804072</v>
+        <v>2304469</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C191">
-        <v>709034</v>
+        <v>804072</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C192">
-        <v>685080</v>
+        <v>709034</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C193">
-        <v>752922</v>
+        <v>685080</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C194">
-        <v>2717520</v>
+        <v>752922</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C195">
-        <v>727078</v>
+        <v>2717520</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C196">
-        <v>2207700</v>
+        <v>727078</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C197">
-        <v>1999173</v>
+        <v>2207700</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C198">
-        <v>3183647</v>
+        <v>1999173</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C199">
-        <v>1935008</v>
+        <v>3183647</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C200">
-        <v>1811682</v>
+        <v>1935008</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C201">
-        <v>2884291</v>
+        <v>1811682</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C202">
-        <v>1894693</v>
+        <v>2884291</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C203">
-        <v>4436044</v>
+        <v>1894693</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C204">
-        <v>2018679</v>
+        <v>4436044</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C205">
-        <v>1924288</v>
+        <v>2018679</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C206">
-        <v>1762090</v>
+        <v>1924288</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C207">
-        <v>1815137</v>
+        <v>1762090</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C208">
-        <v>1902141</v>
+        <v>1815137</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C209">
-        <v>1981520</v>
+        <v>1902141</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C210">
-        <v>2015887</v>
+        <v>1981520</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C211">
-        <v>2839792</v>
+        <v>2015887</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C212">
-        <v>599614</v>
+        <v>2839792</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C213">
-        <v>1680814</v>
+        <v>599614</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C214">
-        <v>587468</v>
+        <v>1680814</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C215">
-        <v>779970</v>
+        <v>587468</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C216">
-        <v>692056</v>
+        <v>779970</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C217">
-        <v>838136</v>
+        <v>692056</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C218">
-        <v>785380</v>
+        <v>838136</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C219">
-        <v>798459</v>
+        <v>785380</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C220">
-        <v>728297</v>
+        <v>798459</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C221">
-        <v>712509</v>
+        <v>728297</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C222">
-        <v>652170</v>
+        <v>712509</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C223">
-        <v>735341</v>
+        <v>652170</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C224">
-        <v>742293</v>
+        <v>735341</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C225">
-        <v>826507</v>
+        <v>742293</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C226">
-        <v>695750</v>
+        <v>826507</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C227">
-        <v>2121513</v>
+        <v>695750</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C228">
-        <v>753461</v>
+        <v>2121513</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C229">
-        <v>741348</v>
+        <v>753461</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C230">
-        <v>681363</v>
+        <v>741348</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C231">
-        <v>712817</v>
+        <v>681363</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C232">
-        <v>638642</v>
+        <v>712817</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C233">
-        <v>793474</v>
+        <v>638642</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C234">
-        <v>816979</v>
+        <v>793474</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C235">
-        <v>2772777</v>
+        <v>816979</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C236">
-        <v>2197554</v>
+        <v>2772777</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C237">
-        <v>2098490</v>
+        <v>2197554</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C238">
-        <v>784010</v>
+        <v>2098490</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C239">
-        <v>3963142</v>
+        <v>784010</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C240">
-        <v>2642424</v>
+        <v>3963142</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C241">
-        <v>2345835</v>
+        <v>2642424</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C242">
-        <v>2655499</v>
+        <v>2345835</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C243">
-        <v>2340879</v>
+        <v>2655499</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C244">
-        <v>714371</v>
+        <v>2340879</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C245">
-        <v>648465</v>
+        <v>714371</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C246">
-        <v>1662425</v>
+        <v>648465</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C247">
-        <v>1803629</v>
+        <v>1662425</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C248">
-        <v>1983346</v>
+        <v>1803629</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C249">
-        <v>2024839</v>
+        <v>1983346</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C250">
-        <v>2847546</v>
+        <v>2024839</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C251">
-        <v>1994394</v>
+        <v>2847546</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C252">
-        <v>2274166</v>
+        <v>1994394</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C253">
-        <v>2093146</v>
+        <v>2274166</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,33 +5440,53 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B254" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C254">
+        <v>2093146</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="B254" t="str">
+      <c r="B255" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="C254">
+      <c r="C255">
         <v>445574</v>
       </c>
-      <c r="D254" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-      <c r="F254" t="str">
+      <c r="D255" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" t="str">
         <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F254"/>
+  <autoFilter ref="A1:F255"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F254"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F255"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F259</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2251,7 +2251,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C94">
-        <v>1238230</v>
+        <v>1319458</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>51d307d1ad5609fbccb7182ac922f926fcb4bc6fb56fdfe992037af4bc951738</v>
+        <v>7ecb2ac3b5c40c2f503a49db33f854c43f596e9c2faff0589a6bbce891df01ce</v>
       </c>
     </row>
     <row r="95">
@@ -3411,7 +3411,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C152">
-        <v>793218</v>
+        <v>1952744</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>0f0f44772ef7970f9d1be2bc31875873673f0dd289d75ccd6addd2b0147a34b2</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="153">
@@ -3445,13 +3445,13 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C154">
-        <v>316196</v>
+        <v>88566</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>d1c6f865bd9b88aec090a915dc726c2a97e78f49e38bf1a96d2b5cc27a881c0b</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C155">
-        <v>164018</v>
+        <v>295471</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C156">
-        <v>214542</v>
+        <v>316196</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C157">
-        <v>310371</v>
+        <v>164018</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C158">
-        <v>288931</v>
+        <v>214542</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C159">
-        <v>270545</v>
+        <v>310371</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2495651</v>
+        <v>288931</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C161">
-        <v>2552316</v>
+        <v>270545</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C162">
-        <v>2506496</v>
+        <v>2495651</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C163">
-        <v>2502115</v>
+        <v>2552316</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C164">
-        <v>2681244</v>
+        <v>2506496</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C165">
-        <v>698614</v>
+        <v>2502115</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C166">
-        <v>162241</v>
+        <v>2681244</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C167">
-        <v>2422605</v>
+        <v>698614</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C168">
-        <v>2765350</v>
+        <v>162241</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C169">
-        <v>2456682</v>
+        <v>2422605</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C170">
-        <v>2504056</v>
+        <v>2765350</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C171">
-        <v>666244</v>
+        <v>2456682</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C172">
-        <v>563882</v>
+        <v>2504056</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C173">
-        <v>739598</v>
+        <v>666244</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C174">
-        <v>3045368</v>
+        <v>563882</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C175">
-        <v>754919</v>
+        <v>739598</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C176">
-        <v>603486</v>
+        <v>3045368</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C177">
-        <v>739808</v>
+        <v>754919</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C178">
-        <v>566660</v>
+        <v>603486</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C179">
-        <v>2528471</v>
+        <v>739808</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C180">
-        <v>2936832</v>
+        <v>566660</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C181">
-        <v>3308612</v>
+        <v>2528471</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C182">
-        <v>2627611</v>
+        <v>2936832</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C183">
-        <v>2617624</v>
+        <v>3308612</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C184">
-        <v>2630207</v>
+        <v>2627611</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C185">
-        <v>2392569</v>
+        <v>2617624</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C186">
-        <v>2995290</v>
+        <v>2630207</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C187">
-        <v>2175267</v>
+        <v>2392569</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C188">
-        <v>2428868</v>
+        <v>2995290</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C189">
-        <v>2427396</v>
+        <v>2175267</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C190">
-        <v>2304469</v>
+        <v>2428868</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C191">
-        <v>804072</v>
+        <v>2427396</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C192">
-        <v>709034</v>
+        <v>2304469</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C193">
-        <v>685080</v>
+        <v>804072</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C194">
-        <v>752922</v>
+        <v>709034</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C195">
-        <v>2717520</v>
+        <v>685080</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C196">
-        <v>727078</v>
+        <v>752922</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C197">
-        <v>2207700</v>
+        <v>2717520</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C198">
-        <v>1999173</v>
+        <v>727078</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C199">
-        <v>3183647</v>
+        <v>2207700</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C200">
-        <v>1935008</v>
+        <v>1999173</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C201">
-        <v>1811682</v>
+        <v>3183647</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C202">
-        <v>2884291</v>
+        <v>1935008</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C203">
-        <v>1894693</v>
+        <v>1811682</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C204">
-        <v>4436044</v>
+        <v>2884291</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C205">
-        <v>2018679</v>
+        <v>1894693</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C206">
-        <v>1924288</v>
+        <v>4436044</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C207">
-        <v>1762090</v>
+        <v>2018679</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C208">
-        <v>1815137</v>
+        <v>1924288</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C209">
-        <v>1902141</v>
+        <v>1762090</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C210">
-        <v>1981520</v>
+        <v>1815137</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C211">
-        <v>2015887</v>
+        <v>1902141</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C212">
-        <v>2839792</v>
+        <v>1981520</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C213">
-        <v>599614</v>
+        <v>2015887</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C214">
-        <v>1680814</v>
+        <v>2839792</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C215">
-        <v>587468</v>
+        <v>599614</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C216">
-        <v>779970</v>
+        <v>1680814</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C217">
-        <v>692056</v>
+        <v>587468</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C218">
-        <v>838136</v>
+        <v>779970</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C219">
-        <v>785380</v>
+        <v>692056</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C220">
-        <v>798459</v>
+        <v>838136</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C221">
-        <v>728297</v>
+        <v>785380</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C222">
-        <v>712509</v>
+        <v>798459</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C223">
-        <v>652170</v>
+        <v>728297</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C224">
-        <v>735341</v>
+        <v>712509</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C225">
-        <v>742293</v>
+        <v>652170</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C226">
-        <v>826507</v>
+        <v>735341</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C227">
-        <v>695750</v>
+        <v>742293</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C228">
-        <v>2121513</v>
+        <v>826507</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C229">
-        <v>753461</v>
+        <v>695750</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C230">
-        <v>741348</v>
+        <v>2138145</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C231">
-        <v>681363</v>
+        <v>2121513</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C232">
-        <v>712817</v>
+        <v>753461</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C233">
-        <v>638642</v>
+        <v>741348</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C234">
-        <v>793474</v>
+        <v>681363</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C235">
-        <v>816979</v>
+        <v>712817</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C236">
-        <v>2772777</v>
+        <v>638642</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C237">
-        <v>2197554</v>
+        <v>793474</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C238">
-        <v>2098490</v>
+        <v>816979</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C239">
-        <v>784010</v>
+        <v>2772777</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C240">
-        <v>3963142</v>
+        <v>2197554</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C241">
-        <v>2642424</v>
+        <v>2098490</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C242">
-        <v>2345835</v>
+        <v>784010</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C243">
-        <v>2655499</v>
+        <v>3963142</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C244">
-        <v>2340879</v>
+        <v>2642424</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C245">
-        <v>714371</v>
+        <v>2345835</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C246">
-        <v>648465</v>
+        <v>2655499</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C247">
-        <v>1662425</v>
+        <v>2340879</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C248">
-        <v>1803629</v>
+        <v>714371</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C249">
-        <v>1983346</v>
+        <v>648465</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C250">
-        <v>2024839</v>
+        <v>1662425</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C251">
-        <v>2847546</v>
+        <v>1803629</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C252">
-        <v>1994394</v>
+        <v>1983346</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C253">
-        <v>2274166</v>
+        <v>2024839</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C254">
-        <v>2093146</v>
+        <v>2847546</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,33 +5460,113 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B255" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C255">
+        <v>1994394</v>
+      </c>
+      <c r="D255" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" t="str">
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B256" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C256">
+        <v>2274166</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B257" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C257">
+        <v>1758391</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B258" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C258">
+        <v>2093146</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="B255" t="str">
+      <c r="B259" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="C255">
+      <c r="C259">
         <v>445574</v>
       </c>
-      <c r="D255" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-      <c r="F255" t="str">
+      <c r="D259" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" t="str">
         <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F255"/>
+  <autoFilter ref="A1:F259"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F255"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F259"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -2251,7 +2251,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C94">
-        <v>1319458</v>
+        <v>1334006</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>7ecb2ac3b5c40c2f503a49db33f854c43f596e9c2faff0589a6bbce891df01ce</v>
+        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
       </c>
     </row>
     <row r="95">
@@ -2791,7 +2791,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C121">
-        <v>368612</v>
+        <v>674482</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>8044f34d4833ed1b68f24a17759544c967f02950d9e4c19db4a7542cd9678e11</v>
+        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
       </c>
     </row>
     <row r="122">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F261</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F259"/>
+  <dimension ref="A1:F261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1871,7 +1871,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C75">
-        <v>1561904</v>
+        <v>1572110</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>8125e4cf8646c268de0d8fb51e7b98b4167e52b5a6d525d90def16fe64e9af0d</v>
+        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
       </c>
     </row>
     <row r="76">
@@ -2925,13 +2925,13 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1080988</v>
+        <v>710836</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C129">
-        <v>922762</v>
+        <v>1080988</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C130">
-        <v>677160</v>
+        <v>922762</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C131">
-        <v>810545</v>
+        <v>677160</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C132">
-        <v>274107</v>
+        <v>810545</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C133">
-        <v>220241</v>
+        <v>274107</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C134">
-        <v>95904</v>
+        <v>220241</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C135">
-        <v>1090287</v>
+        <v>95904</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C136">
-        <v>4141809</v>
+        <v>1090287</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C137">
-        <v>1438334</v>
+        <v>4141809</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C138">
-        <v>883152</v>
+        <v>1438334</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C139">
-        <v>903933</v>
+        <v>883152</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1201326</v>
+        <v>903933</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C141">
-        <v>995069</v>
+        <v>1201326</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C142">
-        <v>1222379</v>
+        <v>995069</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C143">
-        <v>694955</v>
+        <v>1222379</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C144">
-        <v>3816615</v>
+        <v>694955</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C145">
-        <v>1950945</v>
+        <v>3816615</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C146">
-        <v>2974087</v>
+        <v>1950945</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C147">
-        <v>1786521</v>
+        <v>2974087</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C148">
-        <v>2340687</v>
+        <v>1786521</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1950950</v>
+        <v>2340687</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C150">
-        <v>2411026</v>
+        <v>1950950</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C151">
-        <v>2120097</v>
+        <v>2411026</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1952744</v>
+        <v>2120097</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1735996</v>
+        <v>1952744</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C154">
-        <v>88566</v>
+        <v>1735996</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>d1c6f865bd9b88aec090a915dc726c2a97e78f49e38bf1a96d2b5cc27a881c0b</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C155">
-        <v>295471</v>
+        <v>539190</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>14e3bf4dc5d6266f41c1e66d593e5a8a3bf207ec1af947333a880d80e3206c36</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C156">
-        <v>316196</v>
+        <v>295471</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C157">
-        <v>164018</v>
+        <v>316196</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C158">
-        <v>214542</v>
+        <v>164018</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C159">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C160">
-        <v>288931</v>
+        <v>310371</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C161">
-        <v>270545</v>
+        <v>288931</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2495651</v>
+        <v>270545</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C163">
-        <v>2552316</v>
+        <v>2495651</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C164">
-        <v>2506496</v>
+        <v>2552316</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C165">
-        <v>2502115</v>
+        <v>2506496</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C166">
-        <v>2681244</v>
+        <v>2502115</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C167">
-        <v>698614</v>
+        <v>2681244</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C168">
-        <v>162241</v>
+        <v>698614</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C169">
-        <v>2422605</v>
+        <v>162241</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C170">
-        <v>2765350</v>
+        <v>2422605</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C171">
-        <v>2456682</v>
+        <v>2765350</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C172">
-        <v>2504056</v>
+        <v>2456682</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C173">
-        <v>666244</v>
+        <v>2504056</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C174">
-        <v>563882</v>
+        <v>666244</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C175">
-        <v>739598</v>
+        <v>563882</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C176">
-        <v>3045368</v>
+        <v>739598</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C177">
-        <v>754919</v>
+        <v>3045368</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C178">
-        <v>603486</v>
+        <v>754919</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C179">
-        <v>739808</v>
+        <v>603486</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C180">
-        <v>566660</v>
+        <v>739808</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C181">
-        <v>2528471</v>
+        <v>566660</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C182">
-        <v>2936832</v>
+        <v>2528471</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C183">
-        <v>3308612</v>
+        <v>2936832</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C184">
-        <v>2627611</v>
+        <v>3308612</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C185">
-        <v>2617624</v>
+        <v>2627611</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C186">
-        <v>2630207</v>
+        <v>2617624</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C187">
-        <v>2392569</v>
+        <v>2630207</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C188">
-        <v>2995290</v>
+        <v>2392569</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C189">
-        <v>2175267</v>
+        <v>2995290</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C190">
-        <v>2428868</v>
+        <v>2175267</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C191">
-        <v>2427396</v>
+        <v>2428868</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C192">
-        <v>2304469</v>
+        <v>2427396</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C193">
-        <v>804072</v>
+        <v>2304469</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C194">
-        <v>709034</v>
+        <v>804072</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C195">
-        <v>685080</v>
+        <v>709034</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C196">
-        <v>752922</v>
+        <v>685080</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C197">
-        <v>2717520</v>
+        <v>752922</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C198">
-        <v>727078</v>
+        <v>2717520</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C199">
-        <v>2207700</v>
+        <v>727078</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C200">
-        <v>1999173</v>
+        <v>2207700</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C201">
-        <v>3183647</v>
+        <v>1999173</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C202">
-        <v>1935008</v>
+        <v>3183647</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C203">
-        <v>1811682</v>
+        <v>2693612</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C204">
-        <v>2884291</v>
+        <v>1811682</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C205">
-        <v>1894693</v>
+        <v>2884291</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C206">
-        <v>4436044</v>
+        <v>1894693</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C207">
-        <v>2018679</v>
+        <v>4436044</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C208">
-        <v>1924288</v>
+        <v>2018679</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C209">
-        <v>1762090</v>
+        <v>1924288</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C210">
-        <v>1815137</v>
+        <v>1762090</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C211">
-        <v>1902141</v>
+        <v>1815137</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C212">
-        <v>1981520</v>
+        <v>1902141</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C213">
-        <v>2015887</v>
+        <v>1981520</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C214">
-        <v>2839792</v>
+        <v>2015887</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C215">
-        <v>599614</v>
+        <v>3505338</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C216">
-        <v>1680814</v>
+        <v>599614</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C217">
-        <v>587468</v>
+        <v>1680814</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C218">
-        <v>779970</v>
+        <v>587468</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C219">
-        <v>692056</v>
+        <v>779970</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C220">
-        <v>838136</v>
+        <v>692056</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C221">
-        <v>785380</v>
+        <v>838136</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C222">
-        <v>798459</v>
+        <v>785380</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C223">
-        <v>728297</v>
+        <v>798459</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C224">
-        <v>712509</v>
+        <v>728297</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C225">
-        <v>652170</v>
+        <v>712509</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C226">
-        <v>735341</v>
+        <v>652170</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C227">
-        <v>742293</v>
+        <v>735341</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C228">
-        <v>826507</v>
+        <v>742293</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C229">
-        <v>695750</v>
+        <v>826507</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C230">
-        <v>2138145</v>
+        <v>695750</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C231">
-        <v>2121513</v>
+        <v>2138145</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C232">
-        <v>753461</v>
+        <v>2121513</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C233">
-        <v>741348</v>
+        <v>753461</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C234">
-        <v>681363</v>
+        <v>741348</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C235">
-        <v>712817</v>
+        <v>681363</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C236">
-        <v>638642</v>
+        <v>649699</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C237">
-        <v>793474</v>
+        <v>712817</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C238">
-        <v>816979</v>
+        <v>638642</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C239">
-        <v>2772777</v>
+        <v>793474</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C240">
-        <v>2197554</v>
+        <v>816979</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C241">
-        <v>2098490</v>
+        <v>2772777</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C242">
-        <v>784010</v>
+        <v>2197554</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C243">
-        <v>3963142</v>
+        <v>2098490</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C244">
-        <v>2642424</v>
+        <v>784010</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C245">
-        <v>2345835</v>
+        <v>3963142</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C246">
-        <v>2655499</v>
+        <v>2642424</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C247">
-        <v>2340879</v>
+        <v>2345835</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C248">
-        <v>714371</v>
+        <v>2655499</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C249">
-        <v>648465</v>
+        <v>2340879</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C250">
-        <v>1662425</v>
+        <v>714371</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C251">
-        <v>1803629</v>
+        <v>648465</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C252">
-        <v>1983346</v>
+        <v>1662425</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C253">
-        <v>2024839</v>
+        <v>1803629</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C254">
-        <v>2847546</v>
+        <v>1983346</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C255">
-        <v>1994394</v>
+        <v>2024839</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C256">
-        <v>2274166</v>
+        <v>2847546</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C257">
-        <v>1758391</v>
+        <v>1994394</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C258">
-        <v>2093146</v>
+        <v>2274166</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,33 +5540,73 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B259" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C259">
+        <v>1758391</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B260" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C260">
+        <v>2093146</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="B259" t="str">
+      <c r="B261" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="C259">
+      <c r="C261">
         <v>445574</v>
       </c>
-      <c r="D259" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-      <c r="F259" t="str">
+      <c r="D261" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" t="str">
         <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F259"/>
+  <autoFilter ref="A1:F261"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F259"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F261"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F265</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F261"/>
+  <dimension ref="A1:F265"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1471,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>1717735</v>
+        <v>1992131</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>c3c40437c91139ef28128c508e3ef502e66fd5dcb44a5f7b97e68e010c4eb074</v>
+        <v>3b2dbd5fdb1ed26cc7d1933924e884f1516affe5ad1b168cc5d37da8dda608fd</v>
       </c>
     </row>
     <row r="56">
@@ -1525,13 +1525,13 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="B58" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C58">
-        <v>643296</v>
+        <v>356887</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1540,18 +1540,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
+        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="B59" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C59">
-        <v>828726</v>
+        <v>250817</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1560,18 +1560,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="str">
-        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
+        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="B60" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C60">
-        <v>872421</v>
+        <v>362000</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1580,18 +1580,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="str">
-        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
+        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="B61" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C61">
-        <v>859653</v>
+        <v>119622</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1600,18 +1600,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
+        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="B62" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C62">
-        <v>678590</v>
+        <v>67549</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1620,18 +1620,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="str">
-        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
+        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="B63" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C63">
-        <v>349373</v>
+        <v>643296</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1640,18 +1640,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="str">
-        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
+        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="B64" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C64">
-        <v>453749</v>
+        <v>828726</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1660,18 +1660,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="str">
-        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
+        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="B65" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C65">
-        <v>1074561</v>
+        <v>872421</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1680,18 +1680,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
+        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="B66" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C66">
-        <v>740080</v>
+        <v>859653</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1700,18 +1700,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="str">
-        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
+        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="B67" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C67">
-        <v>940843</v>
+        <v>678590</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,18 +1720,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
+        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="B68" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C68">
-        <v>446568</v>
+        <v>349373</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1740,18 +1740,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
+        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="B69" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C69">
-        <v>698652</v>
+        <v>453749</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1760,18 +1760,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
+        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="B70" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C70">
-        <v>891783</v>
+        <v>1074561</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1780,18 +1780,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
+        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="B71" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C71">
-        <v>755823</v>
+        <v>740080</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1800,18 +1800,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="str">
-        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
+        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="B72" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C72">
-        <v>1196222</v>
+        <v>940843</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1820,18 +1820,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="str">
-        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
+        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="B73" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C73">
-        <v>985513</v>
+        <v>446568</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1840,18 +1840,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
+        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="B74" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C74">
-        <v>1681289</v>
+        <v>698652</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="F74" t="str">
-        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
+        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="B75" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C75">
-        <v>1572110</v>
+        <v>891783</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1880,18 +1880,18 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
+        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="B76" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C76">
-        <v>937989</v>
+        <v>755823</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1900,18 +1900,18 @@
         <v>0</v>
       </c>
       <c r="F76" t="str">
-        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
+        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="B77" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C77">
-        <v>1291318</v>
+        <v>1196222</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1920,18 +1920,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
+        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="B78" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C78">
-        <v>1189229</v>
+        <v>985513</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1940,18 +1940,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
+        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="B79" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C79">
-        <v>1039717</v>
+        <v>1681289</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="F79" t="str">
-        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
+        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="B80" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C80">
-        <v>785916</v>
+        <v>1572110</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1980,18 +1980,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
+        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="B81" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C81">
-        <v>743600</v>
+        <v>937989</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2000,18 +2000,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
+        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="B82" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C82">
-        <v>611319</v>
+        <v>1291318</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2020,18 +2020,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
+        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="B83" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C83">
-        <v>587130</v>
+        <v>1189229</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2040,18 +2040,18 @@
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
+        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="B84" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C84">
-        <v>525440</v>
+        <v>1039717</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2060,18 +2060,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
+        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="B85" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C85">
-        <v>955356</v>
+        <v>785916</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2080,18 +2080,18 @@
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
+        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="B86" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C86">
-        <v>2421224</v>
+        <v>743600</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2100,18 +2100,18 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
+        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="B87" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C87">
-        <v>619176</v>
+        <v>611319</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2120,18 +2120,18 @@
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
+        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="B88" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C88">
-        <v>538540</v>
+        <v>587130</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2140,18 +2140,18 @@
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
+        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="B89" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C89">
-        <v>5025117</v>
+        <v>525440</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2160,18 +2160,18 @@
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
+        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="B90" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C90">
-        <v>1535953</v>
+        <v>955356</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2180,18 +2180,18 @@
         <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
+        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="B91" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C91">
-        <v>276258</v>
+        <v>2421224</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2200,18 +2200,18 @@
         <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
+        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="B92" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C92">
-        <v>1321255</v>
+        <v>619176</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2220,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F92" t="str">
-        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
+        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="B93" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C93">
-        <v>29710</v>
+        <v>538540</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2240,18 +2240,18 @@
         <v>0</v>
       </c>
       <c r="F93" t="str">
-        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
+        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="B94" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C94">
-        <v>1334006</v>
+        <v>5025117</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,18 +2260,18 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
+        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="B95" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C95">
-        <v>1174270</v>
+        <v>1535953</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2280,18 +2280,18 @@
         <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>a46253b535fe59de2b8bf1e408798a23825926daa2b1c447f8fe1553514b5bf4</v>
+        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="B96" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C96">
-        <v>2285384</v>
+        <v>276258</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2300,18 +2300,18 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
+        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="B97" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C97">
-        <v>1260480</v>
+        <v>1321255</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2320,18 +2320,18 @@
         <v>0</v>
       </c>
       <c r="F97" t="str">
-        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
+        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="B98" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="C98">
-        <v>2046285</v>
+        <v>29710</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2340,18 +2340,18 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
+        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="B99" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C99">
-        <v>1084295</v>
+        <v>1334006</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2360,18 +2360,18 @@
         <v>0</v>
       </c>
       <c r="F99" t="str">
-        <v>d2dcf5699e9e1a519de2842e9af0018310b9a74e2edd0c47108f599d54bc100e</v>
+        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="B100" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C100">
-        <v>2757182</v>
+        <v>1192258</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2380,18 +2380,18 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
+        <v>78ffacdc2ce16f73ce9f5f4b78992faed82ca79fd9f6d01c3e0dba80f98aa61b</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="B101" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C101">
-        <v>1924658</v>
+        <v>2285384</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2400,18 +2400,18 @@
         <v>0</v>
       </c>
       <c r="F101" t="str">
-        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
+        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="B102" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1987330</v>
+        <v>1260480</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2420,18 +2420,18 @@
         <v>0</v>
       </c>
       <c r="F102" t="str">
-        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
+        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="B103" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1928498</v>
+        <v>2046285</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2440,18 +2440,18 @@
         <v>0</v>
       </c>
       <c r="F103" t="str">
-        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
+        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="B104" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C104">
-        <v>1498179</v>
+        <v>1236785</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2460,18 +2460,18 @@
         <v>0</v>
       </c>
       <c r="F104" t="str">
-        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
+        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="B105" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1893070</v>
+        <v>2757182</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2480,18 +2480,18 @@
         <v>0</v>
       </c>
       <c r="F105" t="str">
-        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
+        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="B106" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C106">
-        <v>1944078</v>
+        <v>1924658</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2500,18 +2500,18 @@
         <v>0</v>
       </c>
       <c r="F106" t="str">
-        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
+        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="B107" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1305033</v>
+        <v>1987330</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2520,18 +2520,18 @@
         <v>0</v>
       </c>
       <c r="F107" t="str">
-        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
+        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="B108" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C108">
-        <v>966684</v>
+        <v>1928498</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2540,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="F108" t="str">
-        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
+        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="B109" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1022174</v>
+        <v>1498179</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2560,18 +2560,18 @@
         <v>0</v>
       </c>
       <c r="F109" t="str">
-        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
+        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="B110" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C110">
-        <v>735067</v>
+        <v>1893070</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2580,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="F110" t="str">
-        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
+        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="B111" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C111">
-        <v>884650</v>
+        <v>1944078</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2600,18 +2600,18 @@
         <v>0</v>
       </c>
       <c r="F111" t="str">
-        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
+        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="B112" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C112">
-        <v>747200</v>
+        <v>1305033</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2620,18 +2620,18 @@
         <v>0</v>
       </c>
       <c r="F112" t="str">
-        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
+        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="B113" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C113">
-        <v>929563</v>
+        <v>966684</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2640,18 +2640,18 @@
         <v>0</v>
       </c>
       <c r="F113" t="str">
-        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
+        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="B114" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1438157</v>
+        <v>1022174</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2660,18 +2660,18 @@
         <v>0</v>
       </c>
       <c r="F114" t="str">
-        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
+        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="B115" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1738244</v>
+        <v>735067</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2680,18 +2680,18 @@
         <v>0</v>
       </c>
       <c r="F115" t="str">
-        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
+        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="B116" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C116">
-        <v>1379851</v>
+        <v>884650</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2700,18 +2700,18 @@
         <v>0</v>
       </c>
       <c r="F116" t="str">
-        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
+        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="B117" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C117">
-        <v>1668236</v>
+        <v>747200</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2720,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="F117" t="str">
-        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
+        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="B118" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C118">
-        <v>1253454</v>
+        <v>929563</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2740,18 +2740,18 @@
         <v>0</v>
       </c>
       <c r="F118" t="str">
-        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
+        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="B119" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C119">
-        <v>978036</v>
+        <v>1438157</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2760,18 +2760,18 @@
         <v>0</v>
       </c>
       <c r="F119" t="str">
-        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
+        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="B120" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1465796</v>
+        <v>1738244</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2780,18 +2780,18 @@
         <v>0</v>
       </c>
       <c r="F120" t="str">
-        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
+        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="B121" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C121">
-        <v>674482</v>
+        <v>1379851</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,18 +2800,18 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
+        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="B122" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C122">
-        <v>2273816</v>
+        <v>1668236</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2820,18 +2820,18 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
+        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="B123" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1563935</v>
+        <v>1253454</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2840,18 +2840,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="B124" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C124">
-        <v>374438</v>
+        <v>978036</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2860,18 +2860,18 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="B125" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C125">
-        <v>565237</v>
+        <v>1465796</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2880,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C126">
-        <v>817918</v>
+        <v>674482</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1562399</v>
+        <v>2273816</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C128">
-        <v>710836</v>
+        <v>1563935</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1080988</v>
+        <v>374438</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C130">
-        <v>922762</v>
+        <v>565237</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C131">
-        <v>677160</v>
+        <v>817918</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C132">
-        <v>810545</v>
+        <v>1562399</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C133">
-        <v>274107</v>
+        <v>710836</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C134">
-        <v>220241</v>
+        <v>1080988</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C135">
-        <v>95904</v>
+        <v>922762</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1090287</v>
+        <v>677160</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C137">
-        <v>4141809</v>
+        <v>810545</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1438334</v>
+        <v>274107</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C139">
-        <v>883152</v>
+        <v>220241</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C140">
-        <v>903933</v>
+        <v>95904</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1201326</v>
+        <v>1380218</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
+        <v>56002e3fcbd62b966c402823e913fd1838b41aec326175d9d11b3e6b69f3ae84</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C142">
-        <v>995069</v>
+        <v>4141809</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C143">
-        <v>1222379</v>
+        <v>1438334</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C144">
-        <v>694955</v>
+        <v>883152</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C145">
-        <v>3816615</v>
+        <v>903933</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1950945</v>
+        <v>1396220</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C147">
-        <v>2974087</v>
+        <v>995069</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1786521</v>
+        <v>1222379</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C149">
-        <v>2340687</v>
+        <v>694955</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1950950</v>
+        <v>3816615</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C151">
-        <v>2411026</v>
+        <v>1950945</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C152">
-        <v>2120097</v>
+        <v>2974087</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1952744</v>
+        <v>1786521</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1735996</v>
+        <v>2340687</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C155">
-        <v>539190</v>
+        <v>1950950</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>14e3bf4dc5d6266f41c1e66d593e5a8a3bf207ec1af947333a880d80e3206c36</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C156">
-        <v>295471</v>
+        <v>2411026</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C157">
-        <v>316196</v>
+        <v>2120097</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C158">
-        <v>164018</v>
+        <v>1952744</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C159">
-        <v>214542</v>
+        <v>1735996</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C160">
-        <v>310371</v>
+        <v>653175</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C161">
-        <v>288931</v>
+        <v>295471</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C162">
-        <v>270545</v>
+        <v>316196</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2495651</v>
+        <v>164018</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2552316</v>
+        <v>214542</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2506496</v>
+        <v>310371</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2502115</v>
+        <v>288931</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C167">
-        <v>2681244</v>
+        <v>270545</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C168">
-        <v>698614</v>
+        <v>2495651</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C169">
-        <v>162241</v>
+        <v>2552316</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C170">
-        <v>2422605</v>
+        <v>2506496</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C171">
-        <v>2765350</v>
+        <v>2502115</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C172">
-        <v>2456682</v>
+        <v>2681244</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C173">
-        <v>2504056</v>
+        <v>698614</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C174">
-        <v>666244</v>
+        <v>162241</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C175">
-        <v>563882</v>
+        <v>2422605</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C176">
-        <v>739598</v>
+        <v>2765350</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C177">
-        <v>3045368</v>
+        <v>2456682</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C178">
-        <v>754919</v>
+        <v>2504056</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C179">
-        <v>603486</v>
+        <v>666244</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C180">
-        <v>739808</v>
+        <v>563882</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C181">
-        <v>566660</v>
+        <v>739598</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C182">
-        <v>2528471</v>
+        <v>3045368</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C183">
-        <v>2936832</v>
+        <v>754919</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C184">
-        <v>3308612</v>
+        <v>603486</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C185">
-        <v>2627611</v>
+        <v>739808</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C186">
-        <v>2617624</v>
+        <v>566660</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C187">
-        <v>2630207</v>
+        <v>2528471</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C188">
-        <v>2392569</v>
+        <v>2936832</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C189">
-        <v>2995290</v>
+        <v>3308612</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C190">
-        <v>2175267</v>
+        <v>2627611</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C191">
-        <v>2428868</v>
+        <v>2617624</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C192">
-        <v>2427396</v>
+        <v>2630207</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C193">
-        <v>2304469</v>
+        <v>2392569</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C194">
-        <v>804072</v>
+        <v>2995290</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C195">
-        <v>709034</v>
+        <v>2175267</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C196">
-        <v>685080</v>
+        <v>2428868</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C197">
-        <v>752922</v>
+        <v>2427396</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C198">
-        <v>2717520</v>
+        <v>2304469</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C199">
-        <v>727078</v>
+        <v>804072</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C200">
-        <v>2207700</v>
+        <v>709034</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C201">
-        <v>1999173</v>
+        <v>685080</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C202">
-        <v>3183647</v>
+        <v>752922</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C203">
-        <v>2693612</v>
+        <v>2717520</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C204">
-        <v>1811682</v>
+        <v>727078</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C205">
-        <v>2884291</v>
+        <v>2207700</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C206">
-        <v>1894693</v>
+        <v>1999173</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C207">
-        <v>4436044</v>
+        <v>3183647</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C208">
-        <v>2018679</v>
+        <v>2693612</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C209">
-        <v>1924288</v>
+        <v>1811682</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C210">
-        <v>1762090</v>
+        <v>2884291</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C211">
-        <v>1815137</v>
+        <v>1894693</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C212">
-        <v>1902141</v>
+        <v>4436044</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C213">
-        <v>1981520</v>
+        <v>2018679</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C214">
-        <v>2015887</v>
+        <v>1924288</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C215">
-        <v>3505338</v>
+        <v>1762090</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C216">
-        <v>599614</v>
+        <v>1815137</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C217">
-        <v>1680814</v>
+        <v>1902141</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C218">
-        <v>587468</v>
+        <v>1981520</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C219">
-        <v>779970</v>
+        <v>2015887</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C220">
-        <v>692056</v>
+        <v>3505338</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C221">
-        <v>838136</v>
+        <v>599614</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C222">
-        <v>785380</v>
+        <v>1680814</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C223">
-        <v>798459</v>
+        <v>587468</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C224">
-        <v>728297</v>
+        <v>779970</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C225">
-        <v>712509</v>
+        <v>692056</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C226">
-        <v>652170</v>
+        <v>838136</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C227">
-        <v>735341</v>
+        <v>785380</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C228">
-        <v>742293</v>
+        <v>798459</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C229">
-        <v>826507</v>
+        <v>728297</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C230">
-        <v>695750</v>
+        <v>712509</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C231">
-        <v>2138145</v>
+        <v>652170</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C232">
-        <v>2121513</v>
+        <v>735341</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C233">
-        <v>753461</v>
+        <v>742293</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C234">
-        <v>741348</v>
+        <v>826507</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C235">
-        <v>681363</v>
+        <v>695750</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C236">
-        <v>649699</v>
+        <v>2138145</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C237">
-        <v>712817</v>
+        <v>2121513</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C238">
-        <v>638642</v>
+        <v>753461</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C239">
-        <v>793474</v>
+        <v>741348</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C240">
-        <v>816979</v>
+        <v>681363</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C241">
-        <v>2772777</v>
+        <v>649699</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C242">
-        <v>2197554</v>
+        <v>712817</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C243">
-        <v>2098490</v>
+        <v>638642</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C244">
-        <v>784010</v>
+        <v>793474</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C245">
-        <v>3963142</v>
+        <v>816979</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C246">
-        <v>2642424</v>
+        <v>2772777</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C247">
-        <v>2345835</v>
+        <v>2197554</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C248">
-        <v>2655499</v>
+        <v>2098490</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C249">
-        <v>2340879</v>
+        <v>784010</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C250">
-        <v>714371</v>
+        <v>3963142</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C251">
-        <v>648465</v>
+        <v>2642424</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C252">
-        <v>1662425</v>
+        <v>2345835</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C253">
-        <v>1803629</v>
+        <v>2655499</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C254">
-        <v>1983346</v>
+        <v>2340879</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C255">
-        <v>2024839</v>
+        <v>714371</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C256">
-        <v>2847546</v>
+        <v>648465</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C257">
-        <v>1994394</v>
+        <v>1662425</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C258">
-        <v>2274166</v>
+        <v>1803629</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C259">
-        <v>1758391</v>
+        <v>1983346</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C260">
-        <v>2093146</v>
+        <v>2024839</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_uncategorized_0.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C261">
-        <v>445574</v>
+        <v>2847546</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,13 +5600,93 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B262" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C262">
+        <v>1994394</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" t="str">
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B263" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C263">
+        <v>2274166</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B264" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C264">
+        <v>1758391</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B265" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C265">
+        <v>2093146</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F261"/>
+  <autoFilter ref="A1:F265"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F261"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F265"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -1471,7 +1471,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>1992131</v>
+        <v>2011709</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>3b2dbd5fdb1ed26cc7d1933924e884f1516affe5ad1b168cc5d37da8dda608fd</v>
+        <v>60f4c8f3d2a1a07126f4d19af567cc7bfe915d0da30e408f837f2c0941ebf0db</v>
       </c>
     </row>
     <row r="56">
@@ -2371,7 +2371,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1192258</v>
+        <v>1204292</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>78ffacdc2ce16f73ce9f5f4b78992faed82ca79fd9f6d01c3e0dba80f98aa61b</v>
+        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
       </c>
     </row>
     <row r="101">
@@ -3191,7 +3191,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1380218</v>
+        <v>1390507</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>56002e3fcbd62b966c402823e913fd1838b41aec326175d9d11b3e6b69f3ae84</v>
+        <v>a55f3ff65c236a494fb23be62673cf1122fde15088b0db57f878b24d3c24ec54</v>
       </c>
     </row>
     <row r="142">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F273</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F265"/>
+  <dimension ref="A1:F273"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>audioclip_sfx_e0002_jp.ab</v>
+        <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="B56" t="str">
-        <v>audioclip_sfx_e0002_jp.ab</v>
+        <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>662019</v>
+        <v>1272250</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1500,18 +1500,18 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>baccaaf24c28cb8600e4f8ba37f18e41258dbfd071571e2793894a07cc024968</v>
+        <v>077698a51de4a1c76770fb90a42825b5dd903a8e6c97127e0b68cf82fa40bafb</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>audioclip_sfx_e0046_jp.ab</v>
+        <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="B57" t="str">
-        <v>audioclip_sfx_e0046_jp.ab</v>
+        <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C57">
-        <v>3100194</v>
+        <v>662019</v>
       </c>
       <c r="D57" t="str">
         <v>Stage_1</v>
@@ -1520,18 +1520,18 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>fcc44e3e32ef9c2eec689464a761a22246a1c29cf89ac7c841d58f5abb88154a</v>
+        <v>baccaaf24c28cb8600e4f8ba37f18e41258dbfd071571e2793894a07cc024968</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>audioclip_sfx_e3489_jp.ab</v>
+        <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="B58" t="str">
-        <v>audioclip_sfx_e3489_jp.ab</v>
+        <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C58">
-        <v>356887</v>
+        <v>3100194</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1540,18 +1540,18 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
+        <v>fcc44e3e32ef9c2eec689464a761a22246a1c29cf89ac7c841d58f5abb88154a</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>audioclip_sfx_e3497_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="B59" t="str">
-        <v>audioclip_sfx_e3497_jp.ab</v>
+        <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C59">
-        <v>250817</v>
+        <v>356887</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1560,18 +1560,18 @@
         <v>0</v>
       </c>
       <c r="F59" t="str">
-        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
+        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>audioclip_sfx_e3498_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="B60" t="str">
-        <v>audioclip_sfx_e3498_jp.ab</v>
+        <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C60">
-        <v>362000</v>
+        <v>250817</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1580,18 +1580,18 @@
         <v>0</v>
       </c>
       <c r="F60" t="str">
-        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
+        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>audioclip_sfx_e3499_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="B61" t="str">
-        <v>audioclip_sfx_e3499_jp.ab</v>
+        <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C61">
-        <v>119622</v>
+        <v>362000</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1600,18 +1600,18 @@
         <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
+        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>audioclip_sfx_e3500_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="B62" t="str">
-        <v>audioclip_sfx_e3500_jp.ab</v>
+        <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C62">
-        <v>67549</v>
+        <v>119622</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1620,18 +1620,18 @@
         <v>0</v>
       </c>
       <c r="F62" t="str">
-        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
+        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="B63" t="str">
-        <v>audioclip_sfx_h0003_jp.ab</v>
+        <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C63">
-        <v>643296</v>
+        <v>67549</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1640,18 +1640,18 @@
         <v>0</v>
       </c>
       <c r="F63" t="str">
-        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
+        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="B64" t="str">
-        <v>audioclip_sfx_h0004_jp.ab</v>
+        <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C64">
-        <v>828726</v>
+        <v>643296</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1660,18 +1660,18 @@
         <v>0</v>
       </c>
       <c r="F64" t="str">
-        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
+        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="B65" t="str">
-        <v>audioclip_sfx_h0005_jp.ab</v>
+        <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C65">
-        <v>872421</v>
+        <v>828726</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1680,18 +1680,18 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
+        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="B66" t="str">
-        <v>audioclip_sfx_h0006_jp.ab</v>
+        <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C66">
-        <v>859653</v>
+        <v>872421</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1700,18 +1700,18 @@
         <v>0</v>
       </c>
       <c r="F66" t="str">
-        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
+        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="B67" t="str">
-        <v>audioclip_sfx_h0007_jp.ab</v>
+        <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>678590</v>
+        <v>859653</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,18 +1720,18 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
+        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="B68" t="str">
-        <v>audioclip_sfx_h0008_jp.ab</v>
+        <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C68">
-        <v>349373</v>
+        <v>678590</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1740,18 +1740,18 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
+        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="B69" t="str">
-        <v>audioclip_sfx_h0009_jp.ab</v>
+        <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C69">
-        <v>453749</v>
+        <v>349373</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1760,18 +1760,18 @@
         <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
+        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="B70" t="str">
-        <v>audioclip_sfx_h0010_jp.ab</v>
+        <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C70">
-        <v>1074561</v>
+        <v>453749</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1780,18 +1780,18 @@
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
+        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="B71" t="str">
-        <v>audioclip_sfx_h0012_jp.ab</v>
+        <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C71">
-        <v>740080</v>
+        <v>1074561</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1800,18 +1800,18 @@
         <v>0</v>
       </c>
       <c r="F71" t="str">
-        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
+        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="B72" t="str">
-        <v>audioclip_sfx_h0013_jp.ab</v>
+        <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C72">
-        <v>940843</v>
+        <v>740080</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1820,18 +1820,18 @@
         <v>0</v>
       </c>
       <c r="F72" t="str">
-        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
+        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="B73" t="str">
-        <v>audioclip_sfx_h0014_jp.ab</v>
+        <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C73">
-        <v>446568</v>
+        <v>940843</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1840,18 +1840,18 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
+        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="B74" t="str">
-        <v>audioclip_sfx_h0016_jp.ab</v>
+        <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C74">
-        <v>698652</v>
+        <v>446568</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1860,18 +1860,18 @@
         <v>0</v>
       </c>
       <c r="F74" t="str">
-        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
+        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="B75" t="str">
-        <v>audioclip_sfx_h0018_jp.ab</v>
+        <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C75">
-        <v>891783</v>
+        <v>698652</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1880,18 +1880,18 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
+        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="B76" t="str">
-        <v>audioclip_sfx_h0020_jp.ab</v>
+        <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C76">
-        <v>755823</v>
+        <v>891783</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1900,18 +1900,18 @@
         <v>0</v>
       </c>
       <c r="F76" t="str">
-        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
+        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="B77" t="str">
-        <v>audioclip_sfx_h0021_jp.ab</v>
+        <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C77">
-        <v>1196222</v>
+        <v>755823</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1920,18 +1920,18 @@
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
+        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="B78" t="str">
-        <v>audioclip_sfx_h0022_jp.ab</v>
+        <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C78">
-        <v>985513</v>
+        <v>1196222</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1940,18 +1940,18 @@
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
+        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="B79" t="str">
-        <v>audioclip_sfx_h0023_jp.ab</v>
+        <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C79">
-        <v>1681289</v>
+        <v>985513</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1960,18 +1960,18 @@
         <v>0</v>
       </c>
       <c r="F79" t="str">
-        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
+        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="B80" t="str">
-        <v>audioclip_sfx_h0024_jp.ab</v>
+        <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1572110</v>
+        <v>1681289</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1980,18 +1980,18 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
+        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="B81" t="str">
-        <v>audioclip_sfx_h0025_jp.ab</v>
+        <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C81">
-        <v>937989</v>
+        <v>1572110</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2000,18 +2000,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
+        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="B82" t="str">
-        <v>audioclip_sfx_h0029_jp.ab</v>
+        <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C82">
-        <v>1291318</v>
+        <v>937989</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2020,18 +2020,18 @@
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
+        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="B83" t="str">
-        <v>audioclip_sfx_h0030_jp.ab</v>
+        <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1189229</v>
+        <v>1291318</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2040,18 +2040,18 @@
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
+        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="B84" t="str">
-        <v>audioclip_sfx_h0031_jp.ab</v>
+        <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C84">
-        <v>1039717</v>
+        <v>1189229</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2060,18 +2060,18 @@
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
+        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="B85" t="str">
-        <v>audioclip_sfx_h0035_jp.ab</v>
+        <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C85">
-        <v>785916</v>
+        <v>1039717</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2080,18 +2080,18 @@
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
+        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="B86" t="str">
-        <v>audioclip_sfx_h0036_jp.ab</v>
+        <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C86">
-        <v>743600</v>
+        <v>785916</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2100,18 +2100,18 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
+        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="B87" t="str">
-        <v>audioclip_sfx_h0038_jp.ab</v>
+        <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C87">
-        <v>611319</v>
+        <v>743600</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2120,18 +2120,18 @@
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
+        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="B88" t="str">
-        <v>audioclip_sfx_h0040_jp.ab</v>
+        <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C88">
-        <v>587130</v>
+        <v>611319</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2140,18 +2140,18 @@
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
+        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="B89" t="str">
-        <v>audioclip_sfx_h0041_jp.ab</v>
+        <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C89">
-        <v>525440</v>
+        <v>587130</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2160,18 +2160,18 @@
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
+        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="B90" t="str">
-        <v>audioclip_sfx_h0042_jp.ab</v>
+        <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C90">
-        <v>955356</v>
+        <v>525440</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2180,18 +2180,18 @@
         <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
+        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="B91" t="str">
-        <v>audioclip_sfx_h0043_jp.ab</v>
+        <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C91">
-        <v>2421224</v>
+        <v>955356</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2200,18 +2200,18 @@
         <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
+        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="B92" t="str">
-        <v>audioclip_sfx_h0044_jp.ab</v>
+        <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C92">
-        <v>619176</v>
+        <v>2421224</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2220,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F92" t="str">
-        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
+        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="B93" t="str">
-        <v>audioclip_sfx_h0045_jp.ab</v>
+        <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C93">
-        <v>538540</v>
+        <v>619176</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2240,18 +2240,18 @@
         <v>0</v>
       </c>
       <c r="F93" t="str">
-        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
+        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="B94" t="str">
-        <v>audioclip_sfx_h0047_jp.ab</v>
+        <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C94">
-        <v>5025117</v>
+        <v>538540</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2260,18 +2260,18 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
+        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="B95" t="str">
-        <v>audioclip_sfx_h0048_jp.ab</v>
+        <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C95">
-        <v>1535953</v>
+        <v>5025117</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2280,18 +2280,18 @@
         <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
+        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="B96" t="str">
-        <v>audioclip_sfx_h0073_jp.ab</v>
+        <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C96">
-        <v>276258</v>
+        <v>1535953</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2300,18 +2300,18 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
+        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="B97" t="str">
-        <v>audioclip_sfx_h0097_jp.ab</v>
+        <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C97">
-        <v>1321255</v>
+        <v>276258</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2320,18 +2320,18 @@
         <v>0</v>
       </c>
       <c r="F97" t="str">
-        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
+        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="B98" t="str">
-        <v>audioclip_sfx_h0128_jp.ab</v>
+        <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C98">
-        <v>29710</v>
+        <v>1321255</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2340,18 +2340,18 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
+        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="B99" t="str">
-        <v>audioclip_sfx_h0133_jp.ab</v>
+        <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="C99">
-        <v>1334006</v>
+        <v>29710</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2360,18 +2360,18 @@
         <v>0</v>
       </c>
       <c r="F99" t="str">
-        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
+        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="B100" t="str">
-        <v>audioclip_sfx_h0134_jp.ab</v>
+        <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1204292</v>
+        <v>1334006</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2380,18 +2380,18 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
+        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="B101" t="str">
-        <v>audioclip_sfx_h0135_jp.ab</v>
+        <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C101">
-        <v>2285384</v>
+        <v>1204292</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2400,18 +2400,18 @@
         <v>0</v>
       </c>
       <c r="F101" t="str">
-        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
+        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="B102" t="str">
-        <v>audioclip_sfx_h0136_jp.ab</v>
+        <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C102">
-        <v>1260480</v>
+        <v>2285384</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2420,18 +2420,18 @@
         <v>0</v>
       </c>
       <c r="F102" t="str">
-        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
+        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="B103" t="str">
-        <v>audioclip_sfx_h0137_jp.ab</v>
+        <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C103">
-        <v>2046285</v>
+        <v>1260480</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2440,18 +2440,18 @@
         <v>0</v>
       </c>
       <c r="F103" t="str">
-        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
+        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="B104" t="str">
-        <v>audioclip_sfx_h0138_jp.ab</v>
+        <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C104">
-        <v>1236785</v>
+        <v>2046285</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2460,18 +2460,18 @@
         <v>0</v>
       </c>
       <c r="F104" t="str">
-        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
+        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="B105" t="str">
-        <v>audioclip_sfx_h0150_jp.ab</v>
+        <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C105">
-        <v>2757182</v>
+        <v>1236785</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2480,18 +2480,18 @@
         <v>0</v>
       </c>
       <c r="F105" t="str">
-        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
+        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="B106" t="str">
-        <v>audioclip_sfx_h0151_jp.ab</v>
+        <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C106">
-        <v>1924658</v>
+        <v>2757182</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2500,18 +2500,18 @@
         <v>0</v>
       </c>
       <c r="F106" t="str">
-        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
+        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="B107" t="str">
-        <v>audioclip_sfx_h0152_jp.ab</v>
+        <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1987330</v>
+        <v>1924658</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2520,18 +2520,18 @@
         <v>0</v>
       </c>
       <c r="F107" t="str">
-        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
+        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="B108" t="str">
-        <v>audioclip_sfx_h0154_jp.ab</v>
+        <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C108">
-        <v>1928498</v>
+        <v>1987330</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2540,18 +2540,18 @@
         <v>0</v>
       </c>
       <c r="F108" t="str">
-        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
+        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="B109" t="str">
-        <v>audioclip_sfx_h0157_jp.ab</v>
+        <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1498179</v>
+        <v>1928498</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2560,18 +2560,18 @@
         <v>0</v>
       </c>
       <c r="F109" t="str">
-        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
+        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="B110" t="str">
-        <v>audioclip_sfx_h0159_jp.ab</v>
+        <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1893070</v>
+        <v>1498179</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2580,18 +2580,18 @@
         <v>0</v>
       </c>
       <c r="F110" t="str">
-        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
+        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="B111" t="str">
-        <v>audioclip_sfx_h0161_jp.ab</v>
+        <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C111">
-        <v>1944078</v>
+        <v>1893070</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2600,18 +2600,18 @@
         <v>0</v>
       </c>
       <c r="F111" t="str">
-        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
+        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="B112" t="str">
-        <v>audioclip_sfx_h0163_jp.ab</v>
+        <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1305033</v>
+        <v>1944078</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2620,18 +2620,18 @@
         <v>0</v>
       </c>
       <c r="F112" t="str">
-        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
+        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="B113" t="str">
-        <v>audioclip_sfx_h0164_jp.ab</v>
+        <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C113">
-        <v>966684</v>
+        <v>1305033</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2640,18 +2640,18 @@
         <v>0</v>
       </c>
       <c r="F113" t="str">
-        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
+        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="B114" t="str">
-        <v>audioclip_sfx_h0165_jp.ab</v>
+        <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C114">
-        <v>1022174</v>
+        <v>966684</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2660,18 +2660,18 @@
         <v>0</v>
       </c>
       <c r="F114" t="str">
-        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
+        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="B115" t="str">
-        <v>audioclip_sfx_h0166_jp.ab</v>
+        <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C115">
-        <v>735067</v>
+        <v>1022174</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2680,18 +2680,18 @@
         <v>0</v>
       </c>
       <c r="F115" t="str">
-        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
+        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="B116" t="str">
-        <v>audioclip_sfx_h0167_jp.ab</v>
+        <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C116">
-        <v>884650</v>
+        <v>735067</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2700,18 +2700,18 @@
         <v>0</v>
       </c>
       <c r="F116" t="str">
-        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
+        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="B117" t="str">
-        <v>audioclip_sfx_h0168_jp.ab</v>
+        <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C117">
-        <v>747200</v>
+        <v>884650</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2720,18 +2720,18 @@
         <v>0</v>
       </c>
       <c r="F117" t="str">
-        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
+        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="B118" t="str">
-        <v>audioclip_sfx_h0169_jp.ab</v>
+        <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C118">
-        <v>929563</v>
+        <v>747200</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2740,18 +2740,18 @@
         <v>0</v>
       </c>
       <c r="F118" t="str">
-        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
+        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="B119" t="str">
-        <v>audioclip_sfx_h0170_jp.ab</v>
+        <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C119">
-        <v>1438157</v>
+        <v>929563</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2760,18 +2760,18 @@
         <v>0</v>
       </c>
       <c r="F119" t="str">
-        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
+        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="B120" t="str">
-        <v>audioclip_sfx_h0171_jp.ab</v>
+        <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1738244</v>
+        <v>1438157</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2780,18 +2780,18 @@
         <v>0</v>
       </c>
       <c r="F120" t="str">
-        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
+        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="B121" t="str">
-        <v>audioclip_sfx_h0172_jp.ab</v>
+        <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1379851</v>
+        <v>1738244</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2800,18 +2800,18 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
+        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="B122" t="str">
-        <v>audioclip_sfx_h0174_jp.ab</v>
+        <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1668236</v>
+        <v>1379851</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2820,18 +2820,18 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
+        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="B123" t="str">
-        <v>audioclip_sfx_h0175_jp.ab</v>
+        <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1253454</v>
+        <v>1668236</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2840,18 +2840,18 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
+        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="B124" t="str">
-        <v>audioclip_sfx_h0176_jp.ab</v>
+        <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C124">
-        <v>978036</v>
+        <v>1253454</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2860,18 +2860,18 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
+        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="B125" t="str">
-        <v>audioclip_sfx_h0177_jp.ab</v>
+        <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C125">
-        <v>1465796</v>
+        <v>978036</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2880,18 +2880,18 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
+        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0179_jp.ab</v>
+        <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C126">
-        <v>674482</v>
+        <v>1465796</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
+        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0183_jp.ab</v>
+        <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C127">
-        <v>2273816</v>
+        <v>674482</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
+        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0185_jp.ab</v>
+        <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C128">
-        <v>1563935</v>
+        <v>2273816</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0186_jp.ab</v>
+        <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C129">
-        <v>374438</v>
+        <v>1563935</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>565237</v>
+        <v>374438</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C131">
-        <v>817918</v>
+        <v>565237</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C132">
-        <v>1562399</v>
+        <v>817918</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C133">
-        <v>710836</v>
+        <v>1562399</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1080988</v>
+        <v>710836</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C135">
-        <v>922762</v>
+        <v>1080988</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C136">
-        <v>677160</v>
+        <v>922762</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C137">
-        <v>810545</v>
+        <v>677160</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C138">
-        <v>274107</v>
+        <v>810545</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C139">
-        <v>220241</v>
+        <v>967960</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C140">
-        <v>95904</v>
+        <v>274107</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C141">
-        <v>1390507</v>
+        <v>220241</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>a55f3ff65c236a494fb23be62673cf1122fde15088b0db57f878b24d3c24ec54</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C142">
-        <v>4141809</v>
+        <v>95904</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C143">
-        <v>1438334</v>
+        <v>1390700</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C144">
-        <v>883152</v>
+        <v>4141809</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C145">
-        <v>903933</v>
+        <v>1438334</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1396220</v>
+        <v>1066334</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C147">
-        <v>995069</v>
+        <v>883152</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1222379</v>
+        <v>903933</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C149">
-        <v>694955</v>
+        <v>1396220</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C150">
-        <v>3816615</v>
+        <v>995069</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1950945</v>
+        <v>1222379</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C152">
-        <v>2974087</v>
+        <v>694955</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1786521</v>
+        <v>3816615</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C154">
-        <v>2340687</v>
+        <v>1950945</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1950950</v>
+        <v>2974087</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C156">
-        <v>2411026</v>
+        <v>1786521</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C157">
-        <v>2120097</v>
+        <v>2340687</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1952744</v>
+        <v>1950950</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1735996</v>
+        <v>2411026</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C160">
-        <v>653175</v>
+        <v>2120097</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C161">
-        <v>295471</v>
+        <v>1952744</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C162">
-        <v>316196</v>
+        <v>1735996</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C163">
-        <v>164018</v>
+        <v>653175</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C164">
-        <v>214542</v>
+        <v>295471</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C165">
-        <v>310371</v>
+        <v>1290290</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C166">
-        <v>288931</v>
+        <v>316196</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C167">
-        <v>270545</v>
+        <v>164018</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2495651</v>
+        <v>214542</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C169">
-        <v>2552316</v>
+        <v>310371</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C170">
-        <v>2506496</v>
+        <v>288931</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C171">
-        <v>2502115</v>
+        <v>270545</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C172">
-        <v>2681244</v>
+        <v>2495651</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C173">
-        <v>698614</v>
+        <v>2552316</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C174">
-        <v>162241</v>
+        <v>2506496</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C175">
-        <v>2422605</v>
+        <v>2502115</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C176">
-        <v>2765350</v>
+        <v>739608</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C177">
-        <v>2456682</v>
+        <v>2681244</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C178">
-        <v>2504056</v>
+        <v>698614</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C179">
-        <v>666244</v>
+        <v>162241</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C180">
-        <v>563882</v>
+        <v>2422605</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C181">
-        <v>739598</v>
+        <v>2765350</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C182">
-        <v>3045368</v>
+        <v>2456682</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C183">
-        <v>754919</v>
+        <v>2504056</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C184">
-        <v>603486</v>
+        <v>666244</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C185">
-        <v>739808</v>
+        <v>563882</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C186">
-        <v>566660</v>
+        <v>739598</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C187">
-        <v>2528471</v>
+        <v>3045368</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C188">
-        <v>2936832</v>
+        <v>754919</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C189">
-        <v>3308612</v>
+        <v>603486</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C190">
-        <v>2627611</v>
+        <v>739808</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C191">
-        <v>2617624</v>
+        <v>566660</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C192">
-        <v>2630207</v>
+        <v>2528471</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C193">
-        <v>2392569</v>
+        <v>2936832</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C194">
-        <v>2995290</v>
+        <v>3308612</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C195">
-        <v>2175267</v>
+        <v>2627611</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C196">
-        <v>2428868</v>
+        <v>2617624</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C197">
-        <v>2427396</v>
+        <v>2630207</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C198">
-        <v>2304469</v>
+        <v>2392569</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C199">
-        <v>804072</v>
+        <v>2995290</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C200">
-        <v>709034</v>
+        <v>2175267</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C201">
-        <v>685080</v>
+        <v>2428868</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C202">
-        <v>752922</v>
+        <v>2427396</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C203">
-        <v>2717520</v>
+        <v>2304469</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C204">
-        <v>727078</v>
+        <v>804072</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C205">
-        <v>2207700</v>
+        <v>709034</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C206">
-        <v>1999173</v>
+        <v>685080</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C207">
-        <v>3183647</v>
+        <v>752922</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C208">
-        <v>2693612</v>
+        <v>2717520</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C209">
-        <v>1811682</v>
+        <v>727078</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C210">
-        <v>2884291</v>
+        <v>2207700</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C211">
-        <v>1894693</v>
+        <v>1999173</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C212">
-        <v>4436044</v>
+        <v>3183647</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C213">
-        <v>2018679</v>
+        <v>2693612</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C214">
-        <v>1924288</v>
+        <v>1811682</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C215">
-        <v>1762090</v>
+        <v>2884291</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C216">
-        <v>1815137</v>
+        <v>1894693</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C217">
-        <v>1902141</v>
+        <v>4436044</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C218">
-        <v>1981520</v>
+        <v>2018679</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C219">
-        <v>2015887</v>
+        <v>1924288</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C220">
-        <v>3505338</v>
+        <v>1762090</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C221">
-        <v>599614</v>
+        <v>1815137</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C222">
-        <v>1680814</v>
+        <v>1902141</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C223">
-        <v>587468</v>
+        <v>1981520</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C224">
-        <v>779970</v>
+        <v>2015887</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C225">
-        <v>692056</v>
+        <v>3505338</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C226">
-        <v>838136</v>
+        <v>599614</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C227">
-        <v>785380</v>
+        <v>1680814</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C228">
-        <v>798459</v>
+        <v>587468</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C229">
-        <v>728297</v>
+        <v>779970</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C230">
-        <v>712509</v>
+        <v>692056</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C231">
-        <v>652170</v>
+        <v>838136</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C232">
-        <v>735341</v>
+        <v>785380</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C233">
-        <v>742293</v>
+        <v>798459</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C234">
-        <v>826507</v>
+        <v>728297</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C235">
-        <v>695750</v>
+        <v>712509</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C236">
-        <v>2138145</v>
+        <v>652170</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C237">
-        <v>2121513</v>
+        <v>735341</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C238">
-        <v>753461</v>
+        <v>742293</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C239">
-        <v>741348</v>
+        <v>826507</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C240">
-        <v>681363</v>
+        <v>695750</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C241">
-        <v>649699</v>
+        <v>2138145</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C242">
-        <v>712817</v>
+        <v>2121513</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C243">
-        <v>638642</v>
+        <v>753461</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C244">
-        <v>793474</v>
+        <v>741348</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C245">
-        <v>816979</v>
+        <v>681363</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C246">
-        <v>2772777</v>
+        <v>649699</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C247">
-        <v>2197554</v>
+        <v>712817</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C248">
-        <v>2098490</v>
+        <v>638642</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C249">
-        <v>784010</v>
+        <v>793474</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C250">
-        <v>3963142</v>
+        <v>816979</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C251">
-        <v>2642424</v>
+        <v>794559</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C252">
-        <v>2345835</v>
+        <v>2772777</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C253">
-        <v>2655499</v>
+        <v>2197554</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C254">
-        <v>2340879</v>
+        <v>2098490</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C255">
-        <v>714371</v>
+        <v>784010</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C256">
-        <v>648465</v>
+        <v>818613</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C257">
-        <v>1662425</v>
+        <v>3963142</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C258">
-        <v>1803629</v>
+        <v>2642424</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C259">
-        <v>1983346</v>
+        <v>2345835</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C260">
-        <v>2024839</v>
+        <v>2655499</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C261">
-        <v>2847546</v>
+        <v>2340879</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C262">
-        <v>1994394</v>
+        <v>714371</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C263">
-        <v>2274166</v>
+        <v>648465</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C264">
-        <v>1758391</v>
+        <v>1662425</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,33 +5660,193 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
+        <v>character_largeimage_t0153.ab</v>
+      </c>
+      <c r="B265" t="str">
+        <v>character_largeimage_t0153.ab</v>
+      </c>
+      <c r="C265">
+        <v>1803629</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" t="str">
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>character_largeimage_t0155.ab</v>
+      </c>
+      <c r="B266" t="str">
+        <v>character_largeimage_t0155.ab</v>
+      </c>
+      <c r="C266">
+        <v>1983346</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266" t="str">
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>character_largeimage_t0156.ab</v>
+      </c>
+      <c r="B267" t="str">
+        <v>character_largeimage_t0156.ab</v>
+      </c>
+      <c r="C267">
+        <v>2024839</v>
+      </c>
+      <c r="D267" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" t="str">
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="B268" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="C268">
+        <v>2847546</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="str">
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B269" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C269">
+        <v>1994394</v>
+      </c>
+      <c r="D269" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269" t="str">
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B270" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C270">
+        <v>2274166</v>
+      </c>
+      <c r="D270" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B271" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C271">
+        <v>1758391</v>
+      </c>
+      <c r="D271" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
         <v>character_largeimage_t0184.ab</v>
       </c>
-      <c r="B265" t="str">
+      <c r="B272" t="str">
         <v>character_largeimage_t0184.ab</v>
       </c>
-      <c r="C265">
+      <c r="C272">
         <v>2093146</v>
       </c>
-      <c r="D265" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E265">
-        <v>0</v>
-      </c>
-      <c r="F265" t="str">
+      <c r="D272" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272" t="str">
         <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="B273" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="C273">
+        <v>815513</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" t="str">
+        <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F265"/>
+  <autoFilter ref="A1:F273"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F265"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F273"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>374438</v>
+        <v>609930</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>e839eaeb0b9b119e4ba71dfba24c04b0b562d96883aeb7f94c75e81c86e7d9ac</v>
+        <v>3e02d373ce50c16881eae6ca546fb28ba3fce6d63b2ea9712ea26d796fcb08bc</v>
       </c>
     </row>
     <row r="131">
@@ -3651,7 +3651,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C164">
-        <v>295471</v>
+        <v>337703</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>d03864243b9220f4cfb7c9c52dfcc31a19ef1716b2c2d80819fe1de4254d21e4</v>
+        <v>2b4a0a38cebf7ee45187b5f9467b239e479f73053743145060cb1ad20a3d0630</v>
       </c>
     </row>
     <row r="165">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -3651,7 +3651,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C164">
-        <v>337703</v>
+        <v>480329</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>2b4a0a38cebf7ee45187b5f9467b239e479f73053743145060cb1ad20a3d0630</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="165">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>609930</v>
+        <v>666653</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>3e02d373ce50c16881eae6ca546fb28ba3fce6d63b2ea9712ea26d796fcb08bc</v>
+        <v>bdb9c80c68b78350625b9157d7dd44d5860637edd9736284aa6b8e7f6414229c</v>
       </c>
     </row>
     <row r="131">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F276</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F273"/>
+  <dimension ref="A1:F276"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2911,7 +2911,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C127">
-        <v>674482</v>
+        <v>1838029</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>376cd12be707ad50ee53a4cc1cbe16617e2b1ae7c423364c24a2ca492e280b48</v>
+        <v>042afc6bbfa105ab70c982bafc71b087961b64fbb0215cde27d11b926c0f0ad5</v>
       </c>
     </row>
     <row r="128">
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>666653</v>
+        <v>1892974</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>bdb9c80c68b78350625b9157d7dd44d5860637edd9736284aa6b8e7f6414229c</v>
+        <v>c0a5cc39be87b9c267fdb6331ac3028dc9edc83e920d25c6e652a2d480019cc2</v>
       </c>
     </row>
     <row r="131">
@@ -3665,13 +3665,13 @@
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1290290</v>
+        <v>549865</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>4243fbda40925c1d259b8785aeeebdb55702ea9fc048d288b3fcc3e1b8641f66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C166">
-        <v>316196</v>
+        <v>1290290</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C167">
-        <v>164018</v>
+        <v>316196</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C168">
-        <v>214542</v>
+        <v>164018</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C169">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C170">
-        <v>288931</v>
+        <v>310371</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C171">
-        <v>270545</v>
+        <v>288931</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C172">
-        <v>2495651</v>
+        <v>270545</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C173">
-        <v>2552316</v>
+        <v>2495651</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C174">
-        <v>2506496</v>
+        <v>2552316</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C175">
-        <v>2502115</v>
+        <v>2506496</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C176">
-        <v>739608</v>
+        <v>2502115</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C177">
-        <v>2681244</v>
+        <v>739608</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C178">
-        <v>698614</v>
+        <v>2681244</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C179">
-        <v>162241</v>
+        <v>698614</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C180">
-        <v>2422605</v>
+        <v>162241</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C181">
-        <v>2765350</v>
+        <v>2422605</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C182">
-        <v>2456682</v>
+        <v>2765350</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C183">
-        <v>2504056</v>
+        <v>2456682</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C184">
-        <v>666244</v>
+        <v>2504056</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C185">
-        <v>563882</v>
+        <v>666244</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C186">
-        <v>739598</v>
+        <v>563882</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C187">
-        <v>3045368</v>
+        <v>739598</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C188">
-        <v>754919</v>
+        <v>3045368</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C189">
-        <v>603486</v>
+        <v>754919</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C190">
-        <v>739808</v>
+        <v>603486</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C191">
-        <v>566660</v>
+        <v>739808</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C192">
-        <v>2528471</v>
+        <v>566660</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C193">
-        <v>2936832</v>
+        <v>2528471</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C194">
-        <v>3308612</v>
+        <v>2936832</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C195">
-        <v>2627611</v>
+        <v>3308612</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C196">
-        <v>2617624</v>
+        <v>2627611</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C197">
-        <v>2630207</v>
+        <v>2617624</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C198">
-        <v>2392569</v>
+        <v>2630207</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C199">
-        <v>2995290</v>
+        <v>2392569</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C200">
-        <v>2175267</v>
+        <v>2995290</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C201">
-        <v>2428868</v>
+        <v>2175267</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C202">
-        <v>2427396</v>
+        <v>2428868</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C203">
-        <v>2304469</v>
+        <v>2427396</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C204">
-        <v>804072</v>
+        <v>2304469</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C205">
-        <v>709034</v>
+        <v>804072</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C206">
-        <v>685080</v>
+        <v>709034</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C207">
-        <v>752922</v>
+        <v>685080</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C208">
-        <v>2717520</v>
+        <v>752922</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C209">
-        <v>727078</v>
+        <v>2717520</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C210">
-        <v>2207700</v>
+        <v>727078</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C211">
-        <v>1999173</v>
+        <v>2207700</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C212">
-        <v>3183647</v>
+        <v>1999173</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C213">
-        <v>2693612</v>
+        <v>3183647</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C214">
-        <v>1811682</v>
+        <v>2693612</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C215">
-        <v>2884291</v>
+        <v>1811682</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C216">
-        <v>1894693</v>
+        <v>2884291</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C217">
-        <v>4436044</v>
+        <v>1894693</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C218">
-        <v>2018679</v>
+        <v>4436044</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C219">
-        <v>1924288</v>
+        <v>2018679</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C220">
-        <v>1762090</v>
+        <v>1924288</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C221">
-        <v>1815137</v>
+        <v>1762090</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C222">
-        <v>1902141</v>
+        <v>1815137</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C223">
-        <v>1981520</v>
+        <v>1902141</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C224">
-        <v>2015887</v>
+        <v>1981520</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C225">
-        <v>3505338</v>
+        <v>2015887</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C226">
-        <v>599614</v>
+        <v>3505338</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C227">
-        <v>1680814</v>
+        <v>599614</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C228">
-        <v>587468</v>
+        <v>1680814</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C229">
-        <v>779970</v>
+        <v>587468</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C230">
-        <v>692056</v>
+        <v>779970</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C231">
-        <v>838136</v>
+        <v>692056</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C232">
-        <v>785380</v>
+        <v>838136</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C233">
-        <v>798459</v>
+        <v>785380</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C234">
-        <v>728297</v>
+        <v>798459</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C235">
-        <v>712509</v>
+        <v>728297</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C236">
-        <v>652170</v>
+        <v>712509</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C237">
-        <v>735341</v>
+        <v>652170</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C238">
-        <v>742293</v>
+        <v>735341</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C239">
-        <v>826507</v>
+        <v>742293</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C240">
-        <v>695750</v>
+        <v>826507</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C241">
-        <v>2138145</v>
+        <v>695750</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C242">
-        <v>2121513</v>
+        <v>2106553</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C243">
-        <v>753461</v>
+        <v>2138145</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C244">
-        <v>741348</v>
+        <v>2121513</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C245">
-        <v>681363</v>
+        <v>1848903</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C246">
-        <v>649699</v>
+        <v>753461</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C247">
-        <v>712817</v>
+        <v>741348</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C248">
-        <v>638642</v>
+        <v>681363</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C249">
-        <v>793474</v>
+        <v>649699</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C250">
-        <v>816979</v>
+        <v>712817</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C251">
-        <v>794559</v>
+        <v>638642</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C252">
-        <v>2772777</v>
+        <v>793474</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C253">
-        <v>2197554</v>
+        <v>816979</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C254">
-        <v>2098490</v>
+        <v>794559</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C255">
-        <v>784010</v>
+        <v>2772777</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C256">
-        <v>818613</v>
+        <v>2197554</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C257">
-        <v>3963142</v>
+        <v>2098490</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C258">
-        <v>2642424</v>
+        <v>784010</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C259">
-        <v>2345835</v>
+        <v>818613</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C260">
-        <v>2655499</v>
+        <v>3963142</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C261">
-        <v>2340879</v>
+        <v>2642424</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C262">
-        <v>714371</v>
+        <v>2345835</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C263">
-        <v>648465</v>
+        <v>2655499</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C264">
-        <v>1662425</v>
+        <v>2340879</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C265">
-        <v>1803629</v>
+        <v>714371</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C266">
-        <v>1983346</v>
+        <v>648465</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C267">
-        <v>2024839</v>
+        <v>1662425</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C268">
-        <v>2847546</v>
+        <v>1803629</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C269">
-        <v>1994394</v>
+        <v>1983346</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C270">
-        <v>2274166</v>
+        <v>2024839</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C271">
-        <v>1758391</v>
+        <v>2847546</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C272">
-        <v>2093146</v>
+        <v>1994394</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,33 +5820,93 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B273" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C273">
+        <v>2274166</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B274" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C274">
+        <v>1758391</v>
+      </c>
+      <c r="D274" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B275" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C275">
+        <v>2093146</v>
+      </c>
+      <c r="D275" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B273" t="str">
+      <c r="B276" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C273">
+      <c r="C276">
         <v>815513</v>
       </c>
-      <c r="D273" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273" t="str">
+      <c r="D276" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F273"/>
+  <autoFilter ref="A1:F276"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F273"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F276"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F278</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F276"/>
+  <dimension ref="A1:F278"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3065,13 +3065,13 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C135">
-        <v>1080988</v>
+        <v>1046776</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C136">
-        <v>922762</v>
+        <v>1080988</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C137">
-        <v>677160</v>
+        <v>922762</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C138">
-        <v>810545</v>
+        <v>677160</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C139">
-        <v>967960</v>
+        <v>810545</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C140">
-        <v>274107</v>
+        <v>967960</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C141">
-        <v>220241</v>
+        <v>274107</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C142">
-        <v>95904</v>
+        <v>220241</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C143">
-        <v>1390700</v>
+        <v>95904</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C144">
-        <v>4141809</v>
+        <v>1390700</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C145">
-        <v>1438334</v>
+        <v>4141809</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1066334</v>
+        <v>1438334</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C147">
-        <v>883152</v>
+        <v>1066334</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C148">
-        <v>903933</v>
+        <v>883152</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1396220</v>
+        <v>903933</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C150">
-        <v>995069</v>
+        <v>1396220</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1222379</v>
+        <v>995069</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C152">
-        <v>694955</v>
+        <v>1222379</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C153">
-        <v>3816615</v>
+        <v>694955</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1950945</v>
+        <v>3816615</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C155">
-        <v>2974087</v>
+        <v>1950945</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1786521</v>
+        <v>2974087</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C157">
-        <v>2340687</v>
+        <v>1786521</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1950950</v>
+        <v>2340687</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C159">
-        <v>2411026</v>
+        <v>1950950</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2120097</v>
+        <v>2411026</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1952744</v>
+        <v>2120097</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1735996</v>
+        <v>1952744</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C163">
-        <v>653175</v>
+        <v>1735996</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>64c33351c87b3a144108ae1ded3fe6eefe91efd3c6115bb47ee42605d963b795</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C164">
-        <v>480329</v>
+        <v>1554520</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>09d5ca33be2fc5cf89832c29881ccaef1024e058b662b918fe60aafa15b3cc95</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C165">
-        <v>549865</v>
+        <v>480329</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>4243fbda40925c1d259b8785aeeebdb55702ea9fc048d288b3fcc3e1b8641f66</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C166">
-        <v>1290290</v>
+        <v>908369</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>b85fa03337e60ae1270406df0098d1fe8043e81c08da91531fe2eeb3838e4ec0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C167">
-        <v>316196</v>
+        <v>1290290</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C168">
-        <v>164018</v>
+        <v>316196</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C169">
-        <v>214542</v>
+        <v>164018</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C170">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C171">
-        <v>288931</v>
+        <v>310371</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C172">
-        <v>270545</v>
+        <v>288931</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C173">
-        <v>2495651</v>
+        <v>270545</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C174">
-        <v>2552316</v>
+        <v>2495651</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C175">
-        <v>2506496</v>
+        <v>2552316</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C176">
-        <v>2502115</v>
+        <v>2506496</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C177">
-        <v>739608</v>
+        <v>2502115</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C178">
-        <v>2681244</v>
+        <v>739608</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C179">
-        <v>698614</v>
+        <v>2681244</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C180">
-        <v>162241</v>
+        <v>698614</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C181">
-        <v>2422605</v>
+        <v>162241</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C182">
-        <v>2765350</v>
+        <v>2422605</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C183">
-        <v>2456682</v>
+        <v>2765350</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C184">
-        <v>2504056</v>
+        <v>2456682</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C185">
-        <v>666244</v>
+        <v>2504056</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C186">
-        <v>563882</v>
+        <v>666244</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C187">
-        <v>739598</v>
+        <v>563882</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C188">
-        <v>3045368</v>
+        <v>739598</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C189">
-        <v>754919</v>
+        <v>3045368</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C190">
-        <v>603486</v>
+        <v>754919</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C191">
-        <v>739808</v>
+        <v>603486</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C192">
-        <v>566660</v>
+        <v>739808</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C193">
-        <v>2528471</v>
+        <v>566660</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C194">
-        <v>2936832</v>
+        <v>2528471</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C195">
-        <v>3308612</v>
+        <v>2936832</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C196">
-        <v>2627611</v>
+        <v>3308612</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C197">
-        <v>2617624</v>
+        <v>2627611</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C198">
-        <v>2630207</v>
+        <v>2617624</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C199">
-        <v>2392569</v>
+        <v>2630207</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C200">
-        <v>2995290</v>
+        <v>2392569</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C201">
-        <v>2175267</v>
+        <v>2995290</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C202">
-        <v>2428868</v>
+        <v>2175267</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C203">
-        <v>2427396</v>
+        <v>2428868</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C204">
-        <v>2304469</v>
+        <v>2427396</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C205">
-        <v>804072</v>
+        <v>2304469</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C206">
-        <v>709034</v>
+        <v>804072</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C207">
-        <v>685080</v>
+        <v>709034</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C208">
-        <v>752922</v>
+        <v>685080</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C209">
-        <v>2717520</v>
+        <v>752922</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C210">
-        <v>727078</v>
+        <v>2717520</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C211">
-        <v>2207700</v>
+        <v>727078</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C212">
-        <v>1999173</v>
+        <v>2207700</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C213">
-        <v>3183647</v>
+        <v>1999173</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C214">
-        <v>2693612</v>
+        <v>3183647</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C215">
-        <v>1811682</v>
+        <v>2693612</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C216">
-        <v>2884291</v>
+        <v>1811682</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C217">
-        <v>1894693</v>
+        <v>2884291</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C218">
-        <v>4436044</v>
+        <v>1894693</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C219">
-        <v>2018679</v>
+        <v>4436044</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C220">
-        <v>1924288</v>
+        <v>2018679</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C221">
-        <v>1762090</v>
+        <v>1924288</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C222">
-        <v>1815137</v>
+        <v>1762090</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C223">
-        <v>1902141</v>
+        <v>1815137</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C224">
-        <v>1981520</v>
+        <v>1902141</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C225">
-        <v>2015887</v>
+        <v>2702502</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C226">
-        <v>3505338</v>
+        <v>2015887</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C227">
-        <v>599614</v>
+        <v>3505338</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C228">
-        <v>1680814</v>
+        <v>599614</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C229">
-        <v>587468</v>
+        <v>1680814</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C230">
-        <v>779970</v>
+        <v>587468</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C231">
-        <v>692056</v>
+        <v>779970</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C232">
-        <v>838136</v>
+        <v>692056</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C233">
-        <v>785380</v>
+        <v>838136</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C234">
-        <v>798459</v>
+        <v>785380</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C235">
-        <v>728297</v>
+        <v>798459</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C236">
-        <v>712509</v>
+        <v>728297</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C237">
-        <v>652170</v>
+        <v>712509</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C238">
-        <v>735341</v>
+        <v>652170</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C239">
-        <v>742293</v>
+        <v>735341</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C240">
-        <v>826507</v>
+        <v>742293</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C241">
-        <v>695750</v>
+        <v>826507</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C242">
-        <v>2106553</v>
+        <v>695750</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C243">
-        <v>2138145</v>
+        <v>2106553</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C244">
-        <v>2121513</v>
+        <v>2138145</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C245">
-        <v>1848903</v>
+        <v>2121513</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C246">
-        <v>753461</v>
+        <v>1848903</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C247">
-        <v>741348</v>
+        <v>753461</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C248">
-        <v>681363</v>
+        <v>741348</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C249">
-        <v>649699</v>
+        <v>681363</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C250">
-        <v>712817</v>
+        <v>649699</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C251">
-        <v>638642</v>
+        <v>765300</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C252">
-        <v>793474</v>
+        <v>712817</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C253">
-        <v>816979</v>
+        <v>638642</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C254">
-        <v>794559</v>
+        <v>793474</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C255">
-        <v>2772777</v>
+        <v>816979</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C256">
-        <v>2197554</v>
+        <v>794559</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C257">
-        <v>2098490</v>
+        <v>2772777</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C258">
-        <v>784010</v>
+        <v>2197554</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C259">
-        <v>818613</v>
+        <v>2098490</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C260">
-        <v>3963142</v>
+        <v>784010</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C261">
-        <v>2642424</v>
+        <v>818613</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C262">
-        <v>2345835</v>
+        <v>3963142</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C263">
-        <v>2655499</v>
+        <v>2642424</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C264">
-        <v>2340879</v>
+        <v>2345835</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C265">
-        <v>714371</v>
+        <v>2655499</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C266">
-        <v>648465</v>
+        <v>2340879</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C267">
-        <v>1662425</v>
+        <v>714371</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C268">
-        <v>1803629</v>
+        <v>648465</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C269">
-        <v>1983346</v>
+        <v>1662425</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C270">
-        <v>2024839</v>
+        <v>1803629</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C271">
-        <v>2847546</v>
+        <v>2738037</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C272">
-        <v>1994394</v>
+        <v>2024839</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C273">
-        <v>2274166</v>
+        <v>2847546</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C274">
-        <v>1758391</v>
+        <v>1994394</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C275">
-        <v>2093146</v>
+        <v>2274166</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,33 +5880,73 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B276" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C276">
+        <v>1758391</v>
+      </c>
+      <c r="D276" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" t="str">
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B277" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C277">
+        <v>2093146</v>
+      </c>
+      <c r="D277" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B276" t="str">
+      <c r="B278" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C276">
+      <c r="C278">
         <v>815513</v>
       </c>
-      <c r="D276" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E276">
-        <v>0</v>
-      </c>
-      <c r="F276" t="str">
+      <c r="D278" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F276"/>
+  <autoFilter ref="A1:F278"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F276"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F278"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F281</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F278"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2985,13 +2985,13 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h0191_jp.ab</v>
+        <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>565237</v>
+        <v>379328</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>ed823395e796783d2916261289f44a44fe40072db4029d73d7b7dbc6782f5f30</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_h0192_jp.ab</v>
+        <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C132">
-        <v>817918</v>
+        <v>565237</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_h0193_jp.ab</v>
+        <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C133">
-        <v>1562399</v>
+        <v>817918</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_h0194_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C134">
-        <v>710836</v>
+        <v>1562399</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_h0196_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_h0196_jp.ab</v>
+        <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C135">
-        <v>1046776</v>
+        <v>710836</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
+        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1080988</v>
+        <v>1046776</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C137">
-        <v>922762</v>
+        <v>1080988</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C138">
-        <v>677160</v>
+        <v>922762</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C139">
-        <v>810545</v>
+        <v>677160</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C140">
-        <v>967960</v>
+        <v>810545</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C141">
-        <v>274107</v>
+        <v>967960</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C142">
-        <v>220241</v>
+        <v>274107</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C143">
-        <v>95904</v>
+        <v>220241</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C144">
-        <v>1390700</v>
+        <v>95904</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C145">
-        <v>4141809</v>
+        <v>1390700</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1438334</v>
+        <v>4141809</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C147">
-        <v>1066334</v>
+        <v>1438334</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C148">
-        <v>883152</v>
+        <v>1066334</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C149">
-        <v>903933</v>
+        <v>883152</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1396220</v>
+        <v>903933</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C151">
-        <v>995069</v>
+        <v>1396220</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1222379</v>
+        <v>995069</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C153">
-        <v>694955</v>
+        <v>1222379</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C154">
-        <v>3816615</v>
+        <v>694955</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1950945</v>
+        <v>3816615</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C156">
-        <v>2974087</v>
+        <v>1950945</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1786521</v>
+        <v>2974087</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C158">
-        <v>2340687</v>
+        <v>1786521</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1950950</v>
+        <v>2340687</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2411026</v>
+        <v>1950950</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C161">
-        <v>2120097</v>
+        <v>2411026</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1952744</v>
+        <v>2120097</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C163">
-        <v>1735996</v>
+        <v>1952744</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1554520</v>
+        <v>1735996</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>09d5ca33be2fc5cf89832c29881ccaef1024e058b662b918fe60aafa15b3cc95</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C165">
-        <v>480329</v>
+        <v>2460134</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C166">
-        <v>908369</v>
+        <v>480329</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>b85fa03337e60ae1270406df0098d1fe8043e81c08da91531fe2eeb3838e4ec0</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C167">
-        <v>1290290</v>
+        <v>2403874</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C168">
-        <v>316196</v>
+        <v>1290290</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C169">
-        <v>164018</v>
+        <v>316196</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C170">
-        <v>214542</v>
+        <v>164018</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C171">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C172">
-        <v>288931</v>
+        <v>310371</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C173">
-        <v>270545</v>
+        <v>288931</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C174">
-        <v>2495651</v>
+        <v>270545</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C175">
-        <v>2552316</v>
+        <v>2495651</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C176">
-        <v>2506496</v>
+        <v>2552316</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C177">
-        <v>2502115</v>
+        <v>2506496</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C178">
-        <v>739608</v>
+        <v>2502115</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C179">
-        <v>2681244</v>
+        <v>739608</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C180">
-        <v>698614</v>
+        <v>2681244</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C181">
-        <v>162241</v>
+        <v>698614</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C182">
-        <v>2422605</v>
+        <v>162241</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C183">
-        <v>2765350</v>
+        <v>2422605</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C184">
-        <v>2456682</v>
+        <v>2765350</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C185">
-        <v>2504056</v>
+        <v>2456682</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C186">
-        <v>666244</v>
+        <v>2504056</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C187">
-        <v>563882</v>
+        <v>666244</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C188">
-        <v>739598</v>
+        <v>563882</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C189">
-        <v>3045368</v>
+        <v>739598</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C190">
-        <v>754919</v>
+        <v>3045368</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C191">
-        <v>603486</v>
+        <v>754919</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C192">
-        <v>739808</v>
+        <v>603486</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C193">
-        <v>566660</v>
+        <v>739808</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C194">
-        <v>2528471</v>
+        <v>566660</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C195">
-        <v>2936832</v>
+        <v>2528471</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C196">
-        <v>3308612</v>
+        <v>2936832</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C197">
-        <v>2627611</v>
+        <v>3308612</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C198">
-        <v>2617624</v>
+        <v>2627611</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C199">
-        <v>2630207</v>
+        <v>2617624</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C200">
-        <v>2392569</v>
+        <v>2630207</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C201">
-        <v>2995290</v>
+        <v>2392569</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C202">
-        <v>2175267</v>
+        <v>2995290</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C203">
-        <v>2428868</v>
+        <v>2175267</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C204">
-        <v>2427396</v>
+        <v>2428868</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C205">
-        <v>2304469</v>
+        <v>2427396</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C206">
-        <v>804072</v>
+        <v>2304469</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C207">
-        <v>709034</v>
+        <v>804072</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C208">
-        <v>685080</v>
+        <v>709034</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C209">
-        <v>752922</v>
+        <v>685080</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C210">
-        <v>2717520</v>
+        <v>752922</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C211">
-        <v>727078</v>
+        <v>2717520</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C212">
-        <v>2207700</v>
+        <v>727078</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C213">
-        <v>1999173</v>
+        <v>2207700</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C214">
-        <v>3183647</v>
+        <v>1999173</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C215">
-        <v>2693612</v>
+        <v>3183647</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C216">
-        <v>1811682</v>
+        <v>2693612</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C217">
-        <v>2884291</v>
+        <v>1811682</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C218">
-        <v>1894693</v>
+        <v>2884291</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C219">
-        <v>4436044</v>
+        <v>1894693</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C220">
-        <v>2018679</v>
+        <v>4436044</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C221">
-        <v>1924288</v>
+        <v>2018679</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C222">
-        <v>1762090</v>
+        <v>1924288</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C223">
-        <v>1815137</v>
+        <v>1762090</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C224">
-        <v>1902141</v>
+        <v>1815137</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C225">
-        <v>2702502</v>
+        <v>1902141</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C226">
-        <v>2015887</v>
+        <v>2702502</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C227">
-        <v>3505338</v>
+        <v>2015887</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C228">
-        <v>599614</v>
+        <v>3505338</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C229">
-        <v>1680814</v>
+        <v>599614</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C230">
-        <v>587468</v>
+        <v>1680814</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C231">
-        <v>779970</v>
+        <v>587468</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C232">
-        <v>692056</v>
+        <v>779970</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C233">
-        <v>838136</v>
+        <v>692056</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C234">
-        <v>785380</v>
+        <v>838136</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C235">
-        <v>798459</v>
+        <v>785380</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C236">
-        <v>728297</v>
+        <v>798459</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C237">
-        <v>712509</v>
+        <v>728297</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C238">
-        <v>652170</v>
+        <v>712509</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C239">
-        <v>735341</v>
+        <v>652170</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C240">
-        <v>742293</v>
+        <v>735341</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C241">
-        <v>826507</v>
+        <v>742293</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C242">
-        <v>695750</v>
+        <v>826507</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C243">
-        <v>2106553</v>
+        <v>695750</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C244">
-        <v>2138145</v>
+        <v>2106553</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C245">
-        <v>2121513</v>
+        <v>2138145</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C246">
-        <v>1848903</v>
+        <v>2121513</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C247">
-        <v>753461</v>
+        <v>1848903</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C248">
-        <v>741348</v>
+        <v>753461</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C249">
-        <v>681363</v>
+        <v>741348</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C250">
-        <v>649699</v>
+        <v>681363</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C251">
-        <v>765300</v>
+        <v>649699</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C252">
-        <v>712817</v>
+        <v>765300</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C253">
-        <v>638642</v>
+        <v>712817</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C254">
-        <v>793474</v>
+        <v>638642</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C255">
-        <v>816979</v>
+        <v>793474</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C256">
-        <v>794559</v>
+        <v>816979</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C257">
-        <v>2772777</v>
+        <v>794559</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C258">
-        <v>2197554</v>
+        <v>2772777</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C259">
-        <v>2098490</v>
+        <v>2197554</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C260">
-        <v>784010</v>
+        <v>2098490</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C261">
-        <v>818613</v>
+        <v>784010</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C262">
-        <v>3963142</v>
+        <v>818613</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C263">
-        <v>2642424</v>
+        <v>3963142</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C264">
-        <v>2345835</v>
+        <v>2642424</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C265">
-        <v>2655499</v>
+        <v>2345835</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C266">
-        <v>2340879</v>
+        <v>2655499</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C267">
-        <v>714371</v>
+        <v>2340879</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C268">
-        <v>648465</v>
+        <v>714371</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C269">
-        <v>1662425</v>
+        <v>648465</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C270">
-        <v>1803629</v>
+        <v>1662425</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C271">
-        <v>2738037</v>
+        <v>1803629</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C272">
-        <v>2024839</v>
+        <v>2738037</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C273">
-        <v>2847546</v>
+        <v>2024839</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C274">
-        <v>1994394</v>
+        <v>2847546</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C275">
-        <v>2274166</v>
+        <v>1994394</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C276">
-        <v>1758391</v>
+        <v>2274166</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C277">
-        <v>2093146</v>
+        <v>1758391</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,33 +5920,93 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B278" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C278">
+        <v>2093146</v>
+      </c>
+      <c r="D278" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="B279" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="C279">
+        <v>2057447</v>
+      </c>
+      <c r="D279" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" t="str">
+        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B280" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C280">
+        <v>1989539</v>
+      </c>
+      <c r="D280" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" t="str">
+        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B278" t="str">
+      <c r="B281" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C278">
+      <c r="C281">
         <v>815513</v>
       </c>
-      <c r="D278" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278" t="str">
+      <c r="D281" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F278"/>
+  <autoFilter ref="A1:F281"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F278"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F281"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F283</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F281"/>
+  <dimension ref="A1:F283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>379328</v>
+        <v>480985</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>ed823395e796783d2916261289f44a44fe40072db4029d73d7b7dbc6782f5f30</v>
+        <v>352f4b8594f5982ca55113bfa515f9db306b6c8361a4337738cbff48d6608458</v>
       </c>
     </row>
     <row r="132">
@@ -3105,13 +3105,13 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="C137">
-        <v>1080988</v>
+        <v>877430</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>5af7ae5ab782a8ead145aab803f512b693183586329f030c5931bfa1545e49c1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C138">
-        <v>922762</v>
+        <v>1080988</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C139">
-        <v>677160</v>
+        <v>922762</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C140">
-        <v>810545</v>
+        <v>677160</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_h0203_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C141">
-        <v>967960</v>
+        <v>810545</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C142">
-        <v>274107</v>
+        <v>967960</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C143">
-        <v>220241</v>
+        <v>274107</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C144">
-        <v>95904</v>
+        <v>220241</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C145">
-        <v>1390700</v>
+        <v>95904</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C146">
-        <v>4141809</v>
+        <v>1390700</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C147">
-        <v>1438334</v>
+        <v>4141809</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1066334</v>
+        <v>1438334</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C149">
-        <v>883152</v>
+        <v>1066334</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C150">
-        <v>903933</v>
+        <v>883152</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1396220</v>
+        <v>903933</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C152">
-        <v>995069</v>
+        <v>1396220</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1222379</v>
+        <v>995069</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C154">
-        <v>694955</v>
+        <v>1222379</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C155">
-        <v>3816615</v>
+        <v>694955</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1950945</v>
+        <v>3816615</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C157">
-        <v>2974087</v>
+        <v>1950945</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1786521</v>
+        <v>2974087</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C159">
-        <v>2340687</v>
+        <v>1786521</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1950950</v>
+        <v>2340687</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C161">
-        <v>2411026</v>
+        <v>1950950</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2120097</v>
+        <v>2411026</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C163">
-        <v>1952744</v>
+        <v>2120097</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1735996</v>
+        <v>1952744</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2460134</v>
+        <v>1735996</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C166">
-        <v>480329</v>
+        <v>2460134</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C167">
-        <v>2403874</v>
+        <v>480329</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1290290</v>
+        <v>2403874</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C169">
-        <v>316196</v>
+        <v>1290290</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C170">
-        <v>164018</v>
+        <v>316196</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C171">
-        <v>214542</v>
+        <v>164018</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C172">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C173">
-        <v>288931</v>
+        <v>310371</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C174">
-        <v>270545</v>
+        <v>288931</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C175">
-        <v>2495651</v>
+        <v>270545</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C176">
-        <v>2552316</v>
+        <v>2495651</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C177">
-        <v>2506496</v>
+        <v>2552316</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C178">
-        <v>2502115</v>
+        <v>2506496</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C179">
-        <v>739608</v>
+        <v>2502115</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C180">
-        <v>2681244</v>
+        <v>739608</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C181">
-        <v>698614</v>
+        <v>2681244</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C182">
-        <v>162241</v>
+        <v>698614</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C183">
-        <v>2422605</v>
+        <v>162241</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C184">
-        <v>2765350</v>
+        <v>2422605</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C185">
-        <v>2456682</v>
+        <v>2765350</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C186">
-        <v>2504056</v>
+        <v>2456682</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C187">
-        <v>666244</v>
+        <v>2504056</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C188">
-        <v>563882</v>
+        <v>666244</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C189">
-        <v>739598</v>
+        <v>563882</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C190">
-        <v>3045368</v>
+        <v>739598</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C191">
-        <v>754919</v>
+        <v>3045368</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C192">
-        <v>603486</v>
+        <v>754919</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C193">
-        <v>739808</v>
+        <v>603486</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C194">
-        <v>566660</v>
+        <v>739808</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C195">
-        <v>2528471</v>
+        <v>566660</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C196">
-        <v>2936832</v>
+        <v>2528471</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C197">
-        <v>3308612</v>
+        <v>2936832</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C198">
-        <v>2627611</v>
+        <v>3308612</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C199">
-        <v>2617624</v>
+        <v>2627611</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C200">
-        <v>2630207</v>
+        <v>2617624</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C201">
-        <v>2392569</v>
+        <v>2630207</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C202">
-        <v>2995290</v>
+        <v>2392569</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C203">
-        <v>2175267</v>
+        <v>2995290</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C204">
-        <v>2428868</v>
+        <v>2175267</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C205">
-        <v>2427396</v>
+        <v>2428868</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C206">
-        <v>2304469</v>
+        <v>2427396</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C207">
-        <v>804072</v>
+        <v>2304469</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C208">
-        <v>709034</v>
+        <v>804072</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C209">
-        <v>685080</v>
+        <v>709034</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C210">
-        <v>752922</v>
+        <v>685080</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C211">
-        <v>2717520</v>
+        <v>752922</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C212">
-        <v>727078</v>
+        <v>2717520</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C213">
-        <v>2207700</v>
+        <v>727078</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C214">
-        <v>1999173</v>
+        <v>2207700</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C215">
-        <v>3183647</v>
+        <v>1999173</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C216">
-        <v>2693612</v>
+        <v>3183647</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C217">
-        <v>1811682</v>
+        <v>2693612</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C218">
-        <v>2884291</v>
+        <v>1811682</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C219">
-        <v>1894693</v>
+        <v>2884291</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C220">
-        <v>4436044</v>
+        <v>1894693</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C221">
-        <v>2018679</v>
+        <v>4436044</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C222">
-        <v>1924288</v>
+        <v>2018679</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C223">
-        <v>1762090</v>
+        <v>1924288</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C224">
-        <v>1815137</v>
+        <v>1762090</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C225">
-        <v>1902141</v>
+        <v>1815137</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C226">
-        <v>2702502</v>
+        <v>1902141</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C227">
-        <v>2015887</v>
+        <v>2702502</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C228">
-        <v>3505338</v>
+        <v>2015887</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C229">
-        <v>599614</v>
+        <v>3505338</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C230">
-        <v>1680814</v>
+        <v>599614</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C231">
-        <v>587468</v>
+        <v>1680814</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C232">
-        <v>779970</v>
+        <v>587468</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C233">
-        <v>692056</v>
+        <v>779970</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C234">
-        <v>838136</v>
+        <v>692056</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C235">
-        <v>785380</v>
+        <v>838136</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C236">
-        <v>798459</v>
+        <v>785380</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C237">
-        <v>728297</v>
+        <v>798459</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C238">
-        <v>712509</v>
+        <v>728297</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C239">
-        <v>652170</v>
+        <v>712509</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C240">
-        <v>735341</v>
+        <v>652170</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C241">
-        <v>742293</v>
+        <v>735341</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C242">
-        <v>826507</v>
+        <v>742293</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C243">
-        <v>695750</v>
+        <v>826507</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C244">
-        <v>2106553</v>
+        <v>695750</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C245">
-        <v>2138145</v>
+        <v>2106553</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C246">
-        <v>2121513</v>
+        <v>2138145</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C247">
-        <v>1848903</v>
+        <v>2121513</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C248">
-        <v>753461</v>
+        <v>1848903</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C249">
-        <v>741348</v>
+        <v>753461</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C250">
-        <v>681363</v>
+        <v>741348</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C251">
-        <v>649699</v>
+        <v>681363</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C252">
-        <v>765300</v>
+        <v>649699</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
+        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C253">
-        <v>712817</v>
+        <v>765300</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C254">
-        <v>638642</v>
+        <v>723893</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>403fae0f34dadb9418b32cf95d59dc80489966ce269cb34aa52460bf12399fe0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C255">
-        <v>793474</v>
+        <v>712817</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C256">
-        <v>816979</v>
+        <v>638642</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C257">
-        <v>794559</v>
+        <v>793474</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C258">
-        <v>2772777</v>
+        <v>816979</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C259">
-        <v>2197554</v>
+        <v>794559</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C260">
-        <v>2098490</v>
+        <v>2772777</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C261">
-        <v>784010</v>
+        <v>2197554</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C262">
-        <v>818613</v>
+        <v>2098490</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C263">
-        <v>3963142</v>
+        <v>784010</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C264">
-        <v>2642424</v>
+        <v>818613</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C265">
-        <v>2345835</v>
+        <v>3963142</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C266">
-        <v>2655499</v>
+        <v>2642424</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C267">
-        <v>2340879</v>
+        <v>2345835</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C268">
-        <v>714371</v>
+        <v>2655499</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C269">
-        <v>648465</v>
+        <v>2340879</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C270">
-        <v>1662425</v>
+        <v>714371</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C271">
-        <v>1803629</v>
+        <v>648465</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C272">
-        <v>2738037</v>
+        <v>1662425</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C273">
-        <v>2024839</v>
+        <v>1803629</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C274">
-        <v>2847546</v>
+        <v>2738037</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C275">
-        <v>1994394</v>
+        <v>2024839</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C276">
-        <v>2274166</v>
+        <v>2847546</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C277">
-        <v>1758391</v>
+        <v>1994394</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C278">
-        <v>2093146</v>
+        <v>2274166</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C279">
-        <v>2057447</v>
+        <v>1758391</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C280">
-        <v>1989539</v>
+        <v>2093146</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,33 +5980,73 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="B281" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="C281">
+        <v>2057447</v>
+      </c>
+      <c r="D281" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" t="str">
+        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B282" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C282">
+        <v>1989539</v>
+      </c>
+      <c r="D282" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" t="str">
+        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B281" t="str">
+      <c r="B283" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C281">
+      <c r="C283">
         <v>815513</v>
       </c>
-      <c r="D281" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281" t="str">
+      <c r="D283" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" t="str">
         <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F281"/>
+  <autoFilter ref="A1:F283"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F281"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F283"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -1671,7 +1671,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C65">
-        <v>828726</v>
+        <v>1029416</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>fbf75642af81db8dadf9dee5d892f48f2bd98c5e348b1be1d0f8457b7db43f62</v>
+        <v>53250d30f127ecbdf8f2c61e4dad263eef1c5ce588731850be7e6c64dae7558b</v>
       </c>
     </row>
     <row r="66">
@@ -2291,7 +2291,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C96">
-        <v>1535953</v>
+        <v>1634968</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>2b16b447ae45bd11debc964830f80b54e152b10b212c87a87a0ca68d64f0c9d3</v>
+        <v>e7e82684323ba2bf5469908930578e527a6f3aa1e48055cfde4a443717f6a50d</v>
       </c>
     </row>
     <row r="97">
@@ -2331,7 +2331,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1321255</v>
+        <v>1504175</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>fe834c29258e9160a2b01b1e55b7057d8fed46731b12cf3b173b0f4c66c97afd</v>
+        <v>0c035d662f7ed6ec090809c93d8ab7875d4caab360cedaa7979b4c3689846401</v>
       </c>
     </row>
     <row r="99">
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>480985</v>
+        <v>897747</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>352f4b8594f5982ca55113bfa515f9db306b6c8361a4337738cbff48d6608458</v>
+        <v>f44b2f455a248453cd396129a632ea8f6410bd7dd155e650f6e93392334e9d4e</v>
       </c>
     </row>
     <row r="132">
@@ -3551,7 +3551,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1786521</v>
+        <v>1992953</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
       </c>
     </row>
     <row r="160">
@@ -4351,7 +4351,7 @@
         <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C199">
-        <v>2627611</v>
+        <v>3429461</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>89ab9439e30ab231cd3d228ee131241f804c965f7e60e2cf07ed263de20d2180</v>
       </c>
     </row>
     <row r="200">
@@ -5891,7 +5891,7 @@
         <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C276">
-        <v>2847546</v>
+        <v>3572791</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>42fe7c0d36f79c07f2dd7837ff9290627f2c2865eb93a658f362a7f181fbf426</v>
       </c>
     </row>
     <row r="277">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -411,7 +411,7 @@
         <v>audioclip_sfx_0_jp.ab</v>
       </c>
       <c r="C2">
-        <v>133074</v>
+        <v>133108</v>
       </c>
       <c r="D2" t="str">
         <v>Stage_1</v>
@@ -431,7 +431,7 @@
         <v>audioclip_sfx_10_jp.ab</v>
       </c>
       <c r="C3">
-        <v>61177</v>
+        <v>61209</v>
       </c>
       <c r="D3" t="str">
         <v>Stage_1</v>
@@ -451,7 +451,7 @@
         <v>audioclip_sfx_11_jp.ab</v>
       </c>
       <c r="C4">
-        <v>104154</v>
+        <v>104189</v>
       </c>
       <c r="D4" t="str">
         <v>Stage_1</v>
@@ -471,7 +471,7 @@
         <v>audioclip_sfx_12_jp.ab</v>
       </c>
       <c r="C5">
-        <v>67408</v>
+        <v>67441</v>
       </c>
       <c r="D5" t="str">
         <v>Stage_1</v>
@@ -491,7 +491,7 @@
         <v>audioclip_sfx_13_jp.ab</v>
       </c>
       <c r="C6">
-        <v>148999</v>
+        <v>149033</v>
       </c>
       <c r="D6" t="str">
         <v>Stage_1</v>
@@ -511,7 +511,7 @@
         <v>audioclip_sfx_14_jp.ab</v>
       </c>
       <c r="C7">
-        <v>43261</v>
+        <v>43296</v>
       </c>
       <c r="D7" t="str">
         <v>Stage_1</v>
@@ -531,7 +531,7 @@
         <v>audioclip_sfx_15_jp.ab</v>
       </c>
       <c r="C8">
-        <v>88501</v>
+        <v>88536</v>
       </c>
       <c r="D8" t="str">
         <v>Stage_1</v>
@@ -551,7 +551,7 @@
         <v>audioclip_sfx_16_jp.ab</v>
       </c>
       <c r="C9">
-        <v>96132</v>
+        <v>96165</v>
       </c>
       <c r="D9" t="str">
         <v>Stage_1</v>
@@ -571,7 +571,7 @@
         <v>audioclip_sfx_17_jp.ab</v>
       </c>
       <c r="C10">
-        <v>43721</v>
+        <v>43756</v>
       </c>
       <c r="D10" t="str">
         <v>Stage_1</v>
@@ -591,7 +591,7 @@
         <v>audioclip_sfx_18_jp.ab</v>
       </c>
       <c r="C11">
-        <v>84508</v>
+        <v>84544</v>
       </c>
       <c r="D11" t="str">
         <v>Stage_1</v>
@@ -611,7 +611,7 @@
         <v>audioclip_sfx_19_jp.ab</v>
       </c>
       <c r="C12">
-        <v>77222</v>
+        <v>77257</v>
       </c>
       <c r="D12" t="str">
         <v>Stage_1</v>
@@ -631,7 +631,7 @@
         <v>audioclip_sfx_1_jp.ab</v>
       </c>
       <c r="C13">
-        <v>161072</v>
+        <v>161105</v>
       </c>
       <c r="D13" t="str">
         <v>Stage_1</v>
@@ -651,7 +651,7 @@
         <v>audioclip_sfx_20_jp.ab</v>
       </c>
       <c r="C14">
-        <v>147227</v>
+        <v>147262</v>
       </c>
       <c r="D14" t="str">
         <v>Stage_1</v>
@@ -671,7 +671,7 @@
         <v>audioclip_sfx_21_jp.ab</v>
       </c>
       <c r="C15">
-        <v>105478</v>
+        <v>105512</v>
       </c>
       <c r="D15" t="str">
         <v>Stage_1</v>
@@ -691,7 +691,7 @@
         <v>audioclip_sfx_22_jp.ab</v>
       </c>
       <c r="C16">
-        <v>77746</v>
+        <v>77782</v>
       </c>
       <c r="D16" t="str">
         <v>Stage_1</v>
@@ -711,7 +711,7 @@
         <v>audioclip_sfx_23_jp.ab</v>
       </c>
       <c r="C17">
-        <v>84618</v>
+        <v>84650</v>
       </c>
       <c r="D17" t="str">
         <v>Stage_1</v>
@@ -731,7 +731,7 @@
         <v>audioclip_sfx_24_jp.ab</v>
       </c>
       <c r="C18">
-        <v>71968</v>
+        <v>72002</v>
       </c>
       <c r="D18" t="str">
         <v>Stage_1</v>
@@ -751,7 +751,7 @@
         <v>audioclip_sfx_25_jp.ab</v>
       </c>
       <c r="C19">
-        <v>135480</v>
+        <v>135511</v>
       </c>
       <c r="D19" t="str">
         <v>Stage_1</v>
@@ -771,7 +771,7 @@
         <v>audioclip_sfx_26_jp.ab</v>
       </c>
       <c r="C20">
-        <v>219099</v>
+        <v>219129</v>
       </c>
       <c r="D20" t="str">
         <v>Stage_1</v>
@@ -791,7 +791,7 @@
         <v>audioclip_sfx_27_jp.ab</v>
       </c>
       <c r="C21">
-        <v>139329</v>
+        <v>139365</v>
       </c>
       <c r="D21" t="str">
         <v>Stage_1</v>
@@ -811,7 +811,7 @@
         <v>audioclip_sfx_28_jp.ab</v>
       </c>
       <c r="C22">
-        <v>108379</v>
+        <v>108411</v>
       </c>
       <c r="D22" t="str">
         <v>Stage_1</v>
@@ -831,7 +831,7 @@
         <v>audioclip_sfx_29_jp.ab</v>
       </c>
       <c r="C23">
-        <v>121284</v>
+        <v>121316</v>
       </c>
       <c r="D23" t="str">
         <v>Stage_1</v>
@@ -851,7 +851,7 @@
         <v>audioclip_sfx_2_jp.ab</v>
       </c>
       <c r="C24">
-        <v>154618</v>
+        <v>154649</v>
       </c>
       <c r="D24" t="str">
         <v>Stage_1</v>
@@ -871,7 +871,7 @@
         <v>audioclip_sfx_30_jp.ab</v>
       </c>
       <c r="C25">
-        <v>52957</v>
+        <v>52990</v>
       </c>
       <c r="D25" t="str">
         <v>Stage_1</v>
@@ -891,7 +891,7 @@
         <v>audioclip_sfx_31_jp.ab</v>
       </c>
       <c r="C26">
-        <v>92480</v>
+        <v>92511</v>
       </c>
       <c r="D26" t="str">
         <v>Stage_1</v>
@@ -911,7 +911,7 @@
         <v>audioclip_sfx_32_jp.ab</v>
       </c>
       <c r="C27">
-        <v>83607</v>
+        <v>83642</v>
       </c>
       <c r="D27" t="str">
         <v>Stage_1</v>
@@ -931,7 +931,7 @@
         <v>audioclip_sfx_33_jp.ab</v>
       </c>
       <c r="C28">
-        <v>64465</v>
+        <v>64498</v>
       </c>
       <c r="D28" t="str">
         <v>Stage_1</v>
@@ -951,7 +951,7 @@
         <v>audioclip_sfx_34_jp.ab</v>
       </c>
       <c r="C29">
-        <v>84962</v>
+        <v>84995</v>
       </c>
       <c r="D29" t="str">
         <v>Stage_1</v>
@@ -971,7 +971,7 @@
         <v>audioclip_sfx_35_jp.ab</v>
       </c>
       <c r="C30">
-        <v>202287</v>
+        <v>202318</v>
       </c>
       <c r="D30" t="str">
         <v>Stage_1</v>
@@ -991,7 +991,7 @@
         <v>audioclip_sfx_36_jp.ab</v>
       </c>
       <c r="C31">
-        <v>104751</v>
+        <v>104785</v>
       </c>
       <c r="D31" t="str">
         <v>Stage_1</v>
@@ -1011,7 +1011,7 @@
         <v>audioclip_sfx_37_jp.ab</v>
       </c>
       <c r="C32">
-        <v>67884</v>
+        <v>67919</v>
       </c>
       <c r="D32" t="str">
         <v>Stage_1</v>
@@ -1031,7 +1031,7 @@
         <v>audioclip_sfx_38_jp.ab</v>
       </c>
       <c r="C33">
-        <v>68437</v>
+        <v>68472</v>
       </c>
       <c r="D33" t="str">
         <v>Stage_1</v>
@@ -1051,7 +1051,7 @@
         <v>audioclip_sfx_39_jp.ab</v>
       </c>
       <c r="C34">
-        <v>136086</v>
+        <v>136120</v>
       </c>
       <c r="D34" t="str">
         <v>Stage_1</v>
@@ -1071,7 +1071,7 @@
         <v>audioclip_sfx_3_jp.ab</v>
       </c>
       <c r="C35">
-        <v>137689</v>
+        <v>137719</v>
       </c>
       <c r="D35" t="str">
         <v>Stage_1</v>
@@ -1091,7 +1091,7 @@
         <v>audioclip_sfx_40_jp.ab</v>
       </c>
       <c r="C36">
-        <v>63186</v>
+        <v>63219</v>
       </c>
       <c r="D36" t="str">
         <v>Stage_1</v>
@@ -1111,7 +1111,7 @@
         <v>audioclip_sfx_41_jp.ab</v>
       </c>
       <c r="C37">
-        <v>74976</v>
+        <v>75011</v>
       </c>
       <c r="D37" t="str">
         <v>Stage_1</v>
@@ -1131,7 +1131,7 @@
         <v>audioclip_sfx_42_jp.ab</v>
       </c>
       <c r="C38">
-        <v>118407</v>
+        <v>118443</v>
       </c>
       <c r="D38" t="str">
         <v>Stage_1</v>
@@ -1151,7 +1151,7 @@
         <v>audioclip_sfx_43_jp.ab</v>
       </c>
       <c r="C39">
-        <v>23432</v>
+        <v>23470</v>
       </c>
       <c r="D39" t="str">
         <v>Stage_1</v>
@@ -1171,7 +1171,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123347</v>
+        <v>123379</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1191,7 +1191,7 @@
         <v>audioclip_sfx_45_jp.ab</v>
       </c>
       <c r="C41">
-        <v>75384</v>
+        <v>75416</v>
       </c>
       <c r="D41" t="str">
         <v>Stage_1</v>
@@ -1211,7 +1211,7 @@
         <v>audioclip_sfx_46_jp.ab</v>
       </c>
       <c r="C42">
-        <v>38470</v>
+        <v>38505</v>
       </c>
       <c r="D42" t="str">
         <v>Stage_1</v>
@@ -1231,7 +1231,7 @@
         <v>audioclip_sfx_47_jp.ab</v>
       </c>
       <c r="C43">
-        <v>29254</v>
+        <v>29284</v>
       </c>
       <c r="D43" t="str">
         <v>Stage_1</v>
@@ -1251,7 +1251,7 @@
         <v>audioclip_sfx_48_jp.ab</v>
       </c>
       <c r="C44">
-        <v>88419</v>
+        <v>88452</v>
       </c>
       <c r="D44" t="str">
         <v>Stage_1</v>
@@ -1271,7 +1271,7 @@
         <v>audioclip_sfx_49_jp.ab</v>
       </c>
       <c r="C45">
-        <v>141504</v>
+        <v>141537</v>
       </c>
       <c r="D45" t="str">
         <v>Stage_1</v>
@@ -1291,7 +1291,7 @@
         <v>audioclip_sfx_4_jp.ab</v>
       </c>
       <c r="C46">
-        <v>102682</v>
+        <v>102715</v>
       </c>
       <c r="D46" t="str">
         <v>Stage_1</v>
@@ -1311,7 +1311,7 @@
         <v>audioclip_sfx_5_jp.ab</v>
       </c>
       <c r="C47">
-        <v>118741</v>
+        <v>118773</v>
       </c>
       <c r="D47" t="str">
         <v>Stage_1</v>
@@ -1331,7 +1331,7 @@
         <v>audioclip_sfx_6_jp.ab</v>
       </c>
       <c r="C48">
-        <v>103489</v>
+        <v>103524</v>
       </c>
       <c r="D48" t="str">
         <v>Stage_1</v>
@@ -1351,7 +1351,7 @@
         <v>audioclip_sfx_7_jp.ab</v>
       </c>
       <c r="C49">
-        <v>87114</v>
+        <v>87147</v>
       </c>
       <c r="D49" t="str">
         <v>Stage_1</v>
@@ -1371,7 +1371,7 @@
         <v>audioclip_sfx_8_jp.ab</v>
       </c>
       <c r="C50">
-        <v>61866</v>
+        <v>61899</v>
       </c>
       <c r="D50" t="str">
         <v>Stage_1</v>
@@ -1391,7 +1391,7 @@
         <v>audioclip_sfx_9_jp.ab</v>
       </c>
       <c r="C51">
-        <v>54552</v>
+        <v>54582</v>
       </c>
       <c r="D51" t="str">
         <v>Stage_1</v>
@@ -1411,7 +1411,7 @@
         <v>audioclip_sfx_b0001_jp.ab</v>
       </c>
       <c r="C52">
-        <v>63624</v>
+        <v>63659</v>
       </c>
       <c r="D52" t="str">
         <v>Stage_1</v>
@@ -1431,7 +1431,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116833</v>
+        <v>116863</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1451,7 +1451,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875206</v>
+        <v>875237</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1491,7 +1491,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272250</v>
+        <v>1272278</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1511,7 +1511,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C57">
-        <v>662019</v>
+        <v>662046</v>
       </c>
       <c r="D57" t="str">
         <v>Stage_1</v>
@@ -1531,7 +1531,7 @@
         <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C58">
-        <v>3100194</v>
+        <v>3100223</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1551,7 +1551,7 @@
         <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C59">
-        <v>356887</v>
+        <v>356923</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1571,7 +1571,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C60">
-        <v>250817</v>
+        <v>250848</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1591,7 +1591,7 @@
         <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C61">
-        <v>362000</v>
+        <v>362038</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1611,7 +1611,7 @@
         <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C62">
-        <v>119622</v>
+        <v>119659</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1631,7 +1631,7 @@
         <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C63">
-        <v>67549</v>
+        <v>67578</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1651,7 +1651,7 @@
         <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C64">
-        <v>643296</v>
+        <v>643322</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1671,7 +1671,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C65">
-        <v>1029416</v>
+        <v>1029447</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1691,7 +1691,7 @@
         <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C66">
-        <v>872421</v>
+        <v>872447</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1711,7 +1711,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>859653</v>
+        <v>859683</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1731,7 +1731,7 @@
         <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C68">
-        <v>678590</v>
+        <v>678621</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1751,7 +1751,7 @@
         <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C69">
-        <v>349373</v>
+        <v>349409</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1771,7 +1771,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C70">
-        <v>453749</v>
+        <v>453779</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1791,7 +1791,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C71">
-        <v>1074561</v>
+        <v>1074562</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1811,7 +1811,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C72">
-        <v>740080</v>
+        <v>740111</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1831,7 +1831,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C73">
-        <v>940843</v>
+        <v>940878</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1851,7 +1851,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C74">
-        <v>446568</v>
+        <v>446592</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1871,7 +1871,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C75">
-        <v>698652</v>
+        <v>698674</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1891,7 +1891,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C76">
-        <v>891783</v>
+        <v>891809</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1911,7 +1911,7 @@
         <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C77">
-        <v>755823</v>
+        <v>755853</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1931,7 +1931,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C78">
-        <v>1196222</v>
+        <v>1196252</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1951,7 +1951,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C79">
-        <v>985513</v>
+        <v>985542</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1971,7 +1971,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1681289</v>
+        <v>1681292</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1991,7 +1991,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C81">
-        <v>1572110</v>
+        <v>1572137</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2011,7 +2011,7 @@
         <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C82">
-        <v>937989</v>
+        <v>938012</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2031,7 +2031,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1291318</v>
+        <v>1291347</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2051,7 +2051,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C84">
-        <v>1189229</v>
+        <v>1189248</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2071,7 +2071,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1039717</v>
+        <v>1039742</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2091,7 +2091,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C86">
-        <v>785916</v>
+        <v>785941</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2111,7 +2111,7 @@
         <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C87">
-        <v>743600</v>
+        <v>743615</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2131,7 +2131,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C88">
-        <v>611319</v>
+        <v>611353</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2151,7 +2151,7 @@
         <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C89">
-        <v>587130</v>
+        <v>587162</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2171,7 +2171,7 @@
         <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C90">
-        <v>525440</v>
+        <v>525468</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2191,7 +2191,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C91">
-        <v>955356</v>
+        <v>955385</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2211,7 +2211,7 @@
         <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C92">
-        <v>2421224</v>
+        <v>2421243</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2231,7 +2231,7 @@
         <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C93">
-        <v>619176</v>
+        <v>619205</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2251,7 +2251,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C94">
-        <v>538540</v>
+        <v>538574</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2271,7 +2271,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C95">
-        <v>5025117</v>
+        <v>5025127</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2291,7 +2291,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C96">
-        <v>1634968</v>
+        <v>1635043</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2311,7 +2311,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C97">
-        <v>276258</v>
+        <v>276293</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2331,7 +2331,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1504175</v>
+        <v>1504204</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2351,7 +2351,7 @@
         <v>audioclip_sfx_h0128_jp.ab</v>
       </c>
       <c r="C99">
-        <v>29710</v>
+        <v>29746</v>
       </c>
       <c r="D99" t="str">
         <v>Stage_1</v>
@@ -2371,7 +2371,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1334006</v>
+        <v>1334024</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2391,7 +2391,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C101">
-        <v>1204292</v>
+        <v>1204314</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2411,7 +2411,7 @@
         <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C102">
-        <v>2285384</v>
+        <v>2285405</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2431,7 +2431,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1260480</v>
+        <v>1260468</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2451,7 +2451,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C104">
-        <v>2046285</v>
+        <v>2046307</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2471,7 +2471,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1236785</v>
+        <v>1236798</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2491,7 +2491,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2757182</v>
+        <v>2757243</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2511,7 +2511,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1924658</v>
+        <v>1924693</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2531,7 +2531,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C108">
-        <v>1987330</v>
+        <v>1987347</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2551,7 +2551,7 @@
         <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1928498</v>
+        <v>1928567</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2571,7 +2571,7 @@
         <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1498179</v>
+        <v>1498194</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2591,7 +2591,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C111">
-        <v>1893070</v>
+        <v>1893094</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2611,7 +2611,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1944078</v>
+        <v>1944107</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2631,7 +2631,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1305033</v>
+        <v>1305053</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2651,7 +2651,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C114">
-        <v>966684</v>
+        <v>966703</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2671,7 +2671,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1022174</v>
+        <v>1022198</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2691,7 +2691,7 @@
         <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C116">
-        <v>735067</v>
+        <v>735096</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2711,7 +2711,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C117">
-        <v>884650</v>
+        <v>884677</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2731,7 +2731,7 @@
         <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C118">
-        <v>747200</v>
+        <v>747232</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2751,7 +2751,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C119">
-        <v>929563</v>
+        <v>929587</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2771,7 +2771,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1438157</v>
+        <v>1438186</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2791,7 +2791,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1738244</v>
+        <v>1738270</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2811,7 +2811,7 @@
         <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1379851</v>
+        <v>1379887</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2831,7 +2831,7 @@
         <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1668236</v>
+        <v>1668210</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2851,7 +2851,7 @@
         <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1253454</v>
+        <v>1253482</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2871,7 +2871,7 @@
         <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C125">
-        <v>978036</v>
+        <v>978056</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2891,7 +2891,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1465796</v>
+        <v>1465820</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2911,7 +2911,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1838029</v>
+        <v>1838011</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2931,7 +2931,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C128">
-        <v>2273816</v>
+        <v>2273862</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2951,7 +2951,7 @@
         <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1563935</v>
+        <v>1563965</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>1892974</v>
+        <v>1892957</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>897747</v>
+        <v>897778</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3011,7 +3011,7 @@
         <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C132">
-        <v>565237</v>
+        <v>565267</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3031,7 +3031,7 @@
         <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C133">
-        <v>817918</v>
+        <v>817948</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3051,7 +3051,7 @@
         <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1562399</v>
+        <v>1562434</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3071,7 +3071,7 @@
         <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C135">
-        <v>710836</v>
+        <v>710861</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3091,7 +3091,7 @@
         <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1046776</v>
+        <v>1046812</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3111,7 +3111,7 @@
         <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="C137">
-        <v>877430</v>
+        <v>877460</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3131,7 +3131,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1080988</v>
+        <v>1081019</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3151,7 +3151,7 @@
         <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C139">
-        <v>922762</v>
+        <v>922796</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3171,7 +3171,7 @@
         <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C140">
-        <v>677160</v>
+        <v>677193</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3191,7 +3191,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C141">
-        <v>810545</v>
+        <v>810571</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3211,7 +3211,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C142">
-        <v>967960</v>
+        <v>967994</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3231,7 +3231,7 @@
         <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C143">
-        <v>274107</v>
+        <v>274141</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3251,7 +3251,7 @@
         <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C144">
-        <v>220241</v>
+        <v>220277</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3271,7 +3271,7 @@
         <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C145">
-        <v>95904</v>
+        <v>95937</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3291,7 +3291,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1390700</v>
+        <v>1390714</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3311,7 +3311,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C147">
-        <v>4141809</v>
+        <v>4141815</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3331,7 +3331,7 @@
         <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1438334</v>
+        <v>1438360</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3351,7 +3351,7 @@
         <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1066334</v>
+        <v>1066356</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3371,7 +3371,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C150">
-        <v>883152</v>
+        <v>883191</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3391,7 +3391,7 @@
         <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C151">
-        <v>903933</v>
+        <v>903958</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3411,7 +3411,7 @@
         <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1396220</v>
+        <v>1396253</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3431,7 +3431,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C153">
-        <v>995069</v>
+        <v>995093</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3451,7 +3451,7 @@
         <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1222379</v>
+        <v>1222449</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3471,7 +3471,7 @@
         <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C155">
-        <v>694955</v>
+        <v>694988</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3491,7 +3491,7 @@
         <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C156">
-        <v>3816615</v>
+        <v>3816643</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3511,7 +3511,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1950945</v>
+        <v>1950972</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3531,7 +3531,7 @@
         <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C158">
-        <v>2974087</v>
+        <v>2974110</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3551,7 +3551,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1992953</v>
+        <v>1992972</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3571,7 +3571,7 @@
         <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2340687</v>
+        <v>2340715</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3591,7 +3591,7 @@
         <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1950950</v>
+        <v>1950991</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3611,7 +3611,7 @@
         <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2411026</v>
+        <v>2411041</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3631,7 +3631,7 @@
         <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2120097</v>
+        <v>2120061</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3651,7 +3651,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1952744</v>
+        <v>1952778</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3671,7 +3671,7 @@
         <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1735996</v>
+        <v>1736026</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3691,7 +3691,7 @@
         <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2460134</v>
+        <v>2460158</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3711,7 +3711,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C167">
-        <v>480329</v>
+        <v>480360</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3731,7 +3731,7 @@
         <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2403874</v>
+        <v>2403903</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3751,7 +3751,7 @@
         <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1290290</v>
+        <v>1290319</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3771,7 +3771,7 @@
         <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C170">
-        <v>316196</v>
+        <v>316222</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3791,7 +3791,7 @@
         <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C171">
-        <v>164018</v>
+        <v>164048</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3811,7 +3811,7 @@
         <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C172">
-        <v>214542</v>
+        <v>214576</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3831,7 +3831,7 @@
         <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C173">
-        <v>310371</v>
+        <v>310401</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3851,7 +3851,7 @@
         <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C174">
-        <v>288931</v>
+        <v>288960</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3871,7 +3871,7 @@
         <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C175">
-        <v>270545</v>
+        <v>270576</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3891,7 +3891,7 @@
         <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C176">
-        <v>2495651</v>
+        <v>2427621</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
       </c>
     </row>
     <row r="177">
@@ -3911,7 +3911,7 @@
         <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C177">
-        <v>2552316</v>
+        <v>2483491</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
       </c>
     </row>
     <row r="178">
@@ -3931,7 +3931,7 @@
         <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C178">
-        <v>2506496</v>
+        <v>2480824</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
       </c>
     </row>
     <row r="179">
@@ -3951,7 +3951,7 @@
         <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C179">
-        <v>2502115</v>
+        <v>2425865</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
       </c>
     </row>
     <row r="180">
@@ -3971,7 +3971,7 @@
         <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C180">
-        <v>739608</v>
+        <v>719220</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>572e176c07737731e538074400e131984125e34cafbc392071bfcfae99124685</v>
+        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
       </c>
     </row>
     <row r="181">
@@ -3991,7 +3991,7 @@
         <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C181">
-        <v>2681244</v>
+        <v>2665114</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
       </c>
     </row>
     <row r="182">
@@ -4011,7 +4011,7 @@
         <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C182">
-        <v>698614</v>
+        <v>677862</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
       </c>
     </row>
     <row r="183">
@@ -4031,7 +4031,7 @@
         <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C183">
-        <v>162241</v>
+        <v>148141</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
+        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
       </c>
     </row>
     <row r="184">
@@ -4051,7 +4051,7 @@
         <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C184">
-        <v>2422605</v>
+        <v>2369924</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
       </c>
     </row>
     <row r="185">
@@ -4071,7 +4071,7 @@
         <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C185">
-        <v>2765350</v>
+        <v>2751802</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
       </c>
     </row>
     <row r="186">
@@ -4091,7 +4091,7 @@
         <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C186">
-        <v>2456682</v>
+        <v>2446728</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
       </c>
     </row>
     <row r="187">
@@ -4111,7 +4111,7 @@
         <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C187">
-        <v>2504056</v>
+        <v>2463327</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
       </c>
     </row>
     <row r="188">
@@ -4131,7 +4131,7 @@
         <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C188">
-        <v>666244</v>
+        <v>651307</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
       </c>
     </row>
     <row r="189">
@@ -4151,7 +4151,7 @@
         <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C189">
-        <v>563882</v>
+        <v>561312</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
       </c>
     </row>
     <row r="190">
@@ -4171,7 +4171,7 @@
         <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C190">
-        <v>739598</v>
+        <v>726451</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
       </c>
     </row>
     <row r="191">
@@ -4191,7 +4191,7 @@
         <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C191">
-        <v>3045368</v>
+        <v>2962837</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
       </c>
     </row>
     <row r="192">
@@ -4211,7 +4211,7 @@
         <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C192">
-        <v>754919</v>
+        <v>739681</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
       </c>
     </row>
     <row r="193">
@@ -4231,7 +4231,7 @@
         <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C193">
-        <v>603486</v>
+        <v>576970</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
       </c>
     </row>
     <row r="194">
@@ -4251,7 +4251,7 @@
         <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C194">
-        <v>739808</v>
+        <v>736669</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
       </c>
     </row>
     <row r="195">
@@ -4271,7 +4271,7 @@
         <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C195">
-        <v>566660</v>
+        <v>559888</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
       </c>
     </row>
     <row r="196">
@@ -4291,7 +4291,7 @@
         <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C196">
-        <v>2528471</v>
+        <v>2475343</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
       </c>
     </row>
     <row r="197">
@@ -4311,7 +4311,7 @@
         <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C197">
-        <v>2936832</v>
+        <v>2900414</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
       </c>
     </row>
     <row r="198">
@@ -4331,7 +4331,7 @@
         <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C198">
-        <v>3308612</v>
+        <v>3263699</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
       </c>
     </row>
     <row r="199">
@@ -4351,7 +4351,7 @@
         <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C199">
-        <v>3429461</v>
+        <v>3380874</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>89ab9439e30ab231cd3d228ee131241f804c965f7e60e2cf07ed263de20d2180</v>
+        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
       </c>
     </row>
     <row r="200">
@@ -4371,7 +4371,7 @@
         <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C200">
-        <v>2617624</v>
+        <v>2529038</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
       </c>
     </row>
     <row r="201">
@@ -4391,7 +4391,7 @@
         <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C201">
-        <v>2630207</v>
+        <v>2602264</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
       </c>
     </row>
     <row r="202">
@@ -4411,7 +4411,7 @@
         <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C202">
-        <v>2392569</v>
+        <v>2355620</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
       </c>
     </row>
     <row r="203">
@@ -4431,7 +4431,7 @@
         <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C203">
-        <v>2995290</v>
+        <v>2947535</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
       </c>
     </row>
     <row r="204">
@@ -4451,7 +4451,7 @@
         <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C204">
-        <v>2175267</v>
+        <v>2154552</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
       </c>
     </row>
     <row r="205">
@@ -4471,7 +4471,7 @@
         <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C205">
-        <v>2428868</v>
+        <v>2372246</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
       </c>
     </row>
     <row r="206">
@@ -4491,7 +4491,7 @@
         <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C206">
-        <v>2427396</v>
+        <v>2413035</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4556f1ece01dd02cedc6688c3c8f3b122d69ffdb4b66158b801caa4a9d5620c1</v>
       </c>
     </row>
     <row r="207">
@@ -4511,7 +4511,7 @@
         <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C207">
-        <v>2304469</v>
+        <v>2253985</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
       </c>
     </row>
     <row r="208">
@@ -4531,7 +4531,7 @@
         <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C208">
-        <v>804072</v>
+        <v>799706</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
       </c>
     </row>
     <row r="209">
@@ -4551,7 +4551,7 @@
         <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C209">
-        <v>709034</v>
+        <v>696705</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
       </c>
     </row>
     <row r="210">
@@ -4571,7 +4571,7 @@
         <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C210">
-        <v>685080</v>
+        <v>684156</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
       </c>
     </row>
     <row r="211">
@@ -4591,7 +4591,7 @@
         <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C211">
-        <v>752922</v>
+        <v>744489</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
       </c>
     </row>
     <row r="212">
@@ -4611,7 +4611,7 @@
         <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C212">
-        <v>2717520</v>
+        <v>2629522</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
       </c>
     </row>
     <row r="213">
@@ -4631,7 +4631,7 @@
         <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C213">
-        <v>727078</v>
+        <v>704035</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
       </c>
     </row>
     <row r="214">
@@ -4651,7 +4651,7 @@
         <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C214">
-        <v>2207700</v>
+        <v>2158249</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
       </c>
     </row>
     <row r="215">
@@ -4671,7 +4671,7 @@
         <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C215">
-        <v>1999173</v>
+        <v>1957083</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
       </c>
     </row>
     <row r="216">
@@ -4691,7 +4691,7 @@
         <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C216">
-        <v>3183647</v>
+        <v>3131566</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
       </c>
     </row>
     <row r="217">
@@ -4711,7 +4711,7 @@
         <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C217">
-        <v>2693612</v>
+        <v>2672754</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>fa8a6168c57bba9d052ad38abe327ecc36634933151d82065d39502253deff6c</v>
+        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
       </c>
     </row>
     <row r="218">
@@ -4731,7 +4731,7 @@
         <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C218">
-        <v>1811682</v>
+        <v>1804269</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
       </c>
     </row>
     <row r="219">
@@ -4751,7 +4751,7 @@
         <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C219">
-        <v>2884291</v>
+        <v>2832480</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
       </c>
     </row>
     <row r="220">
@@ -4771,7 +4771,7 @@
         <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C220">
-        <v>1894693</v>
+        <v>1855243</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
       </c>
     </row>
     <row r="221">
@@ -4791,7 +4791,7 @@
         <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C221">
-        <v>4436044</v>
+        <v>4395901</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
+        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
       </c>
     </row>
     <row r="222">
@@ -4811,7 +4811,7 @@
         <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C222">
-        <v>2018679</v>
+        <v>1954995</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>ef61e78d1c7a37ac623126d0bded61b9e48ac89679a7fb06babd42e5365e20b4</v>
       </c>
     </row>
     <row r="223">
@@ -4831,7 +4831,7 @@
         <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C223">
-        <v>1924288</v>
+        <v>1914930</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
       </c>
     </row>
     <row r="224">
@@ -4851,7 +4851,7 @@
         <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C224">
-        <v>1762090</v>
+        <v>1746954</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
       </c>
     </row>
     <row r="225">
@@ -4871,7 +4871,7 @@
         <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C225">
-        <v>1815137</v>
+        <v>1807060</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
       </c>
     </row>
     <row r="226">
@@ -4891,7 +4891,7 @@
         <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C226">
-        <v>1902141</v>
+        <v>1897916</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
       </c>
     </row>
     <row r="227">
@@ -4911,7 +4911,7 @@
         <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C227">
-        <v>2702502</v>
+        <v>2687127</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>6ff1f4621427c03d1020f9706c0c306f0efe5ce876fc355977bede4cfb851573</v>
+        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
       </c>
     </row>
     <row r="228">
@@ -4931,7 +4931,7 @@
         <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C228">
-        <v>2015887</v>
+        <v>1936819</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
       </c>
     </row>
     <row r="229">
@@ -4951,7 +4951,7 @@
         <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C229">
-        <v>3505338</v>
+        <v>3426748</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>16baa1b180ed3a8c47d30075df395af31cf77ba1a47dfaa6b12638296390f596</v>
+        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
       </c>
     </row>
     <row r="230">
@@ -4971,7 +4971,7 @@
         <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C230">
-        <v>599614</v>
+        <v>572490</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
       </c>
     </row>
     <row r="231">
@@ -4991,7 +4991,7 @@
         <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C231">
-        <v>1680814</v>
+        <v>1645805</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
       </c>
     </row>
     <row r="232">
@@ -5011,7 +5011,7 @@
         <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C232">
-        <v>587468</v>
+        <v>586768</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
       </c>
     </row>
     <row r="233">
@@ -5031,7 +5031,7 @@
         <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C233">
-        <v>779970</v>
+        <v>777845</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
       </c>
     </row>
     <row r="234">
@@ -5051,7 +5051,7 @@
         <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C234">
-        <v>692056</v>
+        <v>684860</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
       </c>
     </row>
     <row r="235">
@@ -5071,7 +5071,7 @@
         <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C235">
-        <v>838136</v>
+        <v>824610</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
       </c>
     </row>
     <row r="236">
@@ -5091,7 +5091,7 @@
         <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C236">
-        <v>785380</v>
+        <v>771453</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
       </c>
     </row>
     <row r="237">
@@ -5111,7 +5111,7 @@
         <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C237">
-        <v>798459</v>
+        <v>790507</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
       </c>
     </row>
     <row r="238">
@@ -5131,7 +5131,7 @@
         <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C238">
-        <v>728297</v>
+        <v>726300</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
       </c>
     </row>
     <row r="239">
@@ -5151,7 +5151,7 @@
         <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C239">
-        <v>712509</v>
+        <v>707991</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
       </c>
     </row>
     <row r="240">
@@ -5171,7 +5171,7 @@
         <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C240">
-        <v>652170</v>
+        <v>622834</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
       </c>
     </row>
     <row r="241">
@@ -5191,7 +5191,7 @@
         <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C241">
-        <v>735341</v>
+        <v>732380</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
       </c>
     </row>
     <row r="242">
@@ -5211,7 +5211,7 @@
         <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C242">
-        <v>742293</v>
+        <v>729250</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
       </c>
     </row>
     <row r="243">
@@ -5231,7 +5231,7 @@
         <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C243">
-        <v>826507</v>
+        <v>822341</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
       </c>
     </row>
     <row r="244">
@@ -5251,7 +5251,7 @@
         <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C244">
-        <v>695750</v>
+        <v>677985</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
       </c>
     </row>
     <row r="245">
@@ -5271,7 +5271,7 @@
         <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C245">
-        <v>2106553</v>
+        <v>2042367</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>4b0a29f2b9eff503f6ce3e442feab4d3fcbb101a4f74cfe4840ead498230d907</v>
+        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
       </c>
     </row>
     <row r="246">
@@ -5291,7 +5291,7 @@
         <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C246">
-        <v>2138145</v>
+        <v>2067781</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>4621654a1c7c0bf3b5cb8e3a667e0ecef53b3d8cdb70e9960d24e72466494abd</v>
+        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
       </c>
     </row>
     <row r="247">
@@ -5311,7 +5311,7 @@
         <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C247">
-        <v>2121513</v>
+        <v>2069193</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
       </c>
     </row>
     <row r="248">
@@ -5331,7 +5331,7 @@
         <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C248">
-        <v>1848903</v>
+        <v>1773283</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>793acafdec498d20f167befc29effd905ee2f1d408a8d25985a4d36f298b17ac</v>
+        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
       </c>
     </row>
     <row r="249">
@@ -5351,7 +5351,7 @@
         <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C249">
-        <v>753461</v>
+        <v>734211</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="250">
@@ -5371,7 +5371,7 @@
         <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C250">
-        <v>741348</v>
+        <v>718743</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="251">
@@ -5391,7 +5391,7 @@
         <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C251">
-        <v>681363</v>
+        <v>657606</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="252">
@@ -5411,7 +5411,7 @@
         <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C252">
-        <v>649699</v>
+        <v>627572</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>bcf68ff8cf70fc49cd4b3a8a8b399af8975edbffde324f0b4056e7db7f31ab5d</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="253">
@@ -5431,7 +5431,7 @@
         <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C253">
-        <v>765300</v>
+        <v>763856</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>d3b82fc46b66cf23e29370816365f44ea00e05303e193d7c642d71845d7d10d4</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="254">
@@ -5451,7 +5451,7 @@
         <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C254">
-        <v>723893</v>
+        <v>723672</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>403fae0f34dadb9418b32cf95d59dc80489966ce269cb34aa52460bf12399fe0</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="255">
@@ -5471,7 +5471,7 @@
         <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C255">
-        <v>712817</v>
+        <v>714014</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="256">
@@ -5491,7 +5491,7 @@
         <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C256">
-        <v>638642</v>
+        <v>637743</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="257">
@@ -5511,7 +5511,7 @@
         <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C257">
-        <v>793474</v>
+        <v>780991</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="258">
@@ -5531,7 +5531,7 @@
         <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C258">
-        <v>816979</v>
+        <v>805855</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="259">
@@ -5551,7 +5551,7 @@
         <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C259">
-        <v>794559</v>
+        <v>781334</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>c63e5d19e8bff3ef53e7fc0be8614ddd33997a06630ed84e93e94c7ee238d4c3</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="260">
@@ -5571,7 +5571,7 @@
         <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C260">
-        <v>2772777</v>
+        <v>2759541</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="261">
@@ -5591,7 +5591,7 @@
         <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C261">
-        <v>2197554</v>
+        <v>2163097</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="262">
@@ -5611,7 +5611,7 @@
         <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C262">
-        <v>2098490</v>
+        <v>2034727</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="263">
@@ -5631,7 +5631,7 @@
         <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C263">
-        <v>784010</v>
+        <v>775654</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="264">
@@ -5651,7 +5651,7 @@
         <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C264">
-        <v>818613</v>
+        <v>806550</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>928d537a8cf11b948c29e3b44b56b61cedec412f95581b7c8402b8f1812696ae</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="265">
@@ -5671,7 +5671,7 @@
         <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C265">
-        <v>3963142</v>
+        <v>3872071</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="266">
@@ -5691,7 +5691,7 @@
         <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C266">
-        <v>2642424</v>
+        <v>2616770</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="267">
@@ -5711,7 +5711,7 @@
         <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C267">
-        <v>2345835</v>
+        <v>2307872</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="268">
@@ -5731,7 +5731,7 @@
         <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C268">
-        <v>2655499</v>
+        <v>2603916</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="269">
@@ -5751,7 +5751,7 @@
         <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C269">
-        <v>2340879</v>
+        <v>2286765</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="270">
@@ -5771,7 +5771,7 @@
         <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C270">
-        <v>714371</v>
+        <v>693998</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="271">
@@ -5791,7 +5791,7 @@
         <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C271">
-        <v>648465</v>
+        <v>631454</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="272">
@@ -5811,7 +5811,7 @@
         <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C272">
-        <v>1662425</v>
+        <v>1586889</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="273">
@@ -5831,7 +5831,7 @@
         <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C273">
-        <v>1803629</v>
+        <v>1718936</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="274">
@@ -5851,7 +5851,7 @@
         <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C274">
-        <v>2738037</v>
+        <v>2648574</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>7a1f7f852db3476459861c5e92b68cf003e086da9e37be50c45a3480b4104f87</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="275">
@@ -5871,7 +5871,7 @@
         <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C275">
-        <v>2024839</v>
+        <v>1947775</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="276">
@@ -5891,7 +5891,7 @@
         <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C276">
-        <v>3572791</v>
+        <v>3511110</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>42fe7c0d36f79c07f2dd7837ff9290627f2c2865eb93a658f362a7f181fbf426</v>
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
       </c>
     </row>
     <row r="277">
@@ -5911,7 +5911,7 @@
         <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C277">
-        <v>1994394</v>
+        <v>1989757</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
       </c>
     </row>
     <row r="278">
@@ -5931,7 +5931,7 @@
         <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C278">
-        <v>2274166</v>
+        <v>2278082</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
       </c>
     </row>
     <row r="279">
@@ -5951,7 +5951,7 @@
         <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C279">
-        <v>1758391</v>
+        <v>1672877</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>7a072bdd59bf04b5aa9f50f0a5b2d8127b6889a7b68324681c22b2deea69ae7d</v>
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
       </c>
     </row>
     <row r="280">
@@ -5971,7 +5971,7 @@
         <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C280">
-        <v>2093146</v>
+        <v>2018104</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
       </c>
     </row>
     <row r="281">
@@ -5991,7 +5991,7 @@
         <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C281">
-        <v>2057447</v>
+        <v>1986452</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>d1216da219d3f0c448cfe932077ec7095f2ca73aaf86a5a60189f67387305a90</v>
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
       </c>
     </row>
     <row r="282">
@@ -6011,7 +6011,7 @@
         <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C282">
-        <v>1989539</v>
+        <v>1975757</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>c6b7e3bb6ee1e5fcb23c4178c809cf5a626a903a311ce82c5a1434f041dd29af</v>
+        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
       </c>
     </row>
     <row r="283">
@@ -6031,7 +6031,7 @@
         <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C283">
-        <v>815513</v>
+        <v>804205</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>812c478cfbc35803a638c1c69d85ef72dbc90c1cec3d8dea129b26b4075b2a68</v>
+        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F291</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F283"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3225,13 +3225,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C143">
-        <v>274141</v>
+        <v>774135</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>0f1e10418d145d3280d48cf884a851410fd1caf031be41b30c339d7d1db0bad0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C144">
-        <v>220277</v>
+        <v>967131</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>e7d22691dd2776a44d68e50548123000f69163c62f873b57d611657849e3d0e0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0210_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h0210_jp.ab</v>
       </c>
       <c r="C145">
-        <v>95937</v>
+        <v>976463</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>e5dd499dce7c2ee183b41c1fe0bb0ebe0265a9500a8a07aceef39ee060b69461</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1390714</v>
+        <v>274141</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C147">
-        <v>4141815</v>
+        <v>220277</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C148">
-        <v>1438360</v>
+        <v>95937</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1066356</v>
+        <v>1390714</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C150">
-        <v>883191</v>
+        <v>4141815</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C151">
-        <v>903958</v>
+        <v>1438360</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1396253</v>
+        <v>1066356</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C153">
-        <v>995093</v>
+        <v>883191</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1222449</v>
+        <v>903958</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C155">
-        <v>694988</v>
+        <v>1396253</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C156">
-        <v>3816643</v>
+        <v>995093</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1950972</v>
+        <v>1222449</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C158">
-        <v>2974110</v>
+        <v>694988</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1992972</v>
+        <v>3816643</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C160">
-        <v>2340715</v>
+        <v>1950972</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1950991</v>
+        <v>2974110</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2411041</v>
+        <v>1992972</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2120061</v>
+        <v>2340715</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1952778</v>
+        <v>1950991</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1736026</v>
+        <v>2411041</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2460158</v>
+        <v>2120061</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C167">
-        <v>480360</v>
+        <v>1952778</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2403903</v>
+        <v>1736026</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1290319</v>
+        <v>2460158</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C170">
-        <v>316222</v>
+        <v>480360</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C171">
-        <v>164048</v>
+        <v>2403903</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C172">
-        <v>214576</v>
+        <v>1290319</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C173">
-        <v>310401</v>
+        <v>940740</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C174">
-        <v>288960</v>
+        <v>316222</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C175">
-        <v>270576</v>
+        <v>164048</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C176">
-        <v>2427621</v>
+        <v>214576</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C177">
-        <v>2483491</v>
+        <v>310401</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C178">
-        <v>2480824</v>
+        <v>288960</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C179">
-        <v>2425865</v>
+        <v>270576</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C180">
-        <v>719220</v>
+        <v>2427621</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
+        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C181">
-        <v>2665114</v>
+        <v>2483491</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
+        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C182">
-        <v>677862</v>
+        <v>2480824</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
+        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C183">
-        <v>148141</v>
+        <v>2425865</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
+        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C184">
-        <v>2369924</v>
+        <v>719220</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
+        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C185">
-        <v>2751802</v>
+        <v>2665114</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
+        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C186">
-        <v>2446728</v>
+        <v>677862</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
+        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C187">
-        <v>2463327</v>
+        <v>148141</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
+        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C188">
-        <v>651307</v>
+        <v>2369924</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
+        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C189">
-        <v>561312</v>
+        <v>2751802</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
+        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C190">
-        <v>726451</v>
+        <v>2446728</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
+        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C191">
-        <v>2962837</v>
+        <v>2463327</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
+        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C192">
-        <v>739681</v>
+        <v>651307</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
+        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C193">
-        <v>576970</v>
+        <v>561312</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
+        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C194">
-        <v>736669</v>
+        <v>726451</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
+        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C195">
-        <v>559888</v>
+        <v>2962837</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
+        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C196">
-        <v>2475343</v>
+        <v>739681</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
+        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C197">
-        <v>2900414</v>
+        <v>576970</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
+        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C198">
-        <v>3263699</v>
+        <v>736669</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
+        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C199">
-        <v>3380874</v>
+        <v>559888</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
+        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C200">
-        <v>2529038</v>
+        <v>2475343</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
+        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C201">
-        <v>2602264</v>
+        <v>2900414</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
+        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C202">
-        <v>2355620</v>
+        <v>3263699</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
+        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C203">
-        <v>2947535</v>
+        <v>3380874</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
+        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C204">
-        <v>2154552</v>
+        <v>2529038</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
+        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C205">
-        <v>2372246</v>
+        <v>2602264</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
+        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C206">
-        <v>2413035</v>
+        <v>2355620</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>4556f1ece01dd02cedc6688c3c8f3b122d69ffdb4b66158b801caa4a9d5620c1</v>
+        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C207">
-        <v>2253985</v>
+        <v>2947535</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
+        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C208">
-        <v>799706</v>
+        <v>2154552</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
+        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C209">
-        <v>696705</v>
+        <v>2372246</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
+        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C210">
-        <v>684156</v>
+        <v>3087325</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
+        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C211">
-        <v>744489</v>
+        <v>2253985</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
+        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C212">
-        <v>2629522</v>
+        <v>799706</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
+        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C213">
-        <v>704035</v>
+        <v>696705</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
+        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C214">
-        <v>2158249</v>
+        <v>684156</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
+        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C215">
-        <v>1957083</v>
+        <v>744489</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
+        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C216">
-        <v>3131566</v>
+        <v>2629522</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
+        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C217">
-        <v>2672754</v>
+        <v>704035</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
+        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C218">
-        <v>1804269</v>
+        <v>2158249</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
+        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C219">
-        <v>2832480</v>
+        <v>1957083</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
+        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C220">
-        <v>1855243</v>
+        <v>3131566</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
+        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C221">
-        <v>4395901</v>
+        <v>2672754</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
+        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C222">
-        <v>1954995</v>
+        <v>1804269</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>ef61e78d1c7a37ac623126d0bded61b9e48ac89679a7fb06babd42e5365e20b4</v>
+        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C223">
-        <v>1914930</v>
+        <v>2832480</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
+        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C224">
-        <v>1746954</v>
+        <v>1855243</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
+        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C225">
-        <v>1807060</v>
+        <v>4395901</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
+        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C226">
-        <v>1897916</v>
+        <v>2719005</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
+        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C227">
-        <v>2687127</v>
+        <v>1914930</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
+        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C228">
-        <v>1936819</v>
+        <v>1746954</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
+        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C229">
-        <v>3426748</v>
+        <v>1807060</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
+        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C230">
-        <v>572490</v>
+        <v>1897916</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
+        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C231">
-        <v>1645805</v>
+        <v>2687127</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
+        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C232">
-        <v>586768</v>
+        <v>1936819</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
+        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C233">
-        <v>777845</v>
+        <v>3426748</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
+        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C234">
-        <v>684860</v>
+        <v>572490</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
+        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C235">
-        <v>824610</v>
+        <v>1645805</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
+        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C236">
-        <v>771453</v>
+        <v>586768</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
+        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C237">
-        <v>790507</v>
+        <v>777845</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
+        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C238">
-        <v>726300</v>
+        <v>684860</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
+        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C239">
-        <v>707991</v>
+        <v>824610</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
+        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C240">
-        <v>622834</v>
+        <v>771453</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
+        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C241">
-        <v>732380</v>
+        <v>790507</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
+        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C242">
-        <v>729250</v>
+        <v>726300</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
+        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C243">
-        <v>822341</v>
+        <v>707991</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
+        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C244">
-        <v>677985</v>
+        <v>622834</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
+        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C245">
-        <v>2042367</v>
+        <v>732380</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
+        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C246">
-        <v>2067781</v>
+        <v>729250</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
+        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C247">
-        <v>2069193</v>
+        <v>822341</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
+        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C248">
-        <v>1773283</v>
+        <v>677985</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
+        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C249">
-        <v>734211</v>
+        <v>2042367</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C250">
-        <v>718743</v>
+        <v>2067781</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C251">
-        <v>657606</v>
+        <v>2069193</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C252">
-        <v>627572</v>
+        <v>1773283</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C253">
-        <v>763856</v>
+        <v>734211</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C254">
-        <v>723672</v>
+        <v>718743</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C255">
-        <v>714014</v>
+        <v>657606</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C256">
-        <v>637743</v>
+        <v>627572</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C257">
-        <v>780991</v>
+        <v>763856</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C258">
-        <v>805855</v>
+        <v>723672</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C259">
-        <v>781334</v>
+        <v>714014</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C260">
-        <v>2759541</v>
+        <v>637743</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C261">
-        <v>2163097</v>
+        <v>780991</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C262">
-        <v>2034727</v>
+        <v>805855</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C263">
-        <v>775654</v>
+        <v>781334</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C264">
-        <v>806550</v>
+        <v>704983</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C265">
-        <v>3872071</v>
+        <v>785511</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C266">
-        <v>2616770</v>
+        <v>815817</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C267">
-        <v>2307872</v>
+        <v>2759541</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C268">
-        <v>2603916</v>
+        <v>2163097</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C269">
-        <v>2286765</v>
+        <v>2034727</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C270">
-        <v>693998</v>
+        <v>775654</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C271">
-        <v>631454</v>
+        <v>806550</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C272">
-        <v>1586889</v>
+        <v>3872071</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C273">
-        <v>1718936</v>
+        <v>2616770</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C274">
-        <v>2648574</v>
+        <v>2307872</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C275">
-        <v>1947775</v>
+        <v>2603916</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C276">
-        <v>3511110</v>
+        <v>2286765</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C277">
-        <v>1989757</v>
+        <v>693998</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C278">
-        <v>2278082</v>
+        <v>631454</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C279">
-        <v>1672877</v>
+        <v>1586889</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C280">
-        <v>2018104</v>
+        <v>1718936</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C281">
-        <v>1986452</v>
+        <v>2648574</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C282">
-        <v>1975757</v>
+        <v>1947775</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,33 +6020,193 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="B283" t="str">
+        <v>character_largeimage_t0158.ab</v>
+      </c>
+      <c r="C283">
+        <v>3511110</v>
+      </c>
+      <c r="D283" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" t="str">
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="B284" t="str">
+        <v>character_largeimage_t0180.ab</v>
+      </c>
+      <c r="C284">
+        <v>1989757</v>
+      </c>
+      <c r="D284" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" t="str">
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B285" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C285">
+        <v>2278082</v>
+      </c>
+      <c r="D285" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" t="str">
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="B286" t="str">
+        <v>character_largeimage_t0182.ab</v>
+      </c>
+      <c r="C286">
+        <v>1672877</v>
+      </c>
+      <c r="D286" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" t="str">
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B287" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C287">
+        <v>2018104</v>
+      </c>
+      <c r="D287" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" t="str">
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="B288" t="str">
+        <v>character_largeimage_t0187.ab</v>
+      </c>
+      <c r="C288">
+        <v>1986452</v>
+      </c>
+      <c r="D288" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="str">
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B289" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C289">
+        <v>1975757</v>
+      </c>
+      <c r="D289" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" t="str">
+        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="B283" t="str">
+      <c r="B290" t="str">
         <v>character_largeimage_t0204.ab</v>
       </c>
-      <c r="C283">
+      <c r="C290">
         <v>804205</v>
       </c>
-      <c r="D283" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E283">
-        <v>0</v>
-      </c>
-      <c r="F283" t="str">
+      <c r="D290" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290" t="str">
         <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
       </c>
     </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="B291" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="C291">
+        <v>688167</v>
+      </c>
+      <c r="D291" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="str">
+        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F283"/>
+  <autoFilter ref="A1:F291"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F283"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F291"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>897778</v>
+        <v>926355</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>f44b2f455a248453cd396129a632ea8f6410bd7dd155e650f6e93392334e9d4e</v>
+        <v>418dae45fa4944e088025e8dec67699ab5ab57e6c7aa7e0cd8d72603b084b500</v>
       </c>
     </row>
     <row r="132">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F293</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>926355</v>
+        <v>2642992</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>418dae45fa4944e088025e8dec67699ab5ab57e6c7aa7e0cd8d72603b084b500</v>
+        <v>aa653015ced1307bd789943bf410ab0a5fc0eba4ecc36a5d0afa339acc21bc24</v>
       </c>
     </row>
     <row r="132">
@@ -3771,7 +3771,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C170">
-        <v>480360</v>
+        <v>1973737</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>8b911b7ae18b8674168883f61daa5c81f4c8cf4f9f0c2e1fb22b79cb994abb66</v>
+        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
       </c>
     </row>
     <row r="171">
@@ -5351,7 +5351,7 @@
         <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C249">
-        <v>2042367</v>
+        <v>2749662</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>58f176cc309521fcc267660d7a3b1a5dac506a1ca94350432f2a3301e2ac9137</v>
+        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
       </c>
     </row>
     <row r="250">
@@ -5425,13 +5425,13 @@
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C253">
-        <v>734211</v>
+        <v>2134450</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C254">
-        <v>718743</v>
+        <v>734211</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C255">
-        <v>657606</v>
+        <v>718743</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C256">
-        <v>627572</v>
+        <v>657606</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C257">
-        <v>763856</v>
+        <v>627572</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C258">
-        <v>723672</v>
+        <v>763856</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C259">
-        <v>714014</v>
+        <v>723672</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C260">
-        <v>637743</v>
+        <v>714014</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C261">
-        <v>780991</v>
+        <v>637743</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C262">
-        <v>805855</v>
+        <v>780991</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C263">
-        <v>781334</v>
+        <v>805855</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C264">
-        <v>704983</v>
+        <v>781334</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C265">
-        <v>785511</v>
+        <v>704983</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
+        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C266">
-        <v>815817</v>
+        <v>785511</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
+        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C267">
-        <v>2759541</v>
+        <v>815817</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C268">
-        <v>2163097</v>
+        <v>2759541</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C269">
-        <v>2034727</v>
+        <v>2163097</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C270">
-        <v>775654</v>
+        <v>2034727</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C271">
-        <v>806550</v>
+        <v>775654</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C272">
-        <v>3872071</v>
+        <v>806550</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C273">
-        <v>2616770</v>
+        <v>3872071</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C274">
-        <v>2307872</v>
+        <v>2616770</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C275">
-        <v>2603916</v>
+        <v>2307872</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C276">
-        <v>2286765</v>
+        <v>2603916</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C277">
-        <v>693998</v>
+        <v>2286765</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C278">
-        <v>631454</v>
+        <v>693998</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C279">
-        <v>1586889</v>
+        <v>631454</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C280">
-        <v>1718936</v>
+        <v>1586889</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C281">
-        <v>2648574</v>
+        <v>1718936</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C282">
-        <v>1947775</v>
+        <v>2648574</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C283">
-        <v>3511110</v>
+        <v>1947775</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C284">
-        <v>1989757</v>
+        <v>3511110</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C285">
-        <v>2278082</v>
+        <v>1989757</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C286">
-        <v>1672877</v>
+        <v>2278082</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C287">
-        <v>2018104</v>
+        <v>1672877</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C288">
-        <v>1986452</v>
+        <v>2018104</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C289">
-        <v>1975757</v>
+        <v>1986452</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C290">
-        <v>804205</v>
+        <v>1996254</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,33 +6180,73 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B291" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C291">
+        <v>1975757</v>
+      </c>
+      <c r="D291" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="str">
+        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="B292" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="C292">
+        <v>804205</v>
+      </c>
+      <c r="D292" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292" t="str">
+        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="B291" t="str">
+      <c r="B293" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="C291">
+      <c r="C293">
         <v>688167</v>
       </c>
-      <c r="D291" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-      <c r="F291" t="str">
+      <c r="D293" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" t="str">
         <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F291"/>
+  <autoFilter ref="A1:F293"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F291"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F293"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -1711,7 +1711,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>859683</v>
+        <v>1013608</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>4b30b66d7f6622570540dab98edcf31929396e52bbea5202c39ce3b8ba89d51b</v>
+        <v>ab3b0eccfa6b508a19802b889a8f10a8a026ab85a8b03c1233a70b5518053402</v>
       </c>
     </row>
     <row r="68">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F297</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F293"/>
+  <dimension ref="A1:F297"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3285,13 +3285,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0213_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0213_jp.ab</v>
       </c>
       <c r="C146">
-        <v>274141</v>
+        <v>1108277</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>8f16c55115a1979dd49261f2d20c07e18aeec69db8084cddfd51ec8aaf65d66b</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C147">
-        <v>220277</v>
+        <v>274141</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C148">
-        <v>95937</v>
+        <v>220277</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C149">
-        <v>1390714</v>
+        <v>95937</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C150">
-        <v>4141815</v>
+        <v>1390714</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1438360</v>
+        <v>4141815</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1066356</v>
+        <v>1438360</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C153">
-        <v>883191</v>
+        <v>1066356</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C154">
-        <v>903958</v>
+        <v>883191</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1396253</v>
+        <v>903958</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C156">
-        <v>995093</v>
+        <v>1396253</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1222449</v>
+        <v>995093</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C158">
-        <v>694988</v>
+        <v>1222449</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C159">
-        <v>3816643</v>
+        <v>694988</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1950972</v>
+        <v>3816643</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C161">
-        <v>2974110</v>
+        <v>1950972</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1992972</v>
+        <v>2974110</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2340715</v>
+        <v>1992972</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1950991</v>
+        <v>2340715</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2411041</v>
+        <v>1950991</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2120061</v>
+        <v>2411041</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C167">
-        <v>1952778</v>
+        <v>2120061</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1736026</v>
+        <v>1952778</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C169">
-        <v>2460158</v>
+        <v>1736026</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1973737</v>
+        <v>2460158</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C171">
-        <v>2403903</v>
+        <v>1973737</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C172">
-        <v>1290319</v>
+        <v>2403903</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C173">
-        <v>940740</v>
+        <v>1290319</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C174">
-        <v>316222</v>
+        <v>940740</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C175">
-        <v>164048</v>
+        <v>1293985</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>3be5abf941ea747b0723e12b140af676c14dbaf0a746f5b418fd2279c342e5dc</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C176">
-        <v>214576</v>
+        <v>316222</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C177">
-        <v>310401</v>
+        <v>164048</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C178">
-        <v>288960</v>
+        <v>214576</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C179">
-        <v>270576</v>
+        <v>310401</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C180">
-        <v>2427621</v>
+        <v>288960</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C181">
-        <v>2483491</v>
+        <v>270576</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C182">
-        <v>2480824</v>
+        <v>2427621</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
+        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C183">
-        <v>2425865</v>
+        <v>2483491</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
+        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C184">
-        <v>719220</v>
+        <v>2480824</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
+        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C185">
-        <v>2665114</v>
+        <v>2425865</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
+        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C186">
-        <v>677862</v>
+        <v>719220</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
+        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C187">
-        <v>148141</v>
+        <v>2665114</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
+        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C188">
-        <v>2369924</v>
+        <v>677862</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
+        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C189">
-        <v>2751802</v>
+        <v>148141</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
+        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C190">
-        <v>2446728</v>
+        <v>2369924</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
+        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C191">
-        <v>2463327</v>
+        <v>2751802</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
+        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C192">
-        <v>651307</v>
+        <v>2446728</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
+        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C193">
-        <v>561312</v>
+        <v>2463327</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
+        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C194">
-        <v>726451</v>
+        <v>651307</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
+        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C195">
-        <v>2962837</v>
+        <v>561312</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
+        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C196">
-        <v>739681</v>
+        <v>726451</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
+        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C197">
-        <v>576970</v>
+        <v>2962837</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
+        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C198">
-        <v>736669</v>
+        <v>739681</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
+        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C199">
-        <v>559888</v>
+        <v>576970</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
+        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C200">
-        <v>2475343</v>
+        <v>736669</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
+        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C201">
-        <v>2900414</v>
+        <v>559888</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
+        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C202">
-        <v>3263699</v>
+        <v>2475343</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
+        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C203">
-        <v>3380874</v>
+        <v>2900414</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
+        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C204">
-        <v>2529038</v>
+        <v>3263699</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
+        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C205">
-        <v>2602264</v>
+        <v>3380874</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
+        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C206">
-        <v>2355620</v>
+        <v>2529038</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
+        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C207">
-        <v>2947535</v>
+        <v>2602264</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
+        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C208">
-        <v>2154552</v>
+        <v>2355620</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
+        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C209">
-        <v>2372246</v>
+        <v>2947535</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
+        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C210">
-        <v>3087325</v>
+        <v>2154552</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
+        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C211">
-        <v>2253985</v>
+        <v>2372246</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
+        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C212">
-        <v>799706</v>
+        <v>3087325</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
+        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C213">
-        <v>696705</v>
+        <v>2253985</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
+        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C214">
-        <v>684156</v>
+        <v>799706</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
+        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C215">
-        <v>744489</v>
+        <v>696705</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
+        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C216">
-        <v>2629522</v>
+        <v>684156</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
+        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C217">
-        <v>704035</v>
+        <v>744489</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
+        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C218">
-        <v>2158249</v>
+        <v>2629522</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
+        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C219">
-        <v>1957083</v>
+        <v>704035</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
+        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C220">
-        <v>3131566</v>
+        <v>2158249</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
+        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C221">
-        <v>2672754</v>
+        <v>1957083</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
+        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C222">
-        <v>1804269</v>
+        <v>3131566</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
+        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C223">
-        <v>2832480</v>
+        <v>2672754</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
+        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C224">
-        <v>1855243</v>
+        <v>1804269</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
+        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C225">
-        <v>4395901</v>
+        <v>2832480</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
+        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C226">
-        <v>2719005</v>
+        <v>1855243</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
+        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C227">
-        <v>1914930</v>
+        <v>4395901</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>6f333a9e43573786e42d4b22b134662f993e5ddc208318ac85db6cd3079d1ed0</v>
+        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C228">
-        <v>1746954</v>
+        <v>2719005</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
+        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C229">
-        <v>1807060</v>
+        <v>2700800</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
+        <v>b5b648e58ba4264a9022a79eedcdff049d19056c3a94a8ca096a2624d88849b2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C230">
-        <v>1897916</v>
+        <v>1746954</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
+        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C231">
-        <v>2687127</v>
+        <v>1807060</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
+        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C232">
-        <v>1936819</v>
+        <v>1897916</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
+        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C233">
-        <v>3426748</v>
+        <v>2687127</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
+        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C234">
-        <v>572490</v>
+        <v>1936819</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
+        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C235">
-        <v>1645805</v>
+        <v>3426748</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
+        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C236">
-        <v>586768</v>
+        <v>572490</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
+        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C237">
-        <v>777845</v>
+        <v>1645805</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
+        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C238">
-        <v>684860</v>
+        <v>586768</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
+        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C239">
-        <v>824610</v>
+        <v>777845</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
+        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C240">
-        <v>771453</v>
+        <v>684860</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
+        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C241">
-        <v>790507</v>
+        <v>824610</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
+        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C242">
-        <v>726300</v>
+        <v>771453</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
+        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C243">
-        <v>707991</v>
+        <v>790507</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
+        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C244">
-        <v>622834</v>
+        <v>726300</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
+        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C245">
-        <v>732380</v>
+        <v>707991</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
+        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C246">
-        <v>729250</v>
+        <v>622834</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
+        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C247">
-        <v>822341</v>
+        <v>732380</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
+        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C248">
-        <v>677985</v>
+        <v>729250</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
+        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C249">
-        <v>2749662</v>
+        <v>822341</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
+        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C250">
-        <v>2067781</v>
+        <v>677985</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
+        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C251">
-        <v>2069193</v>
+        <v>2749662</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
+        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C252">
-        <v>1773283</v>
+        <v>2067781</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
+        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C253">
-        <v>2134450</v>
+        <v>2069193</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
+        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C254">
-        <v>734211</v>
+        <v>1773283</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C255">
-        <v>718743</v>
+        <v>2134450</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C256">
-        <v>657606</v>
+        <v>734211</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C257">
-        <v>627572</v>
+        <v>718743</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C258">
-        <v>763856</v>
+        <v>657606</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C259">
-        <v>723672</v>
+        <v>627572</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C260">
-        <v>714014</v>
+        <v>763856</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C261">
-        <v>637743</v>
+        <v>723672</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C262">
-        <v>780991</v>
+        <v>714014</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C263">
-        <v>805855</v>
+        <v>637743</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C264">
-        <v>781334</v>
+        <v>780991</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C265">
-        <v>704983</v>
+        <v>805855</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C266">
-        <v>785511</v>
+        <v>781334</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C267">
-        <v>815817</v>
+        <v>704983</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
+        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C268">
-        <v>2759541</v>
+        <v>785511</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C269">
-        <v>2163097</v>
+        <v>815817</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C270">
-        <v>2034727</v>
+        <v>706075</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>b891435a4d5b674456d222cdfba47c86d31f9651a7570b3844fe71d0e73c67dd</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C271">
-        <v>775654</v>
+        <v>2759541</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C272">
-        <v>806550</v>
+        <v>2163097</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C273">
-        <v>3872071</v>
+        <v>2034727</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C274">
-        <v>2616770</v>
+        <v>775654</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C275">
-        <v>2307872</v>
+        <v>806550</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C276">
-        <v>2603916</v>
+        <v>3872071</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C277">
-        <v>2286765</v>
+        <v>2616770</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C278">
-        <v>693998</v>
+        <v>2307872</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C279">
-        <v>631454</v>
+        <v>2603916</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C280">
-        <v>1586889</v>
+        <v>2286765</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C281">
-        <v>1718936</v>
+        <v>693998</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C282">
-        <v>2648574</v>
+        <v>631454</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C283">
-        <v>1947775</v>
+        <v>1586889</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C284">
-        <v>3511110</v>
+        <v>1718936</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C285">
-        <v>1989757</v>
+        <v>2648574</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C286">
-        <v>2278082</v>
+        <v>1947775</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C287">
-        <v>1672877</v>
+        <v>3511110</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C288">
-        <v>2018104</v>
+        <v>1989757</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C289">
-        <v>1986452</v>
+        <v>2278082</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C290">
-        <v>1996254</v>
+        <v>1672877</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6180,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C291">
-        <v>1975757</v>
+        <v>2018104</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>805b127bd04e0d4ee1901fb70c4faed9793ebf46d2a26bed965c1d5e523d69d2</v>
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C292">
-        <v>804205</v>
+        <v>1986452</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,33 +6220,113 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
+        <v>character_largeimage_t0188.ab</v>
+      </c>
+      <c r="B293" t="str">
+        <v>character_largeimage_t0188.ab</v>
+      </c>
+      <c r="C293">
+        <v>1996254</v>
+      </c>
+      <c r="D293" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293" t="str">
+        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B294" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C294">
+        <v>2760079</v>
+      </c>
+      <c r="D294" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294" t="str">
+        <v>cbd6f05fd399b095b1cc955ce540fa089916e65665b9454914ec421ce27daf2e</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="B295" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="C295">
+        <v>804205</v>
+      </c>
+      <c r="D295" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295" t="str">
+        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="B293" t="str">
+      <c r="B296" t="str">
         <v>character_largeimage_t0207.ab</v>
       </c>
-      <c r="C293">
+      <c r="C296">
         <v>688167</v>
       </c>
-      <c r="D293" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-      <c r="F293" t="str">
+      <c r="D296" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296" t="str">
         <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
       </c>
     </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="B297" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="C297">
+        <v>841779</v>
+      </c>
+      <c r="D297" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" t="str">
+        <v>de8c429947791dac654266f0fafb5e61866946fee857c8a79f984ca134a15c61</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F293"/>
+  <autoFilter ref="A1:F297"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F293"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F297"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -3871,7 +3871,7 @@
         <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C175">
-        <v>1293985</v>
+        <v>1484340</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>3be5abf941ea747b0723e12b140af676c14dbaf0a746f5b418fd2279c342e5dc</v>
+        <v>4c0b296e082749b7ec1a95c6eb5928e55d1a913fb690f5c5f31bc0edc1e1f205</v>
       </c>
     </row>
     <row r="176">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F299</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F297"/>
+  <dimension ref="A1:F299"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C176">
-        <v>316222</v>
+        <v>1202871</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>aa0d81c990b07857c551d063b7d1f8f1edcceb743b9eac290e5e625cebb867a1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C177">
-        <v>164048</v>
+        <v>316222</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C178">
-        <v>214576</v>
+        <v>164048</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C179">
-        <v>310401</v>
+        <v>214576</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C180">
-        <v>288960</v>
+        <v>310401</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C181">
-        <v>270576</v>
+        <v>288960</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C182">
-        <v>2427621</v>
+        <v>270576</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C183">
-        <v>2483491</v>
+        <v>2427621</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
+        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C184">
-        <v>2480824</v>
+        <v>2483491</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
+        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C185">
-        <v>2425865</v>
+        <v>2480824</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
+        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C186">
-        <v>719220</v>
+        <v>2425865</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
+        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C187">
-        <v>2665114</v>
+        <v>719220</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
+        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C188">
-        <v>677862</v>
+        <v>2665114</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
+        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C189">
-        <v>148141</v>
+        <v>677862</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
+        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C190">
-        <v>2369924</v>
+        <v>148141</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
+        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C191">
-        <v>2751802</v>
+        <v>2369924</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
+        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C192">
-        <v>2446728</v>
+        <v>2751802</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
+        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C193">
-        <v>2463327</v>
+        <v>2446728</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
+        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C194">
-        <v>651307</v>
+        <v>2463327</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
+        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C195">
-        <v>561312</v>
+        <v>651307</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
+        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C196">
-        <v>726451</v>
+        <v>561312</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
+        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C197">
-        <v>2962837</v>
+        <v>726451</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
+        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C198">
-        <v>739681</v>
+        <v>2962837</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
+        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C199">
-        <v>576970</v>
+        <v>739681</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
+        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C200">
-        <v>736669</v>
+        <v>576970</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
+        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C201">
-        <v>559888</v>
+        <v>736669</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
+        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C202">
-        <v>2475343</v>
+        <v>559888</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
+        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C203">
-        <v>2900414</v>
+        <v>2475343</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
+        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C204">
-        <v>3263699</v>
+        <v>2900414</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
+        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C205">
-        <v>3380874</v>
+        <v>3263699</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
+        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C206">
-        <v>2529038</v>
+        <v>3380874</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
+        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C207">
-        <v>2602264</v>
+        <v>2529038</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
+        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C208">
-        <v>2355620</v>
+        <v>2602264</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
+        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C209">
-        <v>2947535</v>
+        <v>2355620</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
+        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C210">
-        <v>2154552</v>
+        <v>2947535</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
+        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C211">
-        <v>2372246</v>
+        <v>2154552</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
+        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C212">
-        <v>3087325</v>
+        <v>2372246</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
+        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C213">
-        <v>2253985</v>
+        <v>3087325</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
+        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C214">
-        <v>799706</v>
+        <v>2253985</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
+        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C215">
-        <v>696705</v>
+        <v>799706</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
+        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C216">
-        <v>684156</v>
+        <v>696705</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
+        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C217">
-        <v>744489</v>
+        <v>684156</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
+        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C218">
-        <v>2629522</v>
+        <v>744489</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
+        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C219">
-        <v>704035</v>
+        <v>2629522</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
+        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C220">
-        <v>2158249</v>
+        <v>704035</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
+        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C221">
-        <v>1957083</v>
+        <v>2158249</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
+        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C222">
-        <v>3131566</v>
+        <v>1957083</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
+        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C223">
-        <v>2672754</v>
+        <v>3131566</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
+        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C224">
-        <v>1804269</v>
+        <v>2672754</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
+        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C225">
-        <v>2832480</v>
+        <v>1804269</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
+        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C226">
-        <v>1855243</v>
+        <v>2832480</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
+        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C227">
-        <v>4395901</v>
+        <v>1855243</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
+        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C228">
-        <v>2719005</v>
+        <v>4395901</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
+        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C229">
-        <v>2700800</v>
+        <v>2719005</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>b5b648e58ba4264a9022a79eedcdff049d19056c3a94a8ca096a2624d88849b2</v>
+        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C230">
-        <v>1746954</v>
+        <v>2700800</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
+        <v>b5b648e58ba4264a9022a79eedcdff049d19056c3a94a8ca096a2624d88849b2</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C231">
-        <v>1807060</v>
+        <v>1746954</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
+        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C232">
-        <v>1897916</v>
+        <v>1807060</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
+        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C233">
-        <v>2687127</v>
+        <v>1897916</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
+        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C234">
-        <v>1936819</v>
+        <v>2687127</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
+        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C235">
-        <v>3426748</v>
+        <v>1936819</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
+        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C236">
-        <v>572490</v>
+        <v>3426748</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
+        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C237">
-        <v>1645805</v>
+        <v>572490</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
+        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C238">
-        <v>586768</v>
+        <v>1645805</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
+        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C239">
-        <v>777845</v>
+        <v>586768</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
+        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C240">
-        <v>684860</v>
+        <v>777845</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
+        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C241">
-        <v>824610</v>
+        <v>684860</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
+        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C242">
-        <v>771453</v>
+        <v>824610</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
+        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C243">
-        <v>790507</v>
+        <v>771453</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
+        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C244">
-        <v>726300</v>
+        <v>790507</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
+        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C245">
-        <v>707991</v>
+        <v>726300</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
+        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C246">
-        <v>622834</v>
+        <v>707991</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
+        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C247">
-        <v>732380</v>
+        <v>622834</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
+        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C248">
-        <v>729250</v>
+        <v>732380</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
+        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C249">
-        <v>822341</v>
+        <v>729250</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
+        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C250">
-        <v>677985</v>
+        <v>822341</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
+        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C251">
-        <v>2749662</v>
+        <v>677985</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
+        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C252">
-        <v>2067781</v>
+        <v>2749662</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
+        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C253">
-        <v>2069193</v>
+        <v>2067781</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
+        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C254">
-        <v>1773283</v>
+        <v>2069193</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
+        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C255">
-        <v>2134450</v>
+        <v>1773283</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
+        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C256">
-        <v>734211</v>
+        <v>2134450</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C257">
-        <v>718743</v>
+        <v>734211</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C258">
-        <v>657606</v>
+        <v>718743</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C259">
-        <v>627572</v>
+        <v>657606</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C260">
-        <v>763856</v>
+        <v>627572</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C261">
-        <v>723672</v>
+        <v>763856</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C262">
-        <v>714014</v>
+        <v>723672</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C263">
-        <v>637743</v>
+        <v>714014</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C264">
-        <v>780991</v>
+        <v>637743</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C265">
-        <v>805855</v>
+        <v>780991</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C266">
-        <v>781334</v>
+        <v>805855</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C267">
-        <v>704983</v>
+        <v>781334</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C268">
-        <v>785511</v>
+        <v>704983</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
+        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C269">
-        <v>815817</v>
+        <v>785511</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
+        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C270">
-        <v>706075</v>
+        <v>815817</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>b891435a4d5b674456d222cdfba47c86d31f9651a7570b3844fe71d0e73c67dd</v>
+        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C271">
-        <v>2759541</v>
+        <v>706075</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>b891435a4d5b674456d222cdfba47c86d31f9651a7570b3844fe71d0e73c67dd</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C272">
-        <v>2163097</v>
+        <v>2759541</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C273">
-        <v>2034727</v>
+        <v>2163097</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C274">
-        <v>775654</v>
+        <v>2034727</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C275">
-        <v>806550</v>
+        <v>775654</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C276">
-        <v>3872071</v>
+        <v>806550</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C277">
-        <v>2616770</v>
+        <v>3872071</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C278">
-        <v>2307872</v>
+        <v>2616770</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C279">
-        <v>2603916</v>
+        <v>2307872</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C280">
-        <v>2286765</v>
+        <v>2603916</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C281">
-        <v>693998</v>
+        <v>2286765</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C282">
-        <v>631454</v>
+        <v>693998</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C283">
-        <v>1586889</v>
+        <v>631454</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C284">
-        <v>1718936</v>
+        <v>1586889</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C285">
-        <v>2648574</v>
+        <v>1718936</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C286">
-        <v>1947775</v>
+        <v>2648574</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C287">
-        <v>3511110</v>
+        <v>1947775</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C288">
-        <v>1989757</v>
+        <v>3511110</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C289">
-        <v>2278082</v>
+        <v>1989757</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C290">
-        <v>1672877</v>
+        <v>2278082</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6180,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C291">
-        <v>2018104</v>
+        <v>1672877</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C292">
-        <v>1986452</v>
+        <v>2018104</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,18 +6220,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C293">
-        <v>1996254</v>
+        <v>1986452</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6240,18 +6240,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C294">
-        <v>2760079</v>
+        <v>1996254</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6260,18 +6260,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>cbd6f05fd399b095b1cc955ce540fa089916e65665b9454914ec421ce27daf2e</v>
+        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C295">
-        <v>804205</v>
+        <v>2760079</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6280,18 +6280,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+        <v>cbd6f05fd399b095b1cc955ce540fa089916e65665b9454914ec421ce27daf2e</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C296">
-        <v>688167</v>
+        <v>804205</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6300,33 +6300,73 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="B297" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="C297">
+        <v>688167</v>
+      </c>
+      <c r="D297" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297" t="str">
+        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
         <v>character_largeimage_t0212.ab</v>
       </c>
-      <c r="B297" t="str">
+      <c r="B298" t="str">
         <v>character_largeimage_t0212.ab</v>
       </c>
-      <c r="C297">
+      <c r="C298">
         <v>841779</v>
       </c>
-      <c r="D297" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297" t="str">
+      <c r="D298" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298" t="str">
         <v>de8c429947791dac654266f0fafb5e61866946fee857c8a79f984ca134a15c61</v>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>character_largeimage_t0214.ab</v>
+      </c>
+      <c r="B299" t="str">
+        <v>character_largeimage_t0214.ab</v>
+      </c>
+      <c r="C299">
+        <v>729041</v>
+      </c>
+      <c r="D299" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" t="str">
+        <v>c7e4e1400d9ca59267bf100e38aec5579b4577d47062a57d3f656b90aa9817cb</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F297"/>
+  <autoFilter ref="A1:F299"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F297"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F299"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F299</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F301</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F299"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3305,13 +3305,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0215_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0215_jp.ab</v>
       </c>
       <c r="C147">
-        <v>274141</v>
+        <v>1225722</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>de4cb00dfca74723502d235551fe7086425b77cf2ed0c33ac19d3eabd29309ee</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C148">
-        <v>220277</v>
+        <v>274141</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C149">
-        <v>95937</v>
+        <v>220277</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1390714</v>
+        <v>95937</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C151">
-        <v>4141815</v>
+        <v>1390714</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C152">
-        <v>1438360</v>
+        <v>4141815</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1066356</v>
+        <v>1438360</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C154">
-        <v>883191</v>
+        <v>1066356</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C155">
-        <v>903958</v>
+        <v>883191</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1396253</v>
+        <v>903958</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C157">
-        <v>995093</v>
+        <v>1396253</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1222449</v>
+        <v>995093</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C159">
-        <v>694988</v>
+        <v>1222449</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C160">
-        <v>3816643</v>
+        <v>694988</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1950972</v>
+        <v>3816643</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C162">
-        <v>2974110</v>
+        <v>1950972</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C163">
-        <v>1992972</v>
+        <v>2974110</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C164">
-        <v>2340715</v>
+        <v>1992972</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1950991</v>
+        <v>2340715</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2411041</v>
+        <v>1950991</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C167">
-        <v>2120061</v>
+        <v>2411041</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1952778</v>
+        <v>2120061</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1736026</v>
+        <v>1952778</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C170">
-        <v>2460158</v>
+        <v>1736026</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C171">
-        <v>1973737</v>
+        <v>2460158</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
+        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C172">
-        <v>2403903</v>
+        <v>1973737</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C173">
-        <v>1290319</v>
+        <v>2403903</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C174">
-        <v>940740</v>
+        <v>1290319</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
+        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C175">
-        <v>1484340</v>
+        <v>940740</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>4c0b296e082749b7ec1a95c6eb5928e55d1a913fb690f5c5f31bc0edc1e1f205</v>
+        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C176">
-        <v>1202871</v>
+        <v>1484340</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>aa0d81c990b07857c551d063b7d1f8f1edcceb743b9eac290e5e625cebb867a1</v>
+        <v>4c0b296e082749b7ec1a95c6eb5928e55d1a913fb690f5c5f31bc0edc1e1f205</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C177">
-        <v>316222</v>
+        <v>1202871</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>aa0d81c990b07857c551d063b7d1f8f1edcceb743b9eac290e5e625cebb867a1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C178">
-        <v>164048</v>
+        <v>316222</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C179">
-        <v>214576</v>
+        <v>164048</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C180">
-        <v>310401</v>
+        <v>214576</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C181">
-        <v>288960</v>
+        <v>310401</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C182">
-        <v>270576</v>
+        <v>288960</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C183">
-        <v>2427621</v>
+        <v>270576</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C184">
-        <v>2483491</v>
+        <v>2427621</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
+        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C185">
-        <v>2480824</v>
+        <v>2483491</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
+        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C186">
-        <v>2425865</v>
+        <v>2480824</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
+        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C187">
-        <v>719220</v>
+        <v>2425865</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
+        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C188">
-        <v>2665114</v>
+        <v>719220</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
+        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C189">
-        <v>677862</v>
+        <v>2665114</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
+        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C190">
-        <v>148141</v>
+        <v>677862</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
+        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C191">
-        <v>2369924</v>
+        <v>148141</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
+        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C192">
-        <v>2751802</v>
+        <v>2369924</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
+        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C193">
-        <v>2446728</v>
+        <v>2751802</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
+        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C194">
-        <v>2463327</v>
+        <v>2446728</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
+        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C195">
-        <v>651307</v>
+        <v>2463327</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
+        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C196">
-        <v>561312</v>
+        <v>651307</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
+        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C197">
-        <v>726451</v>
+        <v>561312</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
+        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C198">
-        <v>2962837</v>
+        <v>726451</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
+        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C199">
-        <v>739681</v>
+        <v>2962837</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
+        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C200">
-        <v>576970</v>
+        <v>739681</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
+        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C201">
-        <v>736669</v>
+        <v>576970</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
+        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C202">
-        <v>559888</v>
+        <v>736669</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
+        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C203">
-        <v>2475343</v>
+        <v>559888</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
+        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C204">
-        <v>2900414</v>
+        <v>2475343</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
+        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C205">
-        <v>3263699</v>
+        <v>2900414</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
+        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C206">
-        <v>3380874</v>
+        <v>3263699</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
+        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C207">
-        <v>2529038</v>
+        <v>3380874</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
+        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C208">
-        <v>2602264</v>
+        <v>2529038</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
+        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C209">
-        <v>2355620</v>
+        <v>2602264</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
+        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C210">
-        <v>2947535</v>
+        <v>2355620</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
+        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C211">
-        <v>2154552</v>
+        <v>2947535</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
+        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C212">
-        <v>2372246</v>
+        <v>2154552</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
+        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C213">
-        <v>3087325</v>
+        <v>2372246</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
+        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C214">
-        <v>2253985</v>
+        <v>3087325</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
+        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C215">
-        <v>799706</v>
+        <v>2253985</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
+        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C216">
-        <v>696705</v>
+        <v>799706</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
+        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C217">
-        <v>684156</v>
+        <v>696705</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
+        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C218">
-        <v>744489</v>
+        <v>684156</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
+        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C219">
-        <v>2629522</v>
+        <v>744489</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
+        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C220">
-        <v>704035</v>
+        <v>2629522</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
+        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C221">
-        <v>2158249</v>
+        <v>704035</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
+        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C222">
-        <v>1957083</v>
+        <v>2158249</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
+        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C223">
-        <v>3131566</v>
+        <v>1957083</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
+        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C224">
-        <v>2672754</v>
+        <v>3131566</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
+        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C225">
-        <v>1804269</v>
+        <v>2672754</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
+        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C226">
-        <v>2832480</v>
+        <v>1804269</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
+        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C227">
-        <v>1855243</v>
+        <v>2832480</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
+        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C228">
-        <v>4395901</v>
+        <v>1855243</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
+        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C229">
-        <v>2719005</v>
+        <v>4395901</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
+        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C230">
-        <v>2700800</v>
+        <v>2719005</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>b5b648e58ba4264a9022a79eedcdff049d19056c3a94a8ca096a2624d88849b2</v>
+        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C231">
-        <v>1746954</v>
+        <v>2700800</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
+        <v>b5b648e58ba4264a9022a79eedcdff049d19056c3a94a8ca096a2624d88849b2</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C232">
-        <v>1807060</v>
+        <v>1746954</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
+        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C233">
-        <v>1897916</v>
+        <v>1807060</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
+        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C234">
-        <v>2687127</v>
+        <v>1897916</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
+        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C235">
-        <v>1936819</v>
+        <v>2687127</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
+        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C236">
-        <v>3426748</v>
+        <v>1936819</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
+        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C237">
-        <v>572490</v>
+        <v>3426748</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
+        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C238">
-        <v>1645805</v>
+        <v>572490</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
+        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C239">
-        <v>586768</v>
+        <v>1645805</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
+        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C240">
-        <v>777845</v>
+        <v>586768</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
+        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C241">
-        <v>684860</v>
+        <v>777845</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
+        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C242">
-        <v>824610</v>
+        <v>684860</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
+        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C243">
-        <v>771453</v>
+        <v>824610</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
+        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C244">
-        <v>790507</v>
+        <v>771453</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
+        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C245">
-        <v>726300</v>
+        <v>790507</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
+        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C246">
-        <v>707991</v>
+        <v>726300</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
+        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C247">
-        <v>622834</v>
+        <v>707991</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
+        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C248">
-        <v>732380</v>
+        <v>622834</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
+        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C249">
-        <v>729250</v>
+        <v>732380</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
+        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C250">
-        <v>822341</v>
+        <v>729250</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
+        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C251">
-        <v>677985</v>
+        <v>822341</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
+        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C252">
-        <v>2749662</v>
+        <v>677985</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
+        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C253">
-        <v>2067781</v>
+        <v>2749662</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
+        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C254">
-        <v>2069193</v>
+        <v>2067781</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
+        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C255">
-        <v>1773283</v>
+        <v>2069193</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
+        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C256">
-        <v>2134450</v>
+        <v>1773283</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
+        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C257">
-        <v>734211</v>
+        <v>2134450</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C258">
-        <v>718743</v>
+        <v>734211</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C259">
-        <v>657606</v>
+        <v>718743</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C260">
-        <v>627572</v>
+        <v>657606</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C261">
-        <v>763856</v>
+        <v>627572</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C262">
-        <v>723672</v>
+        <v>763856</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C263">
-        <v>714014</v>
+        <v>723672</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C264">
-        <v>637743</v>
+        <v>714014</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C265">
-        <v>780991</v>
+        <v>637743</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C266">
-        <v>805855</v>
+        <v>780991</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C267">
-        <v>781334</v>
+        <v>805855</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C268">
-        <v>704983</v>
+        <v>781334</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
+        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C269">
-        <v>785511</v>
+        <v>704983</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
+        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C270">
-        <v>815817</v>
+        <v>785511</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
+        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C271">
-        <v>706075</v>
+        <v>815817</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>b891435a4d5b674456d222cdfba47c86d31f9651a7570b3844fe71d0e73c67dd</v>
+        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C272">
-        <v>2759541</v>
+        <v>706075</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>b891435a4d5b674456d222cdfba47c86d31f9651a7570b3844fe71d0e73c67dd</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C273">
-        <v>2163097</v>
+        <v>641687</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>08ba05e54c2ca8e5a1c483b361173e5e5ec64075985c25662502d3e493771ae2</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C274">
-        <v>2034727</v>
+        <v>2759541</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C275">
-        <v>775654</v>
+        <v>2163097</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C276">
-        <v>806550</v>
+        <v>2034727</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C277">
-        <v>3872071</v>
+        <v>775654</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C278">
-        <v>2616770</v>
+        <v>806550</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C279">
-        <v>2307872</v>
+        <v>3872071</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C280">
-        <v>2603916</v>
+        <v>2616770</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C281">
-        <v>2286765</v>
+        <v>2307872</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C282">
-        <v>693998</v>
+        <v>2603916</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C283">
-        <v>631454</v>
+        <v>2286765</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C284">
-        <v>1586889</v>
+        <v>693998</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C285">
-        <v>1718936</v>
+        <v>631454</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C286">
-        <v>2648574</v>
+        <v>1586889</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C287">
-        <v>1947775</v>
+        <v>1718936</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C288">
-        <v>3511110</v>
+        <v>2648574</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C289">
-        <v>1989757</v>
+        <v>1947775</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C290">
-        <v>2278082</v>
+        <v>3511110</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6180,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C291">
-        <v>1672877</v>
+        <v>1989757</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C292">
-        <v>2018104</v>
+        <v>2278082</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,18 +6220,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C293">
-        <v>1986452</v>
+        <v>1672877</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6240,18 +6240,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C294">
-        <v>1996254</v>
+        <v>2018104</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6260,18 +6260,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
+        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C295">
-        <v>2760079</v>
+        <v>1986452</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6280,18 +6280,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>cbd6f05fd399b095b1cc955ce540fa089916e65665b9454914ec421ce27daf2e</v>
+        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C296">
-        <v>804205</v>
+        <v>1996254</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6300,18 +6300,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C297">
-        <v>688167</v>
+        <v>2760079</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6320,18 +6320,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+        <v>cbd6f05fd399b095b1cc955ce540fa089916e65665b9454914ec421ce27daf2e</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C298">
-        <v>841779</v>
+        <v>804205</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6340,33 +6340,73 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>de8c429947791dac654266f0fafb5e61866946fee857c8a79f984ca134a15c61</v>
+        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="B299" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="C299">
+        <v>688167</v>
+      </c>
+      <c r="D299" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299" t="str">
+        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="B300" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="C300">
+        <v>841779</v>
+      </c>
+      <c r="D300" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E300">
+        <v>0</v>
+      </c>
+      <c r="F300" t="str">
+        <v>de8c429947791dac654266f0fafb5e61866946fee857c8a79f984ca134a15c61</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="B299" t="str">
+      <c r="B301" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="C299">
+      <c r="C301">
         <v>729041</v>
       </c>
-      <c r="D299" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-      <c r="F299" t="str">
+      <c r="D301" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="str">
         <v>c7e4e1400d9ca59267bf100e38aec5579b4577d47062a57d3f656b90aa9817cb</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F299"/>
+  <autoFilter ref="A1:F301"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F299"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F301"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -420,7 +420,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>4768f8b52010ec75d1405616f48546d9886a3578efeb75eaa4b006292aab8287</v>
+        <v>890e33d92d14059e0179f994483031b11decc8d8593ed95649cd021a969d4ea3</v>
       </c>
     </row>
     <row r="3">
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>26c8a461d82d8f9f894f060c098fbbb7245a1bd1fbbbab515d36b7b4f20bf397</v>
+        <v>a161f7e149821f6c4588d25fc0e4044182348ad6d89c237cf154a7d61212d942</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>cc8d57104774d575edcaa044c1a6be985d1e5d272aa55437cbc44b0a52933dc2</v>
+        <v>f71c7d64b3557435aa19917b507f2781b741a39bc85db5a8d40ff7c8361ee4a3</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>096b07eecdbab0943f6417f78d1e82372f378ab253feebf806dd1fd99c991ab2</v>
+        <v>eea5c13492a64148547669e3da83d9f999d0c3cce4cf1587bb182e0e14b80695</v>
       </c>
     </row>
     <row r="6">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>a13dea27fd157f3e9935551af56eeb2d93f65565ca4d8263a4e8b047cb14c554</v>
+        <v>6e09d91410c90038ae74ae887452fd44c428b0a83d08a3af87f97747a4ba6e75</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>abcd1141a63f2f2262d48d9e2f46b01427d5e09ccf3f038a7e338a68f7127682</v>
+        <v>3e5dd5fad421e50edbefe100346cba05e4a9ac0c7c70e528ae77e0d84be8b68f</v>
       </c>
     </row>
     <row r="8">
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>deddb5c321174a15c8cd0a42c25414cacb75d20cd573cdd86a3ebd5a3a42d449</v>
+        <v>c95541bb1417c22250da7380ce5b78c7e844132fbbc24f2943fe09f4ca1e3703</v>
       </c>
     </row>
     <row r="9">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <v>142579d30137c9c091298269a631985dba75a5143583ef0e399ac730daf1f2c6</v>
+        <v>2ca557d2d20b132e86a5f3a69b87f184b7567f28cdf300802571c584ac2036e7</v>
       </c>
     </row>
     <row r="10">
@@ -580,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>2d7faeba8b79646deb84098167ed5ad37b3a879573b516ffbd970b9282b62200</v>
+        <v>fb2606e1b32043ff01dd36b98ea5d5d3f17612d6ae8ec13ce42201358399b8e8</v>
       </c>
     </row>
     <row r="11">
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>c845194944f3614c2a1f5ac6957a9b23a8059adaf12c9c104e4cf4fd646e67bc</v>
+        <v>f29c026e180ee7c9175037b0e4559a412bba16b5877a643e9bec130ee1f5f8d2</v>
       </c>
     </row>
     <row r="12">
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="str">
-        <v>3f7d3ef4dcffa3f84d9ffcc93acdee2f8fe11b89af02546baf960e67439c6d07</v>
+        <v>0b580d57e86b11979e2a5d223db7a26834fc03d1af8156a99987d9eac155f43a</v>
       </c>
     </row>
     <row r="13">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="str">
-        <v>0981c81b14ea5959c429c98165ade449cfc106e1df011ab2bbe8f27a323743b2</v>
+        <v>47cf4e5d72f98319dc8eb108861051cb6d1ae586ab677b7a66faa3d89ee77898</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>0a05861ff4097d231167fbb79ee737bc8d00fae1a858779c0e7fef67cf0f3911</v>
+        <v>8c576ff7b4357602ab4e2aa893762a835dabac7e3f34673b3c1d2cb42ed70cf7</v>
       </c>
     </row>
     <row r="15">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="str">
-        <v>fd4bfb5511e7414287dfebb357d012710bc5568b944befaef37ea32f425fdf4e</v>
+        <v>5e96032b51fc8f19db981aa31444adc017b7321bb9ca8c43e947f05ddd9baf32</v>
       </c>
     </row>
     <row r="16">
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="str">
-        <v>7aa80d8fed4659745fa0b231b3bcbeb52d83a55d025702bcb45f3c21f48109d8</v>
+        <v>efd13aa03b15bd3cd2981db1514991753e4e171bb5c2c59f540e72f7e852ad9f</v>
       </c>
     </row>
     <row r="17">
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="str">
-        <v>d2319e5859fcec099b952c884acc360465c44c3a83a981f771e983c93c5b10c4</v>
+        <v>ef02f66fd410547d9b891e3bba0858d0c2d72bb9165adb0cd065d6fef6b557c4</v>
       </c>
     </row>
     <row r="18">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <v>7b634285e82cd52f2d958d792dc4de2473d72abc4b957614db710a7e728907bb</v>
+        <v>8b445603b39b42c937c2e3e130212a4590907e104788decf29d15ea2f03e2f0a</v>
       </c>
     </row>
     <row r="19">
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <v>04af1fc87ed3136cd22f954d5917bf35dccf95b1f45da4ca42d8394fe7904f89</v>
+        <v>70877cba46b595b19ce6a714e26878232ad3c6d949401695f73eeff927927b0a</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <v>fd1e555935c95f2d9acd3d36a881613e3700ede349732ddd279dcd7fa6b7916b</v>
+        <v>dd10247797195c509f2ac05cbdc9544a669f20b4cc6b318e4c9c4a335f8a3b9c</v>
       </c>
     </row>
     <row r="21">
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>a0f69ec7a907aaafde48fb6a4824c4c5cc162d967724d511a935fd6b11d818d8</v>
+        <v>412892d5d5491bacc2e9d44d5b35189408d46782579dcdefaee8caf20dae01ee</v>
       </c>
     </row>
     <row r="22">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <v>0c6744514a18e9dccad9fede9d4e3b68f9af1cef83cc481093fbb1a7111bfe52</v>
+        <v>de5866f2f83d4b8604c94740b8a7eb68f8cf0a3b7cf14f64bcd8a0542e5d76a5</v>
       </c>
     </row>
     <row r="23">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="str">
-        <v>03b9864bda86386b05d7934cd8e026a59d323aaa9cf69c376da0af3f410ef338</v>
+        <v>5e0f02a17c0995499c87630c91ac8cd5243f7600e2f8b176e68fd88da64b247d</v>
       </c>
     </row>
     <row r="24">
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="str">
-        <v>5cf607d4d0aac0777010835a1f0ffc9883f1583d2d0b130569e65bd263fafd72</v>
+        <v>5bd66eb186de336d595b8d2b996896b108c04ccd94ad331ae24ac24b3276bb86</v>
       </c>
     </row>
     <row r="25">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="str">
-        <v>68175ed68168cbda140fb234821bf8a4164c9812ff239176cdc63b510a67757c</v>
+        <v>cf3701dbc43f6057f733452a41098367e782f940fabfa38b2745517456a01f2f</v>
       </c>
     </row>
     <row r="26">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="str">
-        <v>d590e8b8402066507d9bd72d8a7768487a5e69ff7099079b220298aa59911027</v>
+        <v>594b96e46256e9f45f2c199999fce932398ddf45262411f5a345109beec2a9ad</v>
       </c>
     </row>
     <row r="27">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="str">
-        <v>a3e744a916d33a22013129bb605b400905ef157d6a5c56a2d0ac2a5676978cf1</v>
+        <v>4463dc1dbced7de4ed6d6d5c42fdeb28d185f2d5068e2b247f4caa0c9422bb90</v>
       </c>
     </row>
     <row r="28">
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>23bfe26fee8dbd670d30c66e0e2c4443ce6e818d1a6f13077de4113c7f7cf7e9</v>
+        <v>a1e06131c71f952c79a7ebffc38db5710032a0e5745d4d3ee35a5d3dfd64d292</v>
       </c>
     </row>
     <row r="29">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="str">
-        <v>dd0b20dc6b11d09724cd3581bb0139a4267ac2d2fdae7259e96692a4dc00b400</v>
+        <v>085909aceab020f18df83ed24a23cf055a863b25bd6176ec33b19b5d985a0757</v>
       </c>
     </row>
     <row r="30">
@@ -980,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="str">
-        <v>15ad834e81a6b25de63e6811b5b4f8c04dfec95d9a0873c184e610511ce6417a</v>
+        <v>0e36fc4bd38f93180af2a64a60cce7876748da8711e1ff0d396536c3248e1296</v>
       </c>
     </row>
     <row r="31">
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="str">
-        <v>ae9f574f24e4194cb8b700e4b94fed70aec072854eee9bd7f6fb94735a21a005</v>
+        <v>280bd35bcf98ecde2881f0dbf7e9a13033948660b477e51732e3134a4a47b3f4</v>
       </c>
     </row>
     <row r="32">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="str">
-        <v>43eb877f8cd753a8e5f942b6c9600de1f9712d7ae14306d97a625f98fd00d823</v>
+        <v>49380d4c9301ac285a45e124e9e58febea9c84ad4f1e1a52c987506447c659cc</v>
       </c>
     </row>
     <row r="33">
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="str">
-        <v>73bebdb2f036e934fe14cf61f3e8c8b01687485ec7249ed924e9eb9afc976cda</v>
+        <v>83ad836c51bd3889843337882ed030f846bf51d1f1c76807e2e4b5571279fac3</v>
       </c>
     </row>
     <row r="34">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="str">
-        <v>9268a4e6c0e1f761815bb446b50580c7ddf0e47c4ba9a9ded787e3b9765ec76c</v>
+        <v>49af5040246bf34e4574ff8d596a101b293e8f1e1b4f64681b2ea78d2835a9dd</v>
       </c>
     </row>
     <row r="35">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="str">
-        <v>fc99b207e7f9c599747a6eafd60827ce2b06b4b1db6641ad2eeb4eb4187560c2</v>
+        <v>16c7340f6b17d45c54b6b3a55526e727c010cf872ddb519cac9f6d105374da9e</v>
       </c>
     </row>
     <row r="36">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="str">
-        <v>c35acd72bdbd60e04debb3641b32d5f3a8d9c586884adbccd70129281dbe5665</v>
+        <v>486554aa196492e0e848a439b6a00f07514a6f7538e6e77f56d717509f2296aa</v>
       </c>
     </row>
     <row r="37">
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="str">
-        <v>a2294327368b619226f50224562cf05e8f109a2e34574c6953a439da1d7d50a3</v>
+        <v>bb89de55d2eaa45cd37847bbb338534260cde23534b032d9046b0af8c27fbb7f</v>
       </c>
     </row>
     <row r="38">
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="str">
-        <v>86c7a22ff4458a553b4258c65ac3a50556732fc780870dcda1e69ac67707c03b</v>
+        <v>ba0d7c2a8f5929e624f4a10bb2c631d97d9f93cb3f4af42e1cda5c492e0be34b</v>
       </c>
     </row>
     <row r="39">
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="str">
-        <v>b8ac9cc6d3ea4f6bbcce8877f13a477b863fc0febca4905a01042eac04636c03</v>
+        <v>55a55f76e1f20b64a3f2acad0e6670e8ec21b3ce986fc06dfb4390619e9d6951</v>
       </c>
     </row>
     <row r="40">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="str">
-        <v>abc05acb1aa1e889d4467a1cf70ee1806aba383db33e89f6a23a2ffdca7c1252</v>
+        <v>cf44a93898f3aa894abad96bd9255e364684cb29eb8e7c9216c548976aef029b</v>
       </c>
     </row>
     <row r="41">
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="str">
-        <v>ee816a9fc118b01c584f332b2dc7e111048ba761e148dde9c30203a82c7310b7</v>
+        <v>78f90e80cab664c0b2f89d6622ffbebd8dcba87d5d7047dc9d1e4c0b32231a9c</v>
       </c>
     </row>
     <row r="42">
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="str">
-        <v>c2a50e8faa6c7467cf2c77d3e15b3bcbdac1c51a8945697d7990d0dd64c5b744</v>
+        <v>c5efa43dd93e4d922ca477cdc358f0e88ecbf96ddcfcd710147d4091fa1423ff</v>
       </c>
     </row>
     <row r="43">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="str">
-        <v>d209a94b9d85515c2ff81e96cd92b7d73fbc859e84510e9c31e2456c1d6c45ed</v>
+        <v>d7106d13ca785a9a39f95810e1fd81a00caffef45a1a8c54a089bb0e0051802e</v>
       </c>
     </row>
     <row r="44">
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="str">
-        <v>d011e233404af9bdf0a5344d9fcc1404af74675ef08ab88cdaaafb6f9c2a63be</v>
+        <v>f3fa284ebab08f2e976144b0549a6ecf85cb98f97d00b7c5077da6d28cd8129e</v>
       </c>
     </row>
     <row r="45">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="str">
-        <v>56f695a97786f0988b106d4116014e9be96c50f5549b0ba110830b79df82ae0b</v>
+        <v>3572df08e735fd70db2564ce46c03bc12db08c099809ef3031e8baba0f5b1b51</v>
       </c>
     </row>
     <row r="46">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="str">
-        <v>67fc887ca71425d8434eddafada3b6312fede867c0999eb2cc00cab1f6b02539</v>
+        <v>0f92c5523f8520f750968d74c0e7d685b7a45ba7d5505b50eedd9ba4f012f716</v>
       </c>
     </row>
     <row r="47">
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="str">
-        <v>b46e0ad94173d7749bb9a85dad2b3c56fb1701dfedad47f5e4b0afa77d8548fb</v>
+        <v>79a9300efbf748a1d33cc6dd6c68e13be4681865621a710867a22cb9c63591ec</v>
       </c>
     </row>
     <row r="48">
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="str">
-        <v>6a132a9c4a4142da025a0b2c41d6ec1ad071c83358228fd8bba5e2a689065369</v>
+        <v>45a30dcef01d78985b03fe87c5514a1385da2ddae219150409533c732bdb6f6c</v>
       </c>
     </row>
     <row r="49">
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="str">
-        <v>8528ffbdc9ea309ee7bbcd7d996e73a5f4ac360de3c8230e2b7c6185123dc1bc</v>
+        <v>a7ae1d87362c97840abf5f97a9c7330636679fc0077e1a5cc0bb10d10b8c4e93</v>
       </c>
     </row>
     <row r="50">
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="str">
-        <v>8c1d432269a7c7f88ae1bd68d4d09db48b94c94094edbb078be155e2e9ea2a9a</v>
+        <v>5e5a794490aad5112aacf96e2a54ae89b87fa39596a30d6a911a0abebb64e083</v>
       </c>
     </row>
     <row r="51">
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="str">
-        <v>517cb4beb108fd606ddcba3e25a2d306e4005d6e41e61e984ed0d8a7042ae805</v>
+        <v>d13235b36e319581aa1beb0d69a2d8751495ba546f11894b346114ca6e89cac3</v>
       </c>
     </row>
     <row r="52">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="str">
-        <v>254ca2572c117a75e62083e57c5cc58a8c6433c6d8e684c4ed9400ea4957931d</v>
+        <v>9c257b0b019e7316c418c6c5812c79c3da690d95d981f2cb5829727f5e2a2242</v>
       </c>
     </row>
     <row r="53">
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="str">
-        <v>600c6d5efc37e0184492dd7c02faf39c8ab8fefbbc6243de27ca395839eb45df</v>
+        <v>0d55727eff6ab320e7e465a6bee247b8894e186509f82081fc9eb03ad9815e6f</v>
       </c>
     </row>
     <row r="54">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="str">
-        <v>ec8699ce204587a30e2d1b49a696fd2b37fb586c381ae0ef423113e9c039525a</v>
+        <v>f41e78f1dc96308d5601037d8daf2ec4d04edcebdf93d7818c00310612af47d2</v>
       </c>
     </row>
     <row r="55">
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="str">
-        <v>60f4c8f3d2a1a07126f4d19af567cc7bfe915d0da30e408f837f2c0941ebf0db</v>
+        <v>a9d2061d1ff0d76aa12b6549a96d83d7bf0ddcd8a620f9ac8046d2bd3c4aeb86</v>
       </c>
     </row>
     <row r="56">
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="str">
-        <v>077698a51de4a1c76770fb90a42825b5dd903a8e6c97127e0b68cf82fa40bafb</v>
+        <v>c69e2ca037763652c03dd9330708f484b0ae7c94befab8d9355e832b3db44a86</v>
       </c>
     </row>
     <row r="57">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="F57" t="str">
-        <v>baccaaf24c28cb8600e4f8ba37f18e41258dbfd071571e2793894a07cc024968</v>
+        <v>adeabd1b5f0bf5bb34af428cd3b35f0a452177a62632266cecd60e5272192235</v>
       </c>
     </row>
     <row r="58">
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="str">
-        <v>fcc44e3e32ef9c2eec689464a761a22246a1c29cf89ac7c841d58f5abb88154a</v>
+        <v>fcec458dcad9b29617768b0faaf871b94d31358645d085e2a1434527f12dbc1a</v>
       </c>
     </row>
     <row r="59">
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="str">
-        <v>4f5d5c915f978585d960cf7b6dede58ac819d05b85503c54a16cb01f9753230f</v>
+        <v>8ff2302352e152d67e1be227662840b0356267debc4fdfb784e57989cf65ea58</v>
       </c>
     </row>
     <row r="60">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="F60" t="str">
-        <v>99243953ea99579c4f0437c037aa6bd769af9b5fc497e69f3c2ddb8c220bebcb</v>
+        <v>7f9a3784be67ddd3d0970fd9cc635703e80e50f6b6a2296ff5b324d2b08aa43d</v>
       </c>
     </row>
     <row r="61">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>707141d0a933d98d67bd85c9aca41cc63e0f40ddb08a1ba1abb4c090b51165dc</v>
+        <v>8a55a93a8a49010f7f74991d104b76f51687c7d0b5b553213aad268a3491ed5a</v>
       </c>
     </row>
     <row r="62">
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="str">
-        <v>08f8adaba276d60e26b3b8b6616d30e24dc93a1a59459067183f488297ee59de</v>
+        <v>ee82ccb938b94753a3df70ae2b6638de853c6267f339c80beb144556ad390f08</v>
       </c>
     </row>
     <row r="63">
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="F63" t="str">
-        <v>e5c12eb8004c1bd4e5f98ec4c9c1e41b7c9ec83eddead0bed3259d6c8d5aa629</v>
+        <v>15a3c99a6f4ed868313bd40bf55b9443d3e88339aed6759efa79bae8cab14e01</v>
       </c>
     </row>
     <row r="64">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="str">
-        <v>73e3bab67babf891c897c3062aa99baa6f33ad52d036fe8d14e55bd9c3796deb</v>
+        <v>38cda980665bcc2ee02221f6531dc5c8616bd6dd5292bb823bb91b76379a6756</v>
       </c>
     </row>
     <row r="65">
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="str">
-        <v>53250d30f127ecbdf8f2c61e4dad263eef1c5ce588731850be7e6c64dae7558b</v>
+        <v>4cdd681196c9041aec808a4eb4510564c5ea7c87471ab68fa5c616bc36ae30e7</v>
       </c>
     </row>
     <row r="66">
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="str">
-        <v>48186ecd05143e74323fd4245b6cf7ee72a673b0527d2cb29a7844c45dda4a26</v>
+        <v>c248966768838040fbec69b4a486eacf28ab42b45b94f839593822317091ac9c</v>
       </c>
     </row>
     <row r="67">
@@ -1711,7 +1711,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1013608</v>
+        <v>1013601</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F67" t="str">
-        <v>ab3b0eccfa6b508a19802b889a8f10a8a026ab85a8b03c1233a70b5518053402</v>
+        <v>fe5665d034ec98e1969f6ee708de66c13424fa272415354b0cbc10f61449ab84</v>
       </c>
     </row>
     <row r="68">
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>979091dc2381af8714e3fd6ede23c4db1236ad712df2dd829cc4c0449521752b</v>
+        <v>6c6efc850314bcdb8639d5b62dc7fc0b898371bed825864299474cabca00bd2a</v>
       </c>
     </row>
     <row r="69">
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="str">
-        <v>660e5c575c316251090632646d1985da633f38c95a698cd0672796cdd5251912</v>
+        <v>f91653546cf0855966fc35f3cd88cc1e9d49611451d848c903614cd26c8d1e2a</v>
       </c>
     </row>
     <row r="70">
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="F70" t="str">
-        <v>83a3b36da97c86ba75b87b8bf61f5f9c3e46e41162dae914d5efaede93c85b00</v>
+        <v>18969559c1f15295cdc2017e4a41934609f3ebfaccc27f49ca018e2cf3429415</v>
       </c>
     </row>
     <row r="71">
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="str">
-        <v>9bcb30cadc377f7cfce32736f1f8b6f4cb4f7f351c17523756cb95068e0da349</v>
+        <v>a2e3e7310fd172229dbc8359bdbe5a3e097cb3d916562aa1dcafeb788b84a2b9</v>
       </c>
     </row>
     <row r="72">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="F72" t="str">
-        <v>7405cdfc94dfc00ad7b5d0b3cf8724031b97983360f50a2ceeccf6e7aa49ecf1</v>
+        <v>bdd77632d712f23ecda336b8bccd55412f2f06199f32346f7fcdad68ed5ade2c</v>
       </c>
     </row>
     <row r="73">
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <v>c7a90b73036e2c64312764fc3d6e6e970d61e48cd1eb7afe8d4ec3351519288d</v>
+        <v>c43ad94c6712e5d9a799ffd238fa1207ccc5f4ea8beece2923fcf5eec5b64bb2</v>
       </c>
     </row>
     <row r="74">
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="str">
-        <v>e633327fc67302e545e840771c03d48d13d25c8538b777a792e26aab41d00eb9</v>
+        <v>35f5f17eda0d80e254cb565711de1f1ab5782a2453eafe916ff2fc3ef8903a1b</v>
       </c>
     </row>
     <row r="75">
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="F75" t="str">
-        <v>2a9bad02c9f86e0f14f227864954a1b2de4b61d1ce2f5bae6be283aaa1cfe3fc</v>
+        <v>33e5c6e86712def040f301e65d532d7650be5293f0f35c767ccf32e5110d99e0</v>
       </c>
     </row>
     <row r="76">
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="F76" t="str">
-        <v>168a9c59eeb23567f38c144e037fe6c6eea4fcb6264dc1fe49cf568f26d5e5da</v>
+        <v>99daea97362cee1dc7bcc7619a57cf95ef560474c2beee51818a9a906d5d8f9a</v>
       </c>
     </row>
     <row r="77">
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="str">
-        <v>7b50c3b5dd26dd1daadc17c53c29019ded492fcd0d07da88cd8036ecae94eb63</v>
+        <v>7c9eeeb844e8184f8ae737c1ad83e283a25b213453075f2be2754f7f1815c85b</v>
       </c>
     </row>
     <row r="78">
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="F78" t="str">
-        <v>39ad7329fdc7f399b8b9d03cb2b0deb7b1aede51ba49c589337a75addd0989fc</v>
+        <v>e4bc105e612fea2c563e47fb9211b0d23649b75e2c9ce15bc5758fc6f49a6623</v>
       </c>
     </row>
     <row r="79">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="str">
-        <v>19f215eed0788cd27e8b7f66fa84d650e9176559654603ff9cc1cb98be6bc910</v>
+        <v>403941619aa6b4ec1c545c41af196e706ee31be632f015365946f95a4d99c32f</v>
       </c>
     </row>
     <row r="80">
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="str">
-        <v>d94010d42f67bebc5febf1eebec207277d6ea71a26cd623bcd0a78bd41b819d6</v>
+        <v>8d0306e6c724403ca5cf0683e80a306eeb1c62d404fd2e1c9267bb51ea1bba97</v>
       </c>
     </row>
     <row r="81">
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F81" t="str">
-        <v>0153e57346a88528e76911270eb8c3bfdb37c34e8cab1cff7c51d30b27543732</v>
+        <v>9119409d957f484946d109fa6be78d9d5a71aee8eab53400583aa891f2dff5c9</v>
       </c>
     </row>
     <row r="82">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="str">
-        <v>886b40f22d1498adacd39a369abcb2d6759ee0bea0f25c715f8405e0d1e36b61</v>
+        <v>7202dbfd6bcc3cb7947c548923d644c4ea84d843ea3ed27920eeb10aa4470dfe</v>
       </c>
     </row>
     <row r="83">
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="str">
-        <v>c20bf70603f461ccd756e9763f436f1efa3665b4c343803b60f2127cf13c17df</v>
+        <v>409b575c22378888d40b22fc0c30b7ee216da4ef3885e8a9db9dc42fca78130d</v>
       </c>
     </row>
     <row r="84">
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="F84" t="str">
-        <v>0d1919e24ee350c7812209ad02ab0bcd86a2f50e6d4046a9f667131a46c43c62</v>
+        <v>0ca988613b7f8e0ffbb52895f6e2bbedbfbd69c992fb25e0da33a068abf63fe1</v>
       </c>
     </row>
     <row r="85">
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="str">
-        <v>7b7fcb942eea5390a5a0810c23901b38cc5d67e1185abebe83be9c6578ed8efc</v>
+        <v>750ad4d435684553f67d82fa3170ca674d3328b0452f38cc5ec85be69c54148e</v>
       </c>
     </row>
     <row r="86">
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <v>10706e347c0d8cfe0fbe88c7085afecdcc16bf578add463e43e65d475613ed74</v>
+        <v>14c0f8fe66adffe92f313ce297eab95516e0a7971907c25768525069e0a6db7d</v>
       </c>
     </row>
     <row r="87">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="str">
-        <v>f8b5541d97b8002c3015822845f816d205dfb4ea317d338ddd507bb206e1164a</v>
+        <v>ebc9ec2f8fd0db2084a75c98bf5e78f3560a39031d4e70de22dc6c51a7dae254</v>
       </c>
     </row>
     <row r="88">
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="str">
-        <v>9203b5b15f9505acb468579aa4666bfe0f749cf33467f801841f1cc9611bb288</v>
+        <v>a11a523fb00e0004217c67cec973c963a5d4d854cab28483c4adf3c9b14d08a9</v>
       </c>
     </row>
     <row r="89">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="F89" t="str">
-        <v>879976bfd1f67d863674d460e83f9ae97f2cddce4126b23ac6567e20d6699a86</v>
+        <v>e34fa3770191d389fd93e77fd1fd621a5ef3e87987bbcecd0e26e5babad238f8</v>
       </c>
     </row>
     <row r="90">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="F90" t="str">
-        <v>bbd1b474720ae58cd901aafe5bf36f20500b4fdeb4e9b5718f4c66e4360da8bd</v>
+        <v>daa9a4039aafc609c9f42b8e6f19f9cec548b86ac300a23e108561aece93fcf1</v>
       </c>
     </row>
     <row r="91">
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="str">
-        <v>215388cef6314e070223b56e0de4dd23a32f9d14c9bff7a22187d44ba40d73e9</v>
+        <v>04b7aecda37a086ada634e13ea646e0a62a529f263e288253d7f2698cbd8bd4a</v>
       </c>
     </row>
     <row r="92">
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="F92" t="str">
-        <v>9b09bac1910c1c2c583cd93ef986e5629ca3a68499888b291a5095d2b0d22644</v>
+        <v>d175374e6bab9b23a69e513fdd83a1b1aeedd66364afc933ac29de3c5691c714</v>
       </c>
     </row>
     <row r="93">
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="F93" t="str">
-        <v>3569f47baa8c1968a2d4aeadd473e28bd033edf027f58fe447915c118a9f2182</v>
+        <v>5d16f740f777446bcdad7f018c1c1607daf806f181571a7c1c70b43b0e3d42c1</v>
       </c>
     </row>
     <row r="94">
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="str">
-        <v>e947e822e5ab3f0ab4e2f609c1d062f21ba3ac41b20e26d161f1b2bfb8e213aa</v>
+        <v>55cf50bcb056c1951bb7c311b083b7707bc58cabe23721eb397e2a259809c92f</v>
       </c>
     </row>
     <row r="95">
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>fff927e0195727fa72b12e361b6d0de1e1e664929c308ada1993a9a4b9817a02</v>
+        <v>ef394a286542570c4021d9e18c2de94c09cc618a7468dd8a55d906475170bff5</v>
       </c>
     </row>
     <row r="96">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>e7e82684323ba2bf5469908930578e527a6f3aa1e48055cfde4a443717f6a50d</v>
+        <v>b4ee10e13e2c3ebee2399b286cfa4a5bac81b7bc70b4d639390e4479e46c03c7</v>
       </c>
     </row>
     <row r="97">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="str">
-        <v>3446ce26e99dd9b3600df3574dd37349e4f4e3892e1d84592fc9cf60db9d6fd9</v>
+        <v>f84a3ba7c55b027a7694adae501f5afbae9f70113a4f45a917f3c9f4fdc2ca16</v>
       </c>
     </row>
     <row r="98">
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>0c035d662f7ed6ec090809c93d8ab7875d4caab360cedaa7979b4c3689846401</v>
+        <v>ebc36697d9a0b9996c22dd2788d5f4694385e443871cd3c76ab245a42e76b6ae</v>
       </c>
     </row>
     <row r="99">
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="str">
-        <v>6590fc43ff7dcd7a22ce1e8996ed7baa450169361aa548dc9e9e42dc96527d09</v>
+        <v>da1e3516a29e374e62d2ac3127385d51fd5e98315812fc8d4efcdfa1cced77da</v>
       </c>
     </row>
     <row r="100">
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>15512d1d561466b44142ea0fc527291b0908d6db96e4248a4f5ffe77ac77a75a</v>
+        <v>61bbe4809c0a4c470d122e46fa99640ed560c27aa6b2d464523f2e06bea20efc</v>
       </c>
     </row>
     <row r="101">
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="str">
-        <v>059664887ef03ff224f141ce9647e251d19e3b51ccaa287d091da99a4dc449c8</v>
+        <v>c65dfbcfb0a32ac473562418675ff0d7ab4ad89a9bcd72870254d6a9539cfbaf</v>
       </c>
     </row>
     <row r="102">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="str">
-        <v>1ddab36873c2c2fd19eb86170e55c6082b0a05653a845453b4e02c16fbea4229</v>
+        <v>4b8dce7d7fa2d5bc8277c11d2ad0950d4a7a26d0c4e0abe13aee5e5dac6c108e</v>
       </c>
     </row>
     <row r="103">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="str">
-        <v>eaedbde2da1b16d170b0b7043a0b06c66a2c6272aca68c133f7a4dd4bb9d5b01</v>
+        <v>12ec8eb97ce1a74881433f31bdfdd78792e08a0839b66768a3c711d7bfa84ae5</v>
       </c>
     </row>
     <row r="104">
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="F104" t="str">
-        <v>8d5d5dc638abfbd141a06bc9b632685a733d49f08c7a98bc400da13cfb7b6640</v>
+        <v>d4db8b9f33f7e17e60f704a1720d7bdcec0bf9c7e0f7b935a46f5f932b8674d6</v>
       </c>
     </row>
     <row r="105">
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="str">
-        <v>1eabfb35ad9a6d1b3faad498c21e7ecb958804820481f6cea31be5c46c615523</v>
+        <v>f4510f71a0bdf8dc0074cd49a6c1a199857f5504e91e36a4387e961ed876b58a</v>
       </c>
     </row>
     <row r="106">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="str">
-        <v>427029dd38ac83f1020d813a04022cd0aef4ae1d29d1eef73905ef9a52da0eac</v>
+        <v>2792937eb67998dbda99801d94241a25047c8ff35b5e6267777e8e3ef418ef58</v>
       </c>
     </row>
     <row r="107">
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="F107" t="str">
-        <v>b9c506c7fd3b2501d171ec5b8eaf7f4958ee0d49f91bf73ddfb2fbfff10cba06</v>
+        <v>1228a4f8efdd7de6eb5361417059f3c9b81b16e919fdb478ca83b1ba5b1eaac5</v>
       </c>
     </row>
     <row r="108">
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="str">
-        <v>9d296eb49e9d438dccd871435de5a4a062984af4ae77cf20ef95921affd6473d</v>
+        <v>41830d55b2bb2f00c5a9bf4b85d59fe8647f2b3a16fa74242d4535293936b68b</v>
       </c>
     </row>
     <row r="109">
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="str">
-        <v>3a13eef7d1629c042d4b11508a120c14d3613cf01b07d345e3225ede1ef0ec1f</v>
+        <v>fef8f98f16dd2575a5f92c3157d2d0567309249b89cc3de19e9205eeebdd208c</v>
       </c>
     </row>
     <row r="110">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="F110" t="str">
-        <v>213e17bc6f71e395518c32d69cb68f86d017cefa46ae69138569ef2b3b43d650</v>
+        <v>1db890d4e5e96d4748bbb57fb8feabe63144b1d91ccac588ec1cb198833ca343</v>
       </c>
     </row>
     <row r="111">
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="str">
-        <v>32da080570d234b3218ae3df4765383ef814a52257bd48ef32856cce6f240406</v>
+        <v>e5762e77d248b75da3b3c2a85a340d38ce00b4e8451728efc9fccfb564c869b6</v>
       </c>
     </row>
     <row r="112">
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="F112" t="str">
-        <v>57e3e0a7113c73c33666319b73f007f51baa75f28e3bab293626994fe7e76aba</v>
+        <v>a6a3c7727bc8da7d557a64b3a14d9db538f5195e0d0ce5c77f4e59b83ea46c7a</v>
       </c>
     </row>
     <row r="113">
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="str">
-        <v>b81bd7b24d109beb2536259741cd1ca0052f512b91a61de42eff9de345f05c07</v>
+        <v>9131266dbd51ea7c34048d4d037f6f18eb241fc3cdbadb0600b5dc6d348b26ba</v>
       </c>
     </row>
     <row r="114">
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="F114" t="str">
-        <v>79c3cceca88f8f4182305a87a0ba852c87ec5e2b573f6112b866885b34ea9ee6</v>
+        <v>34146bd0a9ef27120b69314da4b7412ac20fd64db230510643a7d3d16de963c4</v>
       </c>
     </row>
     <row r="115">
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="F115" t="str">
-        <v>db01d3b24ec3708a5619068fbcb9a4cff2b371e900cdd6b1291ef128f2c5ea5b</v>
+        <v>6f7b73eff36fcbe18229782a1dd704302b7099692798f6f27e8ccf345e59a9ee</v>
       </c>
     </row>
     <row r="116">
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="str">
-        <v>053c0be61afcf7dbde79e2fd450892274e49bf99e2aab95db4ffcc9e7730fc55</v>
+        <v>7957019b935106ab080f157aeb3056eaa4e1e5bd0b817658968f76b9f68f90fa</v>
       </c>
     </row>
     <row r="117">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="F117" t="str">
-        <v>ca67678bfad7a50172a0a409ecdf56007e7744e2e249ddfb1fd04c375ed75ebe</v>
+        <v>0bdf0643b3a6e2199b619cf39bc6eb8601c03aeca632afe96f0e7fc86b42df96</v>
       </c>
     </row>
     <row r="118">
@@ -2740,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="str">
-        <v>2ceb3482c55696a22ad81baaf2e21f445053643f1e33be93e50f71173a0063fa</v>
+        <v>0a148ee36dba2e00613145baf984f53d89c2c4464fa4bf4acb66cf8c0452c116</v>
       </c>
     </row>
     <row r="119">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="str">
-        <v>a988428b1633492cb2769b7264183325ab6f28f5239a6d41a343ffff8db3bb2a</v>
+        <v>b01c27758fa0e5b0fdba0d051e47ae4450d2d0db87470db42cff2d2c332cfb7a</v>
       </c>
     </row>
     <row r="120">
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="F120" t="str">
-        <v>af5e35aed245385b3e9e18e859fab286882b404949f9cb415941c8d8da3da415</v>
+        <v>a5a6e13b828701c18cc4ab0a1aefcdfe26b0dbd575d076e60886494bd137d3e2</v>
       </c>
     </row>
     <row r="121">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="F121" t="str">
-        <v>80499fa45dee776376e91c76990367303a12604bdbfbcdedf79375e77bd41080</v>
+        <v>0a48a089874026a617c92d3149fb5313b33dc3b9c2d21621c5ebcd1d06f0df4a</v>
       </c>
     </row>
     <row r="122">
@@ -2820,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="F122" t="str">
-        <v>0d12b380fc81c6ec834904c65895f827bbe5905ca83bbf029a018c4144920076</v>
+        <v>1420127fd1db7990b956039fb1bce3236c87c420d601a54beb857e4727ceabcc</v>
       </c>
     </row>
     <row r="123">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>6a9569ff383abdd2d900cf9f578cfd9572859390cb6dfebbe76fda216881d520</v>
+        <v>d473cfb3d47b34b4072fed757a235d08b1da54254badf92fed295bdae60dc36b</v>
       </c>
     </row>
     <row r="124">
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>6a2b87eb3e12a9abe2e83d4c14079b4a67807871be4d48dfe168cc4226ed9ad3</v>
+        <v>81a7309611f728f29e5c00631b5e0a08b35d74eb20a2d5e4cd7b15e263ad8f7e</v>
       </c>
     </row>
     <row r="125">
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="str">
-        <v>122291e7d2a6271288d24aed37de4ef05c6f22269ac1c2e85ae8da2f2ad625cc</v>
+        <v>b0db55ebb96cfd8cf7b2564d7b6b75532fc8989f4db04c432a98fe926d047ac3</v>
       </c>
     </row>
     <row r="126">
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>5b7fe66144fd0aee3e05256ad060e998dfcb5fb272b536366a291c420a9fbe70</v>
+        <v>b0a817a1a9005afc751bc1a5087e5c5775c108dbfb89ea5c00747ecafe37e6b8</v>
       </c>
     </row>
     <row r="127">
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>042afc6bbfa105ab70c982bafc71b087961b64fbb0215cde27d11b926c0f0ad5</v>
+        <v>6813d60ca42e0e1e22d63348220ad08c804726b63e82c9517144cf5af794cd05</v>
       </c>
     </row>
     <row r="128">
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>15dc082825c3dad60e83e104ae242aba503b35fb0d5f6d7cc50a766659297edd</v>
+        <v>9e9b2cec9aefd5ddebf0af06c387475847f88fc98d2a8a7603f5f225c9d94e04</v>
       </c>
     </row>
     <row r="129">
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>f7d88606804f19b8d829975981eecfdb2d2fece063038332fdcffab9329cd072</v>
+        <v>677e44364439c03b2643be703ae756e7e78061beaa471e6e3ad23b10dec20b8b</v>
       </c>
     </row>
     <row r="130">
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>c0a5cc39be87b9c267fdb6331ac3028dc9edc83e920d25c6e652a2d480019cc2</v>
+        <v>df19f27bfd0b5259401459e4f18d2afb51c8e78a1140ee638b5d0579c76f1707</v>
       </c>
     </row>
     <row r="131">
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>2642992</v>
+        <v>2643018</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>aa653015ced1307bd789943bf410ab0a5fc0eba4ecc36a5d0afa339acc21bc24</v>
+        <v>2b49deab28ea069582df30c53cff3f05162b1bdc9a211a313f337da600cc0174</v>
       </c>
     </row>
     <row r="132">
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>a50c82cad47564b9d0379a46a1aa316dddeba24895c1bad024460f46cdadc4ac</v>
+        <v>84f84520154c8b4255d47fbe5c939f2fe9f7159403ccd603de2d74e9eaf90e35</v>
       </c>
     </row>
     <row r="133">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>20b524554971c898c0d7092baebaa0eac1445b725d091ca09cdf9f57e3fb2311</v>
+        <v>fda664a7b0c6a0a5ef51ef1b9d2e68dc187ff2b4282beec74ff77b5bef1c6583</v>
       </c>
     </row>
     <row r="134">
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
+        <v>cd0d43f866594894092bfa72f7c925b6e01e2662eea17335fc6584abd07c8c91</v>
       </c>
     </row>
     <row r="135">
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>94c17048522edf42f37df92e7353348d7176308c6b51986b6759b5f8dfeb8527</v>
+        <v>ef87d99f4fc6edb7783a7dddcd0ca0e2cb8a65a05962052ce27946e94de30b51</v>
       </c>
     </row>
     <row r="136">
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>3c8d9f0931acb0a572371f00e9ef548ed3ea0f8a126ca689c4032ba4bc6be583</v>
+        <v>36df798c043b3182a277a897bc26df44edfd4988bc457710d141f3f37dce330f</v>
       </c>
     </row>
     <row r="137">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>5af7ae5ab782a8ead145aab803f512b693183586329f030c5931bfa1545e49c1</v>
+        <v>1cd0623cbf20262dcee322c4b462efcbe4a83d69349377baafd77a029ec92999</v>
       </c>
     </row>
     <row r="138">
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>f65310500a4e202dcedc2243da1d940229e85f0539fe21379ffe8582e2523bd2</v>
       </c>
     </row>
     <row r="139">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>ee9f9754b469cddb2593c2a91508b672f428447cc9db7753f3aabb2928d1ea40</v>
       </c>
     </row>
     <row r="140">
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>7db247d6fabc5ce716729393c6c9a5b645a97cdc9720e11459f7befcfd4e045d</v>
       </c>
     </row>
     <row r="141">
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>0090c7ade6da67f5b74141a06485a49c378a240de417a4c22636d124121b76de</v>
       </c>
     </row>
     <row r="142">
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>e31c383a9fde68898ea8bf5c4f60d80b61510181a7d5e3f945a66225db9adaca</v>
+        <v>217be4bf21d335cb71b55fdb4d31a9a7279d445f0fe85f9cf24c1bef1caf62d4</v>
       </c>
     </row>
     <row r="143">
@@ -3231,7 +3231,7 @@
         <v>audioclip_sfx_h0208_jp.ab</v>
       </c>
       <c r="C143">
-        <v>774135</v>
+        <v>774119</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>0f1e10418d145d3280d48cf884a851410fd1caf031be41b30c339d7d1db0bad0</v>
+        <v>bbfa58683b15e0f13ff91790ddb3e3c89a40a836a21fb5db765bf26c9ced5e65</v>
       </c>
     </row>
     <row r="144">
@@ -3251,7 +3251,7 @@
         <v>audioclip_sfx_h0209_jp.ab</v>
       </c>
       <c r="C144">
-        <v>967131</v>
+        <v>967105</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>e7d22691dd2776a44d68e50548123000f69163c62f873b57d611657849e3d0e0</v>
+        <v>6fe5874067b96a05a1c0d4956b9ac2fa18fabf621a1dc905da8cf97527823c71</v>
       </c>
     </row>
     <row r="145">
@@ -3271,7 +3271,7 @@
         <v>audioclip_sfx_h0210_jp.ab</v>
       </c>
       <c r="C145">
-        <v>976463</v>
+        <v>976464</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>e5dd499dce7c2ee183b41c1fe0bb0ebe0265a9500a8a07aceef39ee060b69461</v>
+        <v>536a0eafaf49dac589a428dc01427c474cbd6c2e042cd154302895731591cd9e</v>
       </c>
     </row>
     <row r="146">
@@ -3291,7 +3291,7 @@
         <v>audioclip_sfx_h0213_jp.ab</v>
       </c>
       <c r="C146">
-        <v>1108277</v>
+        <v>1108286</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>8f16c55115a1979dd49261f2d20c07e18aeec69db8084cddfd51ec8aaf65d66b</v>
+        <v>c57d9f9aa94faeeccc5dc0e8541f7bbb2c05bee5cce4211df599ac14eb66f8bf</v>
       </c>
     </row>
     <row r="147">
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>de4cb00dfca74723502d235551fe7086425b77cf2ed0c33ac19d3eabd29309ee</v>
+        <v>454d5ab9e2b2cfea6ab7d81449d4bbe2cf8b238a5ce38f76c4b2f3b539fef92e</v>
       </c>
     </row>
     <row r="148">
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="149">
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="150">
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="151">
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>904cea9fd25f0463f95602b942f54bf1a8688704cfbdb084f15a48de2a70d9e8</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="152">
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="153">
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="154">
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>27c376dd522741092e3738a83f8c894722b820ba42c780755d24e7c5a4a4844c</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="155">
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="156">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="157">
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>30c112c48346e55fdb8873a0bb7cd3e32e9f5be3b2283cce9599d4241a11c570</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="158">
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="159">
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="160">
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="161">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="162">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>03fd5fd58978aa3a4704cc8887c7e7e55b157195fcab892bb197bedfee01e524</v>
       </c>
     </row>
     <row r="163">
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="164">
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>57baefbca8fc207b9e58356242c7ba3a978156d0a25f595e9544f52371749b5f</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="165">
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="166">
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="167">
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
       </c>
     </row>
     <row r="168">
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="169">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>84e63d17d71bce78563766af4e817af26f17bd91172a3705c892f7567ec124fb</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="170">
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="171">
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>13574eb3548f2c1639995f63272a4bc8fc362ac91b8cb68cbd98abc34b35c395</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="172">
@@ -3811,7 +3811,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C172">
-        <v>1973737</v>
+        <v>1973746</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>d3a4fb169f6ae64ef5cd27a33779e03f93867e3959f708a16d6461e270d49a29</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="173">
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>82627ecf32da8fa04df965c3461e1a169ab2b6dbba28f44daec7327dc387fc91</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="174">
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>f2852f8a767492b427e2b3ff0de3d757ac9a2367609dc63ae6ac95b967f81205</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="175">
@@ -3871,7 +3871,7 @@
         <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C175">
-        <v>940740</v>
+        <v>940748</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>9303999680361d4a349d365b6857314694775dd90aad23c0787615730521bd0d</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="176">
@@ -3891,7 +3891,7 @@
         <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C176">
-        <v>1484340</v>
+        <v>1484252</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>4c0b296e082749b7ec1a95c6eb5928e55d1a913fb690f5c5f31bc0edc1e1f205</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="177">
@@ -3911,7 +3911,7 @@
         <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C177">
-        <v>1202871</v>
+        <v>1202892</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>aa0d81c990b07857c551d063b7d1f8f1edcceb743b9eac290e5e625cebb867a1</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="178">
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="179">
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="180">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcafa40bcfa3d2e31f57b8762f52946abe4f2662f8ae2a1b145218c2daa2760c</v>
       </c>
     </row>
     <row r="181">
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="182">
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="183">
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="184">
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>c4ed51bd84870d765de9a0f5743b64ad916afaf199e798acfcac35f0f4036c38</v>
+        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
       </c>
     </row>
     <row r="185">
@@ -4080,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>d5e47a287a4045cb36391a93c48f3f4ca6b935ca5a08375fc9b32651c2792508</v>
+        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
       </c>
     </row>
     <row r="186">
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>7245f5d79c91a22dd4beeea9077d737938545e6315d73419a3bf67715cd4d7e8</v>
+        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
       </c>
     </row>
     <row r="187">
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>39ee330cee2ee4b17f1187ab726c1a2a6e3f42f6158d42f6f63b394a78f5a629</v>
+        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
       </c>
     </row>
     <row r="188">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>6aa9d378b81c7c604ab47787d37adbef4b92c74091e0e5127f47f67d369dbcf2</v>
+        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
       </c>
     </row>
     <row r="189">
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>594634d3cfa2d860c02971dfa39d4f5997f6d83fdaf430d72494a54405d841d5</v>
+        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
       </c>
     </row>
     <row r="190">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>7e9b81ef83d5cd7e1014c3bfd18b2885e8ce37057ac1159224d9e0ed74e0e24c</v>
+        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
       </c>
     </row>
     <row r="191">
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>2fdcd616278a9bba66b595fed9bf685c01f20a2fb19ab9bb143dcf9e6d30c470</v>
+        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
       </c>
     </row>
     <row r="192">
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>cc1b82dccb9fee0fd1f8c0d1c5450546b069bac2b6b4f3f4923b256437b89ea6</v>
+        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
       </c>
     </row>
     <row r="193">
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>e60023bdcb40465227c9fe9239e74ac0c7f36ea5ea4a875a29de89666bb674c8</v>
+        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
       </c>
     </row>
     <row r="194">
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>e207d5b01d7d0b879fde6c1159524267de17066a4b2ddd540083fb30768f9ce1</v>
+        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
       </c>
     </row>
     <row r="195">
@@ -4280,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>dc39855ddd57116967998cdf09f9997d16eca4938821bb556d925c85d84d45f7</v>
+        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
       </c>
     </row>
     <row r="196">
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>791610167b14ac6980eeef159f85c0782939006cfd4b04338b0ed361569d072e</v>
+        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
       </c>
     </row>
     <row r="197">
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>2804c3ddf19281f953305a1b5c34032bc95c063312b5b4f6eec4795a3d97768d</v>
+        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
       </c>
     </row>
     <row r="198">
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>6608dfca206222990c7317fbb0b0596de871e33ccefccb50d88f75104354b161</v>
+        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
       </c>
     </row>
     <row r="199">
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>d21f0b8211c16c39a0ffd3d3dc5ada1c81dfb1c31f6456f35ff250728868f848</v>
+        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
       </c>
     </row>
     <row r="200">
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>53c2652f886c461f874027cf2844bdb7512d25eac05571c572247483aed50008</v>
+        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
       </c>
     </row>
     <row r="201">
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>96f42b844975c6194d8942651fcdad500c234677259446ae2d1f3361bad50d71</v>
+        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
       </c>
     </row>
     <row r="202">
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>cc8d4a0d7a5bea26909fbb531972dc1b5b67d161e517a4b7cec0e91e82faed0e</v>
+        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
       </c>
     </row>
     <row r="203">
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>b814e39b677f64f322d57e4a4c7224a0359561f57c8d63b4d628c7bab6bfce38</v>
+        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
       </c>
     </row>
     <row r="204">
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>914fdc233a9a50894283e5fe0c1bc6c5ea2dec1f91305885c4a46d9cda675bd5</v>
+        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
       </c>
     </row>
     <row r="205">
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>942542095e52f0136a454d0b0d768ec182f25a9b35074773175c96c4055f6617</v>
+        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
       </c>
     </row>
     <row r="206">
@@ -4500,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>fb5a9a70970d75c5abf808d5c3c58dee055f263287a0d4d1bf781d0570a923b0</v>
+        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
       </c>
     </row>
     <row r="207">
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>132b6cf04a3d224b54625b4aa1cbc11f25000fec2f67efa66d3a15c761870dca</v>
+        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
       </c>
     </row>
     <row r="208">
@@ -4540,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>5a46cefc50d2c348d46a42d805cffe6d5a61e23ae1ae392e174fb90133169297</v>
+        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
       </c>
     </row>
     <row r="209">
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>01e607fcd0f3cdfa139c230f9d365e87756f5825c557150980572c3640594413</v>
+        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
       </c>
     </row>
     <row r="210">
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>64716edcc390465ab282b8ecf9889b21c41f5bc19b6f88eb6cd7418cbce90fb5</v>
+        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
       </c>
     </row>
     <row r="211">
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>9f0271eabc92ea558554f23ef120503a80c9b5bff25f309769456ff66f74343b</v>
+        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
       </c>
     </row>
     <row r="212">
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>c40209c81a74013b2afc6b5c4811021b253870dce8652189f9fee573a07079e6</v>
+        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
       </c>
     </row>
     <row r="213">
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>f1c56a0b4abd622333e5cae5c5dc7796d6d2229d4f682fdf0559b450af959a89</v>
+        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
       </c>
     </row>
     <row r="214">
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>2b05aaf54f7af57c9a3791ded10101d3c148993e02fee5a750bd1a8b187b2891</v>
+        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
       </c>
     </row>
     <row r="215">
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>a9035800dd8ab0153d633ba75e2985e1f89e80e13191f32cfd0bfd88dcafe088</v>
+        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
       </c>
     </row>
     <row r="216">
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>4b3d30768739804bcb6a8d6facbe2534a6aeec4fdadc5f9f2c161f328b8234c3</v>
+        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
       </c>
     </row>
     <row r="217">
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>a72022a4be09dbd5065a07ed7fe29b2c0d487025029f8ce0ce3c083cccd182ba</v>
+        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
       </c>
     </row>
     <row r="218">
@@ -4740,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>56f5246c4a859802a01536662f271151bf41ccebeef3d850de56f35783c94598</v>
+        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
       </c>
     </row>
     <row r="219">
@@ -4760,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>e4f3de12ea9701f93b10b8ec29dcab162ce9dd16e168fe7bc2189c962c479714</v>
+        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
       </c>
     </row>
     <row r="220">
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>127135fa36ea60002ece5473d62b4a217368c38ec25c04b37443179d5b206f34</v>
+        <v>56cc7f8271cba4559eb11c30ae0c3721beb06ed7343a23ef9fdd7eaec0083664</v>
       </c>
     </row>
     <row r="221">
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>ac3b4e4e32a3ef66ebe352e012602a2791bc823912af6cc3906bbd5401f7f309</v>
+        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
       </c>
     </row>
     <row r="222">
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>06e610d571e6b9e78b8abcd511f5eccd1cbaf72708bbf06c38821ff7cfb3e838</v>
+        <v>b27eec08ce94068dd12442b3ce43fef8e055b01139bbc975207d496114fb13c4</v>
       </c>
     </row>
     <row r="223">
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>fb01180f8587f50f94951542f4065a205f69cfce2388527de7ab9abd73651e1f</v>
+        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
       </c>
     </row>
     <row r="224">
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>0177ea26ec65eb25c65cb9f7393e949807df64070717a5f60aaf7bbcabc2eed1</v>
+        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
       </c>
     </row>
     <row r="225">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>684b084a98af1169d06488295779b0d3b9b0e43a045ef56e96e9f3847dead577</v>
+        <v>d4b8053c70e21171c3774f7b0a3938c2bb760e5e2441ecdcad18f9f018e05f7d</v>
       </c>
     </row>
     <row r="226">
@@ -4900,7 +4900,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>2da5f3082c821aee3756c7d8280f8037a6678ec0004a2dbd0fdeaeab37b695e5</v>
+        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
       </c>
     </row>
     <row r="227">
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>ef5f24f013054feec48ec87971c2cfcd59d5633590dedcaa57a33a233b61428f</v>
+        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
       </c>
     </row>
     <row r="228">
@@ -4940,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>6be982cb867b716f3b230ffc29882a808c61fd41f9e13d5bb916c007b81034e5</v>
+        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
       </c>
     </row>
     <row r="229">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>fd88bc40379fb4a02ee679e55508d7892d2efe8409fddb0d8c2c769b472919a9</v>
+        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
       </c>
     </row>
     <row r="230">
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>d9d4795a99ed74f876b2709202094e4aef0a9d1c0836376e4085f84a539e9397</v>
+        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
       </c>
     </row>
     <row r="231">
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>b5b648e58ba4264a9022a79eedcdff049d19056c3a94a8ca096a2624d88849b2</v>
+        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
       </c>
     </row>
     <row r="232">
@@ -5020,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>27b5a59a349174df74d971340cea52fdca3cfaeab4261cad25f6beb7b577adc5</v>
+        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
       </c>
     </row>
     <row r="233">
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>23c9fb047e8b008427383a012d9fa0a7a478e936d944a2d7fcd9c3e3fea1b335</v>
+        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
       </c>
     </row>
     <row r="234">
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>f9b33ccc6fcb289f26773d87c784e66d2bb07c49816b4f3478ed306bb9036c7b</v>
+        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
       </c>
     </row>
     <row r="235">
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>c89d1116aac31f6e454e93843137548eec6f9cd24b526237e913db0d4599d821</v>
+        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
       </c>
     </row>
     <row r="236">
@@ -5100,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>48608615b2c4d13695423475906200aea122ce80f6d0fc3cd959fd98703994eb</v>
+        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
       </c>
     </row>
     <row r="237">
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>6ce3fa95fa5ec6358be5626d543309c8e74aeba46e22fc15f318aec84ed13e92</v>
+        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
       </c>
     </row>
     <row r="238">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>377977ac224a16e645df2ae0272b993883a5e07be75e5848f5c444d5b31bdd58</v>
+        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
       </c>
     </row>
     <row r="239">
@@ -5160,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>f60f60e48cab0dc305412f396e05dee101a6ff9d0351b28d31552258d1617dec</v>
+        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
       </c>
     </row>
     <row r="240">
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>19ced4449898f987304ce1fc52a12011e7d3ef3e95e8c09c4008ea1368b43917</v>
+        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
       </c>
     </row>
     <row r="241">
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>ca50b516bc3290477c63516faf8dbb550092c396cc61740c31fd849280d34738</v>
+        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
       </c>
     </row>
     <row r="242">
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>5ccdc339156bb2bb74f60fa4f8997ecce5e4d013bf147133ed5122a2353ae0b0</v>
+        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
       </c>
     </row>
     <row r="243">
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>22a80136942f314beb9b0a93c068a04e1f2ab487bd71641c6863d20404f78b4a</v>
+        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
       </c>
     </row>
     <row r="244">
@@ -5260,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>7fbe062d87bede080159e1dc0de9cbec5540b490d9694af11d119bc98247bb16</v>
+        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
       </c>
     </row>
     <row r="245">
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>a05860d541a6f13f60581698e049062c5fa8192b09bffa645bb53b869c42a831</v>
+        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
       </c>
     </row>
     <row r="246">
@@ -5300,7 +5300,7 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>57f12d6278f35727bca4585bcd99c09043f6e47d5879382e668e418aafd3d1b5</v>
+        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
       </c>
     </row>
     <row r="247">
@@ -5320,7 +5320,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>e1d4222290b5814d828a8e333bc64ccf6f72b33adad4f1d02d05e748191dbf0c</v>
+        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
       </c>
     </row>
     <row r="248">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>80c48d4391a84a711b3c9c49e2e4984ceb8ad491bb8be51d8f14dd77a3a9ae47</v>
+        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
       </c>
     </row>
     <row r="249">
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>8eed06882ff2b1e622c96cc41f8d99cf2edd2e44d9dbd74dca524e5a20a3cb94</v>
+        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
       </c>
     </row>
     <row r="250">
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>b4fbce16dfcca6bc40a5352742edf05c25520df41d08f3b7255ee9843ef7c4e8</v>
+        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
       </c>
     </row>
     <row r="251">
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>0ca42120f45348d918330e8ed2c0e9a798ca8e7020706b9edbd31e7bd8183961</v>
+        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
       </c>
     </row>
     <row r="252">
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>d08c29287f763ccce19e1a57efb98fb8ae62718ae516e357e9ff7dc720b96044</v>
+        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
       </c>
     </row>
     <row r="253">
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>c9972150c090848f55239216431d7f4f149bd27e744b4dcde568e3917f99f4b4</v>
+        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
       </c>
     </row>
     <row r="254">
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>a30f7b2b8de18038c8c480a7ab8cf4e6957a4f6631b34e079ce49857da6d6354</v>
+        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
       </c>
     </row>
     <row r="255">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>3f5d996a7ce4ce0957ce663b32661cf77fa99f2e5c017642a7a94b96bf3d2713</v>
+        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
       </c>
     </row>
     <row r="256">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>f0f5cab32b575d19dd48f0c0917a5a3a82c2f48335179b8505047da435e1f9dc</v>
+        <v>4c09696cb3b2ba00b890aa08019410cef2c73255380ed974826bcac02956ddc9</v>
       </c>
     </row>
     <row r="257">
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>1813085e1cbd7fd4b484340213c42b46c7578e06b38efcfbd216b52689f28d6b</v>
+        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
       </c>
     </row>
     <row r="258">
@@ -5540,7 +5540,7 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>4374fc84dcccf6372dab1353fac448c3add1ed862cc599606d4bed89face2773</v>
+        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
       </c>
     </row>
     <row r="259">
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>8a2ce9a26aae3b858761bdad8ceaf924bc070315abcfd093818e9efe82fadc9c</v>
+        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
       </c>
     </row>
     <row r="260">
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>a45119d3fa8e58defc656502ea07f2adaced3dc9711a06825dc9b81337a61765</v>
+        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
       </c>
     </row>
     <row r="261">
@@ -5600,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>940942f51b448c64646e9e31648c900d385ae74120aa00db259c2d4587b25c5b</v>
+        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
       </c>
     </row>
     <row r="262">
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>9b5b904db0b6a3c10d32f9131f5ddb1dda2a13c12c64f164ba99ea1fad85685f</v>
+        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
       </c>
     </row>
     <row r="263">
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>7bbeb76976fe3dd97baabe6b75a82c57768f810b8e8dca01f40d13eb883cc3eb</v>
+        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
       </c>
     </row>
     <row r="264">
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>87d71a7708c1b844633e6083ea00932aa194ba66b24216cc85126af61cf1c127</v>
+        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
       </c>
     </row>
     <row r="265">
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>9eb9daf2af85afcd9a79f878acb101d2cd7777acd38abed5c19409d7147b5de2</v>
+        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
       </c>
     </row>
     <row r="266">
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>7f07b0f75915f6e67439dff2913d3b0f7e2c2931c3aad14510ad941780f70546</v>
+        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
       </c>
     </row>
     <row r="267">
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>8e32143403bfaf1c42ad5a5d7153086c05c8a1d7e0cf6edd10e223b20ece05de</v>
+        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
       </c>
     </row>
     <row r="268">
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>56c792ab2e2402f6e8db2197dc5fc42a152bba1d3af774fc67d9d8f089db6ea8</v>
+        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
       </c>
     </row>
     <row r="269">
@@ -5760,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>474738bc9f33c449f83b8f9f4bcee0a5388cdd63c2da3e18d598b3a57aaca56a</v>
+        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
       </c>
     </row>
     <row r="270">
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>bdfb3285ab8f251c4a46792aa23a8d0427feefbeef311c65c0f26541ee8383a2</v>
+        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
       </c>
     </row>
     <row r="271">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>529f64a3fd4e72c7410cd2fde5bbe86876146915d38b56b0ca2ff46936e7bae1</v>
+        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
       </c>
     </row>
     <row r="272">
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>b891435a4d5b674456d222cdfba47c86d31f9651a7570b3844fe71d0e73c67dd</v>
+        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
       </c>
     </row>
     <row r="273">
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>08ba05e54c2ca8e5a1c483b361173e5e5ec64075985c25662502d3e493771ae2</v>
+        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
       </c>
     </row>
     <row r="274">
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>ba0b5d0a59e24ca2decd01ee36ea8127eb6d69d4c22e261a228e81c4a2449e46</v>
+        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
       </c>
     </row>
     <row r="275">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>4458c24d9c55d2e9cd875660b235ce63a67aa0faffa37a040b792f254fd29257</v>
+        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
       </c>
     </row>
     <row r="276">
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>22d5aa78b96bea1216aef8fcc616586a904bfd544617f432c5d3f721bb053b43</v>
+        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
       </c>
     </row>
     <row r="277">
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>bda40d2e20e792fce76305144adb20679f8cfbc3abc3730dae973b0bdd365085</v>
+        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
       </c>
     </row>
     <row r="278">
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>986ed2cc215347c1bfcf9088b6a23a65ccacf518bc01ace66f6257b90ec1ae9c</v>
+        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
       </c>
     </row>
     <row r="279">
@@ -5960,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>5346bb717d5cda6a7849ae1ad0eec35501d38beb09908c0033a61a44221c5c88</v>
+        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
       </c>
     </row>
     <row r="280">
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>4ab9799afab025b9e429cf5c63df5231bc848240bc95433389515b6239addd07</v>
+        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
       </c>
     </row>
     <row r="281">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>a29577b3fef519d12d6d1792eadaa20004ba3678e8b60943bb8f2138ca0e3304</v>
+        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
       </c>
     </row>
     <row r="282">
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>259b080cb4d0d43c0d128233cb48bfec6d39cda11647e94224f15479030488ea</v>
+        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
       </c>
     </row>
     <row r="283">
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>406aa4f83f7a362f4bced0b2579ef45bbcb6db9d0d3e490aee94d74582d68f33</v>
+        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
       </c>
     </row>
     <row r="284">
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>045db71f42d166953192ecc1e159ae4eba5b073deb5d2557e7962194f79f9ca2</v>
+        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
       </c>
     </row>
     <row r="285">
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>834a401d3ea03a37e98248e4b118fe4dad9ebc4e21e14478a869b6cc053f588c</v>
+        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
       </c>
     </row>
     <row r="286">
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>734dfa52c17e5b85a2b1101ca5936094d4cb9d209b67f951b7c4c7aa39957f9e</v>
+        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
       </c>
     </row>
     <row r="287">
@@ -6120,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>b294bfafc44209086d0f87f057f212e5fbc9bc0f9edf5faf27e14193c4346774</v>
+        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
       </c>
     </row>
     <row r="288">
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>dc0e7039300c1b4b75f030d14a4c20bff85da160b9f12e13b5aa74b5221bb0d4</v>
+        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
       </c>
     </row>
     <row r="289">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>b4ebe28e8c9635f45881a3ac927eb00f4c9618b2d5ef59b5c3c3194562303f7f</v>
+        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
       </c>
     </row>
     <row r="290">
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>353543fc323f6827af861ecb01b99660ee3a30f1764b53304f0087105df738be</v>
+        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
       </c>
     </row>
     <row r="291">
@@ -6200,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>6bbf56be5aef314d57dbded9cb269162156652aa652acd22ca36ba1db453c049</v>
+        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
       </c>
     </row>
     <row r="292">
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>29e0d3455899e027aca3b13c6b2a10ace1ab868656d1c2a58c8307876c1337a2</v>
+        <v>e34d8efde5544b456853eeee89fb95f5b8cecb103248ba1cfb0a42e472ef3a80</v>
       </c>
     </row>
     <row r="293">
@@ -6240,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>6207c7650ac2d15b4f653795cdf2b76cf3d117979b026db8a7b0850134bb3342</v>
+        <v>6bf66b2458a666cd1ab33f15f2da92311fa21c091d01693c74d4d22fbcf0261c</v>
       </c>
     </row>
     <row r="294">
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>99d383353d5b72d019b1c4d7172693ff0f8c109e782c5b7f045fe35b7e667ed2</v>
+        <v>da5eff98dbf1b567db0786d63dede50b6e8c5f8afa85b511156b57bc7ae4b413</v>
       </c>
     </row>
     <row r="295">
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>14b25c13470ad8f7c5cbedf89e4e8524d9701d3e222c83b77514d6c4bf8c2a44</v>
+        <v>2a3646d34f329e0f6e43fa29282deefba2d7d52b1318339bfdb08e661f5c9a4b</v>
       </c>
     </row>
     <row r="296">
@@ -6300,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>0477288697066f552d19739ed806bca0949dbdc1030ad5e20620a03857919dc0</v>
+        <v>e8cd81a03801634fff9f0bb2b3972ff0c36cdb72efc084ef4635d62b578ff334</v>
       </c>
     </row>
     <row r="297">
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>cbd6f05fd399b095b1cc955ce540fa089916e65665b9454914ec421ce27daf2e</v>
+        <v>714b5555bfd7d920ab44efe3dc261a9cfdba1f4b6e509b797517148318ebf103</v>
       </c>
     </row>
     <row r="298">
@@ -6340,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>f565d59e42b6a25f50211e60174934659dfdfdcf0a5ade2b000c9d91320e5b00</v>
+        <v>f48f68c7957e35e5e15e49feb475cb2c4fa983f8232db3355516bf813be8ef00</v>
       </c>
     </row>
     <row r="299">
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>b54b7c311f566cda5a3bdfb0bdfd46dbd88a87e0ccbd82d8579c165e2bf97451</v>
+        <v>20072ba4491ec0a6889f7a034d6ecdad6611678e68bef2245653ba356c155a77</v>
       </c>
     </row>
     <row r="300">
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>de8c429947791dac654266f0fafb5e61866946fee857c8a79f984ca134a15c61</v>
+        <v>384cc234bc848d88c3493bb6d581b453fef90ff6149ca75cee2081a239829486</v>
       </c>
     </row>
     <row r="301">
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="F301" t="str">
-        <v>c7e4e1400d9ca59267bf100e38aec5579b4577d47062a57d3f656b90aa9817cb</v>
+        <v>b6e4e9aa6a854ead5306d8fac272a8fa05c73655bd9e5d175c61efed7a45463e</v>
       </c>
     </row>
   </sheetData>

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="F73" t="str">
-        <v>c43ad94c6712e5d9a799ffd238fa1207ccc5f4ea8beece2923fcf5eec5b64bb2</v>
+        <v>c3f82328888aee14300bb033d8657e09ac7b65c8e08443da5c31a0974d0718fc</v>
       </c>
     </row>
     <row r="74">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="str">
-        <v>2792937eb67998dbda99801d94241a25047c8ff35b5e6267777e8e3ef418ef58</v>
+        <v>ed10788a5b4bb57f608bc8ff9092774c78c773ce39911de61b1a5e223d3c41bf</v>
       </c>
     </row>
     <row r="107">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>03fd5fd58978aa3a4704cc8887c7e7e55b157195fcab892bb197bedfee01e524</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="163">
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>dcafa40bcfa3d2e31f57b8762f52946abe4f2662f8ae2a1b145218c2daa2760c</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="181">
@@ -4871,7 +4871,7 @@
         <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C225">
-        <v>2672754</v>
+        <v>3415142</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>d4b8053c70e21171c3774f7b0a3938c2bb760e5e2441ecdcad18f9f018e05f7d</v>
+        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
       </c>
     </row>
     <row r="226">

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F305</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F305"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0216_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0216_jp.ab</v>
       </c>
       <c r="C148">
-        <v>274141</v>
+        <v>1220952</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
+        <v>78e22da6aa4588298544512d6e7e380dc1a2a37718643ffaf3167986358f2f99</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0217_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0217_jp.ab</v>
       </c>
       <c r="C149">
-        <v>220277</v>
+        <v>974978</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
+        <v>b7c139fa195fdf9b40fd7e1c8e5d76ea88b3b6da8b86114b5e60509a961f0c08</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C150">
-        <v>95937</v>
+        <v>274141</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1390714</v>
+        <v>220277</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C152">
-        <v>4141815</v>
+        <v>95937</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1438360</v>
+        <v>1390714</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1066356</v>
+        <v>4141815</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C155">
-        <v>883191</v>
+        <v>1438360</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C156">
-        <v>903958</v>
+        <v>1066356</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1396253</v>
+        <v>883191</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C158">
-        <v>995093</v>
+        <v>903958</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1222449</v>
+        <v>1396253</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C160">
-        <v>694988</v>
+        <v>995093</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C161">
-        <v>3816643</v>
+        <v>1222449</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1950972</v>
+        <v>694988</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C163">
-        <v>2974110</v>
+        <v>3816643</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1992972</v>
+        <v>1950972</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2340715</v>
+        <v>2974110</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C166">
-        <v>1950991</v>
+        <v>1992972</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C167">
-        <v>2411041</v>
+        <v>2340715</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2120061</v>
+        <v>1950991</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1952778</v>
+        <v>2411041</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
+        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C170">
-        <v>1736026</v>
+        <v>2120061</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C171">
-        <v>2460158</v>
+        <v>1952778</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C172">
-        <v>1973746</v>
+        <v>1736026</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C173">
-        <v>2403903</v>
+        <v>2460158</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C174">
-        <v>1290319</v>
+        <v>1973746</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C175">
-        <v>940748</v>
+        <v>2403903</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C176">
-        <v>1484252</v>
+        <v>1290319</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C177">
-        <v>1202892</v>
+        <v>940748</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C178">
-        <v>316222</v>
+        <v>1484252</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C179">
-        <v>164048</v>
+        <v>1202892</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C180">
-        <v>214576</v>
+        <v>316222</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C181">
-        <v>310401</v>
+        <v>164048</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C182">
-        <v>288960</v>
+        <v>214576</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C183">
-        <v>270576</v>
+        <v>310401</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C184">
-        <v>2427621</v>
+        <v>288960</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C185">
-        <v>2483491</v>
+        <v>270576</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C186">
-        <v>2480824</v>
+        <v>2427621</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
+        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C187">
-        <v>2425865</v>
+        <v>2483491</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
+        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C188">
-        <v>719220</v>
+        <v>2480824</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
+        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C189">
-        <v>2665114</v>
+        <v>2425865</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
+        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C190">
-        <v>677862</v>
+        <v>719220</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
+        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C191">
-        <v>148141</v>
+        <v>2665114</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
+        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C192">
-        <v>2369924</v>
+        <v>677862</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
+        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C193">
-        <v>2751802</v>
+        <v>148141</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
+        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C194">
-        <v>2446728</v>
+        <v>2369924</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
+        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C195">
-        <v>2463327</v>
+        <v>2751802</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
+        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C196">
-        <v>651307</v>
+        <v>2446728</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
+        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C197">
-        <v>561312</v>
+        <v>2463327</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
+        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C198">
-        <v>726451</v>
+        <v>651307</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
+        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C199">
-        <v>2962837</v>
+        <v>561312</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
+        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C200">
-        <v>739681</v>
+        <v>726451</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
+        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C201">
-        <v>576970</v>
+        <v>2962837</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
+        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C202">
-        <v>736669</v>
+        <v>739681</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
+        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C203">
-        <v>559888</v>
+        <v>576970</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
+        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C204">
-        <v>2475343</v>
+        <v>736669</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
+        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C205">
-        <v>2900414</v>
+        <v>559888</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
+        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C206">
-        <v>3263699</v>
+        <v>2475343</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
+        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C207">
-        <v>3380874</v>
+        <v>2900414</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
+        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C208">
-        <v>2529038</v>
+        <v>3263699</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
+        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C209">
-        <v>2602264</v>
+        <v>3380874</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
+        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C210">
-        <v>2355620</v>
+        <v>2529038</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
+        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C211">
-        <v>2947535</v>
+        <v>2602264</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
+        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C212">
-        <v>2154552</v>
+        <v>2355620</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
+        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C213">
-        <v>2372246</v>
+        <v>2947535</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
+        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C214">
-        <v>3087325</v>
+        <v>2154552</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
+        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C215">
-        <v>2253985</v>
+        <v>2372246</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
+        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C216">
-        <v>799706</v>
+        <v>3087325</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
+        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C217">
-        <v>696705</v>
+        <v>2253985</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
+        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C218">
-        <v>684156</v>
+        <v>799706</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
+        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C219">
-        <v>744489</v>
+        <v>696705</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
+        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C220">
-        <v>2629522</v>
+        <v>684156</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>56cc7f8271cba4559eb11c30ae0c3721beb06ed7343a23ef9fdd7eaec0083664</v>
+        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C221">
-        <v>704035</v>
+        <v>744489</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
+        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C222">
-        <v>2158249</v>
+        <v>2629522</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>b27eec08ce94068dd12442b3ce43fef8e055b01139bbc975207d496114fb13c4</v>
+        <v>56cc7f8271cba4559eb11c30ae0c3721beb06ed7343a23ef9fdd7eaec0083664</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C223">
-        <v>1957083</v>
+        <v>704035</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
+        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C224">
-        <v>3131566</v>
+        <v>2895821</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
+        <v>8b8932183ab82b6d234f672db3367c380fe70953b4ed998f50b023fcff508b94</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C225">
-        <v>3415142</v>
+        <v>1957083</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
+        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C226">
-        <v>1804269</v>
+        <v>3131566</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
+        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C227">
-        <v>2832480</v>
+        <v>3415142</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
+        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C228">
-        <v>1855243</v>
+        <v>1804269</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
+        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C229">
-        <v>4395901</v>
+        <v>2832480</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
+        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C230">
-        <v>2719005</v>
+        <v>1855243</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
+        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C231">
-        <v>2700800</v>
+        <v>4395901</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
+        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C232">
-        <v>1746954</v>
+        <v>2719005</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
+        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C233">
-        <v>1807060</v>
+        <v>2700800</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
+        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C234">
-        <v>1897916</v>
+        <v>1746954</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
+        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C235">
-        <v>2687127</v>
+        <v>1807060</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
+        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C236">
-        <v>1936819</v>
+        <v>1897916</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
+        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C237">
-        <v>3426748</v>
+        <v>2687127</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
+        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C238">
-        <v>572490</v>
+        <v>1936819</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
+        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C239">
-        <v>1645805</v>
+        <v>3426748</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
+        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C240">
-        <v>586768</v>
+        <v>572490</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
+        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C241">
-        <v>777845</v>
+        <v>1645805</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
+        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C242">
-        <v>684860</v>
+        <v>586768</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
+        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C243">
-        <v>824610</v>
+        <v>777845</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
+        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C244">
-        <v>771453</v>
+        <v>684860</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
+        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C245">
-        <v>790507</v>
+        <v>824610</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
+        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C246">
-        <v>726300</v>
+        <v>771453</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
+        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C247">
-        <v>707991</v>
+        <v>790507</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
+        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C248">
-        <v>622834</v>
+        <v>726300</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
+        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C249">
-        <v>732380</v>
+        <v>707991</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
+        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C250">
-        <v>729250</v>
+        <v>622834</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
+        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C251">
-        <v>822341</v>
+        <v>732380</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
+        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C252">
-        <v>677985</v>
+        <v>729250</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
+        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C253">
-        <v>2749662</v>
+        <v>822341</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
+        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C254">
-        <v>2067781</v>
+        <v>677985</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
+        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C255">
-        <v>2069193</v>
+        <v>2749662</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
+        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C256">
-        <v>1773283</v>
+        <v>2067781</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>4c09696cb3b2ba00b890aa08019410cef2c73255380ed974826bcac02956ddc9</v>
+        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C257">
-        <v>2134450</v>
+        <v>2069193</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
+        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C258">
-        <v>734211</v>
+        <v>1773283</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
+        <v>4c09696cb3b2ba00b890aa08019410cef2c73255380ed974826bcac02956ddc9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C259">
-        <v>718743</v>
+        <v>2134450</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
+        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C260">
-        <v>657606</v>
+        <v>734211</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
+        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C261">
-        <v>627572</v>
+        <v>718743</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
+        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C262">
-        <v>763856</v>
+        <v>657606</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
+        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C263">
-        <v>723672</v>
+        <v>627572</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
+        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C264">
-        <v>714014</v>
+        <v>763856</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
+        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C265">
-        <v>637743</v>
+        <v>723672</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
+        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C266">
-        <v>780991</v>
+        <v>714014</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
+        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C267">
-        <v>805855</v>
+        <v>637743</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
+        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C268">
-        <v>781334</v>
+        <v>780991</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
+        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C269">
-        <v>704983</v>
+        <v>805855</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
+        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C270">
-        <v>785511</v>
+        <v>781334</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
+        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C271">
-        <v>815817</v>
+        <v>704983</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
+        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C272">
-        <v>706075</v>
+        <v>785511</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
+        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C273">
-        <v>641687</v>
+        <v>815817</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
+        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C274">
-        <v>2759541</v>
+        <v>706075</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
+        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C275">
-        <v>2163097</v>
+        <v>641687</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
+        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="C276">
-        <v>2034727</v>
+        <v>613287</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
+        <v>00430928152114c2b9da4c9b5ddb3183d118c7d71cc6b70d459a9d34813211fa</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="C277">
-        <v>775654</v>
+        <v>710342</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
+        <v>0c557431ff6648f32755cfd3427894308fd8cbb5e2c31fc247d6ba298c4c6575</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C278">
-        <v>806550</v>
+        <v>2759541</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
+        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C279">
-        <v>3872071</v>
+        <v>2163097</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
+        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C280">
-        <v>2616770</v>
+        <v>2034727</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
+        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C281">
-        <v>2307872</v>
+        <v>775654</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
+        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C282">
-        <v>2603916</v>
+        <v>806550</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
+        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C283">
-        <v>2286765</v>
+        <v>3872071</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
+        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C284">
-        <v>693998</v>
+        <v>2616770</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
+        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C285">
-        <v>631454</v>
+        <v>2307872</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
+        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C286">
-        <v>1586889</v>
+        <v>2603916</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
+        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C287">
-        <v>1718936</v>
+        <v>2286765</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
+        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C288">
-        <v>2648574</v>
+        <v>693998</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
+        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C289">
-        <v>1947775</v>
+        <v>631454</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
+        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C290">
-        <v>3511110</v>
+        <v>1586889</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6180,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
+        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C291">
-        <v>1989757</v>
+        <v>1718936</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
+        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C292">
-        <v>2278082</v>
+        <v>2648574</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,18 +6220,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>e34d8efde5544b456853eeee89fb95f5b8cecb103248ba1cfb0a42e472ef3a80</v>
+        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C293">
-        <v>1672877</v>
+        <v>1947775</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6240,18 +6240,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>6bf66b2458a666cd1ab33f15f2da92311fa21c091d01693c74d4d22fbcf0261c</v>
+        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C294">
-        <v>2018104</v>
+        <v>3511110</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6260,18 +6260,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>da5eff98dbf1b567db0786d63dede50b6e8c5f8afa85b511156b57bc7ae4b413</v>
+        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C295">
-        <v>1986452</v>
+        <v>1989757</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6280,18 +6280,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>2a3646d34f329e0f6e43fa29282deefba2d7d52b1318339bfdb08e661f5c9a4b</v>
+        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C296">
-        <v>1996254</v>
+        <v>2278082</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6300,18 +6300,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>e8cd81a03801634fff9f0bb2b3972ff0c36cdb72efc084ef4635d62b578ff334</v>
+        <v>e34d8efde5544b456853eeee89fb95f5b8cecb103248ba1cfb0a42e472ef3a80</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C297">
-        <v>2760079</v>
+        <v>1672877</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6320,18 +6320,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>714b5555bfd7d920ab44efe3dc261a9cfdba1f4b6e509b797517148318ebf103</v>
+        <v>6bf66b2458a666cd1ab33f15f2da92311fa21c091d01693c74d4d22fbcf0261c</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C298">
-        <v>804205</v>
+        <v>2018104</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6340,18 +6340,18 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>f48f68c7957e35e5e15e49feb475cb2c4fa983f8232db3355516bf813be8ef00</v>
+        <v>da5eff98dbf1b567db0786d63dede50b6e8c5f8afa85b511156b57bc7ae4b413</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B299" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C299">
-        <v>688167</v>
+        <v>1986452</v>
       </c>
       <c r="D299" t="str">
         <v>Stage_1</v>
@@ -6360,18 +6360,18 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>20072ba4491ec0a6889f7a034d6ecdad6611678e68bef2245653ba356c155a77</v>
+        <v>2a3646d34f329e0f6e43fa29282deefba2d7d52b1318339bfdb08e661f5c9a4b</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B300" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C300">
-        <v>841779</v>
+        <v>1996254</v>
       </c>
       <c r="D300" t="str">
         <v>Stage_1</v>
@@ -6380,33 +6380,113 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>384cc234bc848d88c3493bb6d581b453fef90ff6149ca75cee2081a239829486</v>
+        <v>e8cd81a03801634fff9f0bb2b3972ff0c36cdb72efc084ef4635d62b578ff334</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="B301" t="str">
+        <v>character_largeimage_t0189.ab</v>
+      </c>
+      <c r="C301">
+        <v>2760079</v>
+      </c>
+      <c r="D301" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301" t="str">
+        <v>714b5555bfd7d920ab44efe3dc261a9cfdba1f4b6e509b797517148318ebf103</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="B302" t="str">
+        <v>character_largeimage_t0204.ab</v>
+      </c>
+      <c r="C302">
+        <v>804205</v>
+      </c>
+      <c r="D302" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302" t="str">
+        <v>f48f68c7957e35e5e15e49feb475cb2c4fa983f8232db3355516bf813be8ef00</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="B303" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="C303">
+        <v>688167</v>
+      </c>
+      <c r="D303" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303" t="str">
+        <v>20072ba4491ec0a6889f7a034d6ecdad6611678e68bef2245653ba356c155a77</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="B304" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="C304">
+        <v>841779</v>
+      </c>
+      <c r="D304" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304" t="str">
+        <v>384cc234bc848d88c3493bb6d581b453fef90ff6149ca75cee2081a239829486</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="B301" t="str">
+      <c r="B305" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="C301">
+      <c r="C305">
         <v>729041</v>
       </c>
-      <c r="D301" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-      <c r="F301" t="str">
+      <c r="D305" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" t="str">
         <v>b6e4e9aa6a854ead5306d8fac272a8fa05c73655bd9e5d175c61efed7a45463e</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F301"/>
+  <autoFilter ref="A1:F305"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F301"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F305"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -411,7 +411,7 @@
         <v>audioclip_sfx_0_jp.ab</v>
       </c>
       <c r="C2">
-        <v>133108</v>
+        <v>133133</v>
       </c>
       <c r="D2" t="str">
         <v>Stage_1</v>
@@ -431,7 +431,7 @@
         <v>audioclip_sfx_10_jp.ab</v>
       </c>
       <c r="C3">
-        <v>61209</v>
+        <v>61230</v>
       </c>
       <c r="D3" t="str">
         <v>Stage_1</v>
@@ -451,7 +451,7 @@
         <v>audioclip_sfx_11_jp.ab</v>
       </c>
       <c r="C4">
-        <v>104189</v>
+        <v>104158</v>
       </c>
       <c r="D4" t="str">
         <v>Stage_1</v>
@@ -471,7 +471,7 @@
         <v>audioclip_sfx_12_jp.ab</v>
       </c>
       <c r="C5">
-        <v>67441</v>
+        <v>67436</v>
       </c>
       <c r="D5" t="str">
         <v>Stage_1</v>
@@ -491,7 +491,7 @@
         <v>audioclip_sfx_13_jp.ab</v>
       </c>
       <c r="C6">
-        <v>149033</v>
+        <v>149023</v>
       </c>
       <c r="D6" t="str">
         <v>Stage_1</v>
@@ -511,7 +511,7 @@
         <v>audioclip_sfx_14_jp.ab</v>
       </c>
       <c r="C7">
-        <v>43296</v>
+        <v>43304</v>
       </c>
       <c r="D7" t="str">
         <v>Stage_1</v>
@@ -531,7 +531,7 @@
         <v>audioclip_sfx_15_jp.ab</v>
       </c>
       <c r="C8">
-        <v>88536</v>
+        <v>88560</v>
       </c>
       <c r="D8" t="str">
         <v>Stage_1</v>
@@ -551,7 +551,7 @@
         <v>audioclip_sfx_16_jp.ab</v>
       </c>
       <c r="C9">
-        <v>96165</v>
+        <v>96164</v>
       </c>
       <c r="D9" t="str">
         <v>Stage_1</v>
@@ -571,7 +571,7 @@
         <v>audioclip_sfx_17_jp.ab</v>
       </c>
       <c r="C10">
-        <v>43756</v>
+        <v>43753</v>
       </c>
       <c r="D10" t="str">
         <v>Stage_1</v>
@@ -591,7 +591,7 @@
         <v>audioclip_sfx_18_jp.ab</v>
       </c>
       <c r="C11">
-        <v>84544</v>
+        <v>84553</v>
       </c>
       <c r="D11" t="str">
         <v>Stage_1</v>
@@ -611,7 +611,7 @@
         <v>audioclip_sfx_19_jp.ab</v>
       </c>
       <c r="C12">
-        <v>77257</v>
+        <v>77263</v>
       </c>
       <c r="D12" t="str">
         <v>Stage_1</v>
@@ -631,7 +631,7 @@
         <v>audioclip_sfx_1_jp.ab</v>
       </c>
       <c r="C13">
-        <v>161105</v>
+        <v>161103</v>
       </c>
       <c r="D13" t="str">
         <v>Stage_1</v>
@@ -651,7 +651,7 @@
         <v>audioclip_sfx_20_jp.ab</v>
       </c>
       <c r="C14">
-        <v>147262</v>
+        <v>147265</v>
       </c>
       <c r="D14" t="str">
         <v>Stage_1</v>
@@ -671,7 +671,7 @@
         <v>audioclip_sfx_21_jp.ab</v>
       </c>
       <c r="C15">
-        <v>105512</v>
+        <v>105506</v>
       </c>
       <c r="D15" t="str">
         <v>Stage_1</v>
@@ -691,7 +691,7 @@
         <v>audioclip_sfx_22_jp.ab</v>
       </c>
       <c r="C16">
-        <v>77782</v>
+        <v>77783</v>
       </c>
       <c r="D16" t="str">
         <v>Stage_1</v>
@@ -711,7 +711,7 @@
         <v>audioclip_sfx_23_jp.ab</v>
       </c>
       <c r="C17">
-        <v>84650</v>
+        <v>84649</v>
       </c>
       <c r="D17" t="str">
         <v>Stage_1</v>
@@ -731,7 +731,7 @@
         <v>audioclip_sfx_24_jp.ab</v>
       </c>
       <c r="C18">
-        <v>72002</v>
+        <v>71998</v>
       </c>
       <c r="D18" t="str">
         <v>Stage_1</v>
@@ -751,7 +751,7 @@
         <v>audioclip_sfx_25_jp.ab</v>
       </c>
       <c r="C19">
-        <v>135511</v>
+        <v>135510</v>
       </c>
       <c r="D19" t="str">
         <v>Stage_1</v>
@@ -771,7 +771,7 @@
         <v>audioclip_sfx_26_jp.ab</v>
       </c>
       <c r="C20">
-        <v>219129</v>
+        <v>219121</v>
       </c>
       <c r="D20" t="str">
         <v>Stage_1</v>
@@ -791,7 +791,7 @@
         <v>audioclip_sfx_27_jp.ab</v>
       </c>
       <c r="C21">
-        <v>139365</v>
+        <v>139372</v>
       </c>
       <c r="D21" t="str">
         <v>Stage_1</v>
@@ -811,7 +811,7 @@
         <v>audioclip_sfx_28_jp.ab</v>
       </c>
       <c r="C22">
-        <v>108411</v>
+        <v>108413</v>
       </c>
       <c r="D22" t="str">
         <v>Stage_1</v>
@@ -831,7 +831,7 @@
         <v>audioclip_sfx_29_jp.ab</v>
       </c>
       <c r="C23">
-        <v>121316</v>
+        <v>121312</v>
       </c>
       <c r="D23" t="str">
         <v>Stage_1</v>
@@ -851,7 +851,7 @@
         <v>audioclip_sfx_2_jp.ab</v>
       </c>
       <c r="C24">
-        <v>154649</v>
+        <v>154652</v>
       </c>
       <c r="D24" t="str">
         <v>Stage_1</v>
@@ -871,7 +871,7 @@
         <v>audioclip_sfx_30_jp.ab</v>
       </c>
       <c r="C25">
-        <v>52990</v>
+        <v>52991</v>
       </c>
       <c r="D25" t="str">
         <v>Stage_1</v>
@@ -891,7 +891,7 @@
         <v>audioclip_sfx_31_jp.ab</v>
       </c>
       <c r="C26">
-        <v>92511</v>
+        <v>92517</v>
       </c>
       <c r="D26" t="str">
         <v>Stage_1</v>
@@ -911,7 +911,7 @@
         <v>audioclip_sfx_32_jp.ab</v>
       </c>
       <c r="C27">
-        <v>83642</v>
+        <v>83630</v>
       </c>
       <c r="D27" t="str">
         <v>Stage_1</v>
@@ -931,7 +931,7 @@
         <v>audioclip_sfx_33_jp.ab</v>
       </c>
       <c r="C28">
-        <v>64498</v>
+        <v>64497</v>
       </c>
       <c r="D28" t="str">
         <v>Stage_1</v>
@@ -951,7 +951,7 @@
         <v>audioclip_sfx_34_jp.ab</v>
       </c>
       <c r="C29">
-        <v>84995</v>
+        <v>84994</v>
       </c>
       <c r="D29" t="str">
         <v>Stage_1</v>
@@ -971,7 +971,7 @@
         <v>audioclip_sfx_35_jp.ab</v>
       </c>
       <c r="C30">
-        <v>202318</v>
+        <v>202311</v>
       </c>
       <c r="D30" t="str">
         <v>Stage_1</v>
@@ -991,7 +991,7 @@
         <v>audioclip_sfx_36_jp.ab</v>
       </c>
       <c r="C31">
-        <v>104785</v>
+        <v>104783</v>
       </c>
       <c r="D31" t="str">
         <v>Stage_1</v>
@@ -1011,7 +1011,7 @@
         <v>audioclip_sfx_37_jp.ab</v>
       </c>
       <c r="C32">
-        <v>67919</v>
+        <v>67915</v>
       </c>
       <c r="D32" t="str">
         <v>Stage_1</v>
@@ -1031,7 +1031,7 @@
         <v>audioclip_sfx_38_jp.ab</v>
       </c>
       <c r="C33">
-        <v>68472</v>
+        <v>68474</v>
       </c>
       <c r="D33" t="str">
         <v>Stage_1</v>
@@ -1051,7 +1051,7 @@
         <v>audioclip_sfx_39_jp.ab</v>
       </c>
       <c r="C34">
-        <v>136120</v>
+        <v>136123</v>
       </c>
       <c r="D34" t="str">
         <v>Stage_1</v>
@@ -1071,7 +1071,7 @@
         <v>audioclip_sfx_3_jp.ab</v>
       </c>
       <c r="C35">
-        <v>137719</v>
+        <v>137707</v>
       </c>
       <c r="D35" t="str">
         <v>Stage_1</v>
@@ -1091,7 +1091,7 @@
         <v>audioclip_sfx_40_jp.ab</v>
       </c>
       <c r="C36">
-        <v>63219</v>
+        <v>63218</v>
       </c>
       <c r="D36" t="str">
         <v>Stage_1</v>
@@ -1111,7 +1111,7 @@
         <v>audioclip_sfx_41_jp.ab</v>
       </c>
       <c r="C37">
-        <v>75011</v>
+        <v>75023</v>
       </c>
       <c r="D37" t="str">
         <v>Stage_1</v>
@@ -1131,7 +1131,7 @@
         <v>audioclip_sfx_42_jp.ab</v>
       </c>
       <c r="C38">
-        <v>118443</v>
+        <v>118413</v>
       </c>
       <c r="D38" t="str">
         <v>Stage_1</v>
@@ -1151,7 +1151,7 @@
         <v>audioclip_sfx_43_jp.ab</v>
       </c>
       <c r="C39">
-        <v>23470</v>
+        <v>23474</v>
       </c>
       <c r="D39" t="str">
         <v>Stage_1</v>
@@ -1171,7 +1171,7 @@
         <v>audioclip_sfx_44_jp.ab</v>
       </c>
       <c r="C40">
-        <v>123379</v>
+        <v>123376</v>
       </c>
       <c r="D40" t="str">
         <v>Stage_1</v>
@@ -1191,7 +1191,7 @@
         <v>audioclip_sfx_45_jp.ab</v>
       </c>
       <c r="C41">
-        <v>75416</v>
+        <v>75422</v>
       </c>
       <c r="D41" t="str">
         <v>Stage_1</v>
@@ -1211,7 +1211,7 @@
         <v>audioclip_sfx_46_jp.ab</v>
       </c>
       <c r="C42">
-        <v>38505</v>
+        <v>38503</v>
       </c>
       <c r="D42" t="str">
         <v>Stage_1</v>
@@ -1231,7 +1231,7 @@
         <v>audioclip_sfx_47_jp.ab</v>
       </c>
       <c r="C43">
-        <v>29284</v>
+        <v>29297</v>
       </c>
       <c r="D43" t="str">
         <v>Stage_1</v>
@@ -1251,7 +1251,7 @@
         <v>audioclip_sfx_48_jp.ab</v>
       </c>
       <c r="C44">
-        <v>88452</v>
+        <v>88447</v>
       </c>
       <c r="D44" t="str">
         <v>Stage_1</v>
@@ -1271,7 +1271,7 @@
         <v>audioclip_sfx_49_jp.ab</v>
       </c>
       <c r="C45">
-        <v>141537</v>
+        <v>141534</v>
       </c>
       <c r="D45" t="str">
         <v>Stage_1</v>
@@ -1291,7 +1291,7 @@
         <v>audioclip_sfx_4_jp.ab</v>
       </c>
       <c r="C46">
-        <v>102715</v>
+        <v>102701</v>
       </c>
       <c r="D46" t="str">
         <v>Stage_1</v>
@@ -1311,7 +1311,7 @@
         <v>audioclip_sfx_5_jp.ab</v>
       </c>
       <c r="C47">
-        <v>118773</v>
+        <v>118772</v>
       </c>
       <c r="D47" t="str">
         <v>Stage_1</v>
@@ -1331,7 +1331,7 @@
         <v>audioclip_sfx_6_jp.ab</v>
       </c>
       <c r="C48">
-        <v>103524</v>
+        <v>103521</v>
       </c>
       <c r="D48" t="str">
         <v>Stage_1</v>
@@ -1351,7 +1351,7 @@
         <v>audioclip_sfx_7_jp.ab</v>
       </c>
       <c r="C49">
-        <v>87147</v>
+        <v>87140</v>
       </c>
       <c r="D49" t="str">
         <v>Stage_1</v>
@@ -1391,7 +1391,7 @@
         <v>audioclip_sfx_9_jp.ab</v>
       </c>
       <c r="C51">
-        <v>54582</v>
+        <v>54584</v>
       </c>
       <c r="D51" t="str">
         <v>Stage_1</v>
@@ -1411,7 +1411,7 @@
         <v>audioclip_sfx_b0001_jp.ab</v>
       </c>
       <c r="C52">
-        <v>63659</v>
+        <v>63660</v>
       </c>
       <c r="D52" t="str">
         <v>Stage_1</v>
@@ -1431,7 +1431,7 @@
         <v>audioclip_sfx_b0015_jp.ab</v>
       </c>
       <c r="C53">
-        <v>116863</v>
+        <v>116862</v>
       </c>
       <c r="D53" t="str">
         <v>Stage_1</v>
@@ -1451,7 +1451,7 @@
         <v>audioclip_sfx_b0028_jp.ab</v>
       </c>
       <c r="C54">
-        <v>875237</v>
+        <v>875238</v>
       </c>
       <c r="D54" t="str">
         <v>Stage_1</v>
@@ -1471,7 +1471,7 @@
         <v>audioclip_sfx_b0037_jp.ab</v>
       </c>
       <c r="C55">
-        <v>2011709</v>
+        <v>2011796</v>
       </c>
       <c r="D55" t="str">
         <v>Stage_1</v>
@@ -1491,7 +1491,7 @@
         <v>audioclip_sfx_b0202_jp.ab</v>
       </c>
       <c r="C56">
-        <v>1272278</v>
+        <v>1272380</v>
       </c>
       <c r="D56" t="str">
         <v>Stage_1</v>
@@ -1511,7 +1511,7 @@
         <v>audioclip_sfx_e0002_jp.ab</v>
       </c>
       <c r="C57">
-        <v>662046</v>
+        <v>662068</v>
       </c>
       <c r="D57" t="str">
         <v>Stage_1</v>
@@ -1531,7 +1531,7 @@
         <v>audioclip_sfx_e0046_jp.ab</v>
       </c>
       <c r="C58">
-        <v>3100223</v>
+        <v>3100190</v>
       </c>
       <c r="D58" t="str">
         <v>Stage_1</v>
@@ -1551,7 +1551,7 @@
         <v>audioclip_sfx_e3489_jp.ab</v>
       </c>
       <c r="C59">
-        <v>356923</v>
+        <v>356921</v>
       </c>
       <c r="D59" t="str">
         <v>Stage_1</v>
@@ -1571,7 +1571,7 @@
         <v>audioclip_sfx_e3497_jp.ab</v>
       </c>
       <c r="C60">
-        <v>250848</v>
+        <v>250850</v>
       </c>
       <c r="D60" t="str">
         <v>Stage_1</v>
@@ -1591,7 +1591,7 @@
         <v>audioclip_sfx_e3498_jp.ab</v>
       </c>
       <c r="C61">
-        <v>362038</v>
+        <v>362025</v>
       </c>
       <c r="D61" t="str">
         <v>Stage_1</v>
@@ -1611,7 +1611,7 @@
         <v>audioclip_sfx_e3499_jp.ab</v>
       </c>
       <c r="C62">
-        <v>119659</v>
+        <v>119690</v>
       </c>
       <c r="D62" t="str">
         <v>Stage_1</v>
@@ -1631,7 +1631,7 @@
         <v>audioclip_sfx_e3500_jp.ab</v>
       </c>
       <c r="C63">
-        <v>67578</v>
+        <v>67574</v>
       </c>
       <c r="D63" t="str">
         <v>Stage_1</v>
@@ -1651,7 +1651,7 @@
         <v>audioclip_sfx_h0003_jp.ab</v>
       </c>
       <c r="C64">
-        <v>643322</v>
+        <v>643323</v>
       </c>
       <c r="D64" t="str">
         <v>Stage_1</v>
@@ -1671,7 +1671,7 @@
         <v>audioclip_sfx_h0004_jp.ab</v>
       </c>
       <c r="C65">
-        <v>1029447</v>
+        <v>1029414</v>
       </c>
       <c r="D65" t="str">
         <v>Stage_1</v>
@@ -1691,7 +1691,7 @@
         <v>audioclip_sfx_h0005_jp.ab</v>
       </c>
       <c r="C66">
-        <v>872447</v>
+        <v>872471</v>
       </c>
       <c r="D66" t="str">
         <v>Stage_1</v>
@@ -1711,7 +1711,7 @@
         <v>audioclip_sfx_h0006_jp.ab</v>
       </c>
       <c r="C67">
-        <v>1013601</v>
+        <v>1013649</v>
       </c>
       <c r="D67" t="str">
         <v>Stage_1</v>
@@ -1731,7 +1731,7 @@
         <v>audioclip_sfx_h0007_jp.ab</v>
       </c>
       <c r="C68">
-        <v>678621</v>
+        <v>678574</v>
       </c>
       <c r="D68" t="str">
         <v>Stage_1</v>
@@ -1751,7 +1751,7 @@
         <v>audioclip_sfx_h0008_jp.ab</v>
       </c>
       <c r="C69">
-        <v>349409</v>
+        <v>349443</v>
       </c>
       <c r="D69" t="str">
         <v>Stage_1</v>
@@ -1771,7 +1771,7 @@
         <v>audioclip_sfx_h0009_jp.ab</v>
       </c>
       <c r="C70">
-        <v>453779</v>
+        <v>453799</v>
       </c>
       <c r="D70" t="str">
         <v>Stage_1</v>
@@ -1791,7 +1791,7 @@
         <v>audioclip_sfx_h0010_jp.ab</v>
       </c>
       <c r="C71">
-        <v>1074562</v>
+        <v>1074541</v>
       </c>
       <c r="D71" t="str">
         <v>Stage_1</v>
@@ -1811,7 +1811,7 @@
         <v>audioclip_sfx_h0012_jp.ab</v>
       </c>
       <c r="C72">
-        <v>740111</v>
+        <v>740121</v>
       </c>
       <c r="D72" t="str">
         <v>Stage_1</v>
@@ -1831,7 +1831,7 @@
         <v>audioclip_sfx_h0013_jp.ab</v>
       </c>
       <c r="C73">
-        <v>940878</v>
+        <v>940872</v>
       </c>
       <c r="D73" t="str">
         <v>Stage_1</v>
@@ -1851,7 +1851,7 @@
         <v>audioclip_sfx_h0014_jp.ab</v>
       </c>
       <c r="C74">
-        <v>446592</v>
+        <v>446615</v>
       </c>
       <c r="D74" t="str">
         <v>Stage_1</v>
@@ -1871,7 +1871,7 @@
         <v>audioclip_sfx_h0016_jp.ab</v>
       </c>
       <c r="C75">
-        <v>698674</v>
+        <v>698624</v>
       </c>
       <c r="D75" t="str">
         <v>Stage_1</v>
@@ -1891,7 +1891,7 @@
         <v>audioclip_sfx_h0018_jp.ab</v>
       </c>
       <c r="C76">
-        <v>891809</v>
+        <v>891790</v>
       </c>
       <c r="D76" t="str">
         <v>Stage_1</v>
@@ -1911,7 +1911,7 @@
         <v>audioclip_sfx_h0020_jp.ab</v>
       </c>
       <c r="C77">
-        <v>755853</v>
+        <v>755909</v>
       </c>
       <c r="D77" t="str">
         <v>Stage_1</v>
@@ -1931,7 +1931,7 @@
         <v>audioclip_sfx_h0021_jp.ab</v>
       </c>
       <c r="C78">
-        <v>1196252</v>
+        <v>1196258</v>
       </c>
       <c r="D78" t="str">
         <v>Stage_1</v>
@@ -1951,7 +1951,7 @@
         <v>audioclip_sfx_h0022_jp.ab</v>
       </c>
       <c r="C79">
-        <v>985542</v>
+        <v>985517</v>
       </c>
       <c r="D79" t="str">
         <v>Stage_1</v>
@@ -1971,7 +1971,7 @@
         <v>audioclip_sfx_h0023_jp.ab</v>
       </c>
       <c r="C80">
-        <v>1681292</v>
+        <v>1681373</v>
       </c>
       <c r="D80" t="str">
         <v>Stage_1</v>
@@ -1991,7 +1991,7 @@
         <v>audioclip_sfx_h0024_jp.ab</v>
       </c>
       <c r="C81">
-        <v>1572137</v>
+        <v>1572035</v>
       </c>
       <c r="D81" t="str">
         <v>Stage_1</v>
@@ -2011,7 +2011,7 @@
         <v>audioclip_sfx_h0025_jp.ab</v>
       </c>
       <c r="C82">
-        <v>938012</v>
+        <v>937990</v>
       </c>
       <c r="D82" t="str">
         <v>Stage_1</v>
@@ -2031,7 +2031,7 @@
         <v>audioclip_sfx_h0029_jp.ab</v>
       </c>
       <c r="C83">
-        <v>1291347</v>
+        <v>1291438</v>
       </c>
       <c r="D83" t="str">
         <v>Stage_1</v>
@@ -2051,7 +2051,7 @@
         <v>audioclip_sfx_h0030_jp.ab</v>
       </c>
       <c r="C84">
-        <v>1189248</v>
+        <v>1189221</v>
       </c>
       <c r="D84" t="str">
         <v>Stage_1</v>
@@ -2071,7 +2071,7 @@
         <v>audioclip_sfx_h0031_jp.ab</v>
       </c>
       <c r="C85">
-        <v>1039742</v>
+        <v>1039694</v>
       </c>
       <c r="D85" t="str">
         <v>Stage_1</v>
@@ -2091,7 +2091,7 @@
         <v>audioclip_sfx_h0035_jp.ab</v>
       </c>
       <c r="C86">
-        <v>785941</v>
+        <v>785973</v>
       </c>
       <c r="D86" t="str">
         <v>Stage_1</v>
@@ -2111,7 +2111,7 @@
         <v>audioclip_sfx_h0036_jp.ab</v>
       </c>
       <c r="C87">
-        <v>743615</v>
+        <v>743631</v>
       </c>
       <c r="D87" t="str">
         <v>Stage_1</v>
@@ -2131,7 +2131,7 @@
         <v>audioclip_sfx_h0038_jp.ab</v>
       </c>
       <c r="C88">
-        <v>611353</v>
+        <v>611344</v>
       </c>
       <c r="D88" t="str">
         <v>Stage_1</v>
@@ -2151,7 +2151,7 @@
         <v>audioclip_sfx_h0040_jp.ab</v>
       </c>
       <c r="C89">
-        <v>587162</v>
+        <v>587188</v>
       </c>
       <c r="D89" t="str">
         <v>Stage_1</v>
@@ -2171,7 +2171,7 @@
         <v>audioclip_sfx_h0041_jp.ab</v>
       </c>
       <c r="C90">
-        <v>525468</v>
+        <v>525473</v>
       </c>
       <c r="D90" t="str">
         <v>Stage_1</v>
@@ -2191,7 +2191,7 @@
         <v>audioclip_sfx_h0042_jp.ab</v>
       </c>
       <c r="C91">
-        <v>955385</v>
+        <v>955417</v>
       </c>
       <c r="D91" t="str">
         <v>Stage_1</v>
@@ -2211,7 +2211,7 @@
         <v>audioclip_sfx_h0043_jp.ab</v>
       </c>
       <c r="C92">
-        <v>2421243</v>
+        <v>2421209</v>
       </c>
       <c r="D92" t="str">
         <v>Stage_1</v>
@@ -2231,7 +2231,7 @@
         <v>audioclip_sfx_h0044_jp.ab</v>
       </c>
       <c r="C93">
-        <v>619205</v>
+        <v>619223</v>
       </c>
       <c r="D93" t="str">
         <v>Stage_1</v>
@@ -2251,7 +2251,7 @@
         <v>audioclip_sfx_h0045_jp.ab</v>
       </c>
       <c r="C94">
-        <v>538574</v>
+        <v>538549</v>
       </c>
       <c r="D94" t="str">
         <v>Stage_1</v>
@@ -2271,7 +2271,7 @@
         <v>audioclip_sfx_h0047_jp.ab</v>
       </c>
       <c r="C95">
-        <v>5025127</v>
+        <v>5024924</v>
       </c>
       <c r="D95" t="str">
         <v>Stage_1</v>
@@ -2291,7 +2291,7 @@
         <v>audioclip_sfx_h0048_jp.ab</v>
       </c>
       <c r="C96">
-        <v>1635043</v>
+        <v>1635054</v>
       </c>
       <c r="D96" t="str">
         <v>Stage_1</v>
@@ -2311,7 +2311,7 @@
         <v>audioclip_sfx_h0073_jp.ab</v>
       </c>
       <c r="C97">
-        <v>276293</v>
+        <v>276301</v>
       </c>
       <c r="D97" t="str">
         <v>Stage_1</v>
@@ -2331,7 +2331,7 @@
         <v>audioclip_sfx_h0097_jp.ab</v>
       </c>
       <c r="C98">
-        <v>1504204</v>
+        <v>1504244</v>
       </c>
       <c r="D98" t="str">
         <v>Stage_1</v>
@@ -2371,7 +2371,7 @@
         <v>audioclip_sfx_h0133_jp.ab</v>
       </c>
       <c r="C100">
-        <v>1334024</v>
+        <v>1333984</v>
       </c>
       <c r="D100" t="str">
         <v>Stage_1</v>
@@ -2391,7 +2391,7 @@
         <v>audioclip_sfx_h0134_jp.ab</v>
       </c>
       <c r="C101">
-        <v>1204314</v>
+        <v>1204320</v>
       </c>
       <c r="D101" t="str">
         <v>Stage_1</v>
@@ -2411,7 +2411,7 @@
         <v>audioclip_sfx_h0135_jp.ab</v>
       </c>
       <c r="C102">
-        <v>2285405</v>
+        <v>2285374</v>
       </c>
       <c r="D102" t="str">
         <v>Stage_1</v>
@@ -2431,7 +2431,7 @@
         <v>audioclip_sfx_h0136_jp.ab</v>
       </c>
       <c r="C103">
-        <v>1260468</v>
+        <v>1260444</v>
       </c>
       <c r="D103" t="str">
         <v>Stage_1</v>
@@ -2451,7 +2451,7 @@
         <v>audioclip_sfx_h0137_jp.ab</v>
       </c>
       <c r="C104">
-        <v>2046307</v>
+        <v>2046321</v>
       </c>
       <c r="D104" t="str">
         <v>Stage_1</v>
@@ -2471,7 +2471,7 @@
         <v>audioclip_sfx_h0138_jp.ab</v>
       </c>
       <c r="C105">
-        <v>1236798</v>
+        <v>1236813</v>
       </c>
       <c r="D105" t="str">
         <v>Stage_1</v>
@@ -2491,7 +2491,7 @@
         <v>audioclip_sfx_h0150_jp.ab</v>
       </c>
       <c r="C106">
-        <v>2757243</v>
+        <v>2757238</v>
       </c>
       <c r="D106" t="str">
         <v>Stage_1</v>
@@ -2511,7 +2511,7 @@
         <v>audioclip_sfx_h0151_jp.ab</v>
       </c>
       <c r="C107">
-        <v>1924693</v>
+        <v>1924637</v>
       </c>
       <c r="D107" t="str">
         <v>Stage_1</v>
@@ -2531,7 +2531,7 @@
         <v>audioclip_sfx_h0152_jp.ab</v>
       </c>
       <c r="C108">
-        <v>1987347</v>
+        <v>1987443</v>
       </c>
       <c r="D108" t="str">
         <v>Stage_1</v>
@@ -2551,7 +2551,7 @@
         <v>audioclip_sfx_h0154_jp.ab</v>
       </c>
       <c r="C109">
-        <v>1928567</v>
+        <v>1928542</v>
       </c>
       <c r="D109" t="str">
         <v>Stage_1</v>
@@ -2571,7 +2571,7 @@
         <v>audioclip_sfx_h0157_jp.ab</v>
       </c>
       <c r="C110">
-        <v>1498194</v>
+        <v>1498050</v>
       </c>
       <c r="D110" t="str">
         <v>Stage_1</v>
@@ -2591,7 +2591,7 @@
         <v>audioclip_sfx_h0159_jp.ab</v>
       </c>
       <c r="C111">
-        <v>1893094</v>
+        <v>1893109</v>
       </c>
       <c r="D111" t="str">
         <v>Stage_1</v>
@@ -2611,7 +2611,7 @@
         <v>audioclip_sfx_h0161_jp.ab</v>
       </c>
       <c r="C112">
-        <v>1944107</v>
+        <v>1944093</v>
       </c>
       <c r="D112" t="str">
         <v>Stage_1</v>
@@ -2631,7 +2631,7 @@
         <v>audioclip_sfx_h0163_jp.ab</v>
       </c>
       <c r="C113">
-        <v>1305053</v>
+        <v>1305090</v>
       </c>
       <c r="D113" t="str">
         <v>Stage_1</v>
@@ -2651,7 +2651,7 @@
         <v>audioclip_sfx_h0164_jp.ab</v>
       </c>
       <c r="C114">
-        <v>966703</v>
+        <v>966727</v>
       </c>
       <c r="D114" t="str">
         <v>Stage_1</v>
@@ -2671,7 +2671,7 @@
         <v>audioclip_sfx_h0165_jp.ab</v>
       </c>
       <c r="C115">
-        <v>1022198</v>
+        <v>1022232</v>
       </c>
       <c r="D115" t="str">
         <v>Stage_1</v>
@@ -2691,7 +2691,7 @@
         <v>audioclip_sfx_h0166_jp.ab</v>
       </c>
       <c r="C116">
-        <v>735096</v>
+        <v>735092</v>
       </c>
       <c r="D116" t="str">
         <v>Stage_1</v>
@@ -2711,7 +2711,7 @@
         <v>audioclip_sfx_h0167_jp.ab</v>
       </c>
       <c r="C117">
-        <v>884677</v>
+        <v>884618</v>
       </c>
       <c r="D117" t="str">
         <v>Stage_1</v>
@@ -2731,7 +2731,7 @@
         <v>audioclip_sfx_h0168_jp.ab</v>
       </c>
       <c r="C118">
-        <v>747232</v>
+        <v>747179</v>
       </c>
       <c r="D118" t="str">
         <v>Stage_1</v>
@@ -2751,7 +2751,7 @@
         <v>audioclip_sfx_h0169_jp.ab</v>
       </c>
       <c r="C119">
-        <v>929587</v>
+        <v>929632</v>
       </c>
       <c r="D119" t="str">
         <v>Stage_1</v>
@@ -2771,7 +2771,7 @@
         <v>audioclip_sfx_h0170_jp.ab</v>
       </c>
       <c r="C120">
-        <v>1438186</v>
+        <v>1438167</v>
       </c>
       <c r="D120" t="str">
         <v>Stage_1</v>
@@ -2791,7 +2791,7 @@
         <v>audioclip_sfx_h0171_jp.ab</v>
       </c>
       <c r="C121">
-        <v>1738270</v>
+        <v>1738230</v>
       </c>
       <c r="D121" t="str">
         <v>Stage_1</v>
@@ -2811,7 +2811,7 @@
         <v>audioclip_sfx_h0172_jp.ab</v>
       </c>
       <c r="C122">
-        <v>1379887</v>
+        <v>1379820</v>
       </c>
       <c r="D122" t="str">
         <v>Stage_1</v>
@@ -2831,7 +2831,7 @@
         <v>audioclip_sfx_h0174_jp.ab</v>
       </c>
       <c r="C123">
-        <v>1668210</v>
+        <v>1668132</v>
       </c>
       <c r="D123" t="str">
         <v>Stage_1</v>
@@ -2851,7 +2851,7 @@
         <v>audioclip_sfx_h0175_jp.ab</v>
       </c>
       <c r="C124">
-        <v>1253482</v>
+        <v>1253526</v>
       </c>
       <c r="D124" t="str">
         <v>Stage_1</v>
@@ -2871,7 +2871,7 @@
         <v>audioclip_sfx_h0176_jp.ab</v>
       </c>
       <c r="C125">
-        <v>978056</v>
+        <v>978118</v>
       </c>
       <c r="D125" t="str">
         <v>Stage_1</v>
@@ -2891,7 +2891,7 @@
         <v>audioclip_sfx_h0177_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1465820</v>
+        <v>1465882</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2911,7 +2911,7 @@
         <v>audioclip_sfx_h0179_jp.ab</v>
       </c>
       <c r="C127">
-        <v>1838011</v>
+        <v>1838069</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2931,7 +2931,7 @@
         <v>audioclip_sfx_h0183_jp.ab</v>
       </c>
       <c r="C128">
-        <v>2273862</v>
+        <v>2273760</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2951,7 +2951,7 @@
         <v>audioclip_sfx_h0185_jp.ab</v>
       </c>
       <c r="C129">
-        <v>1563965</v>
+        <v>1563882</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2971,7 +2971,7 @@
         <v>audioclip_sfx_h0186_jp.ab</v>
       </c>
       <c r="C130">
-        <v>1892957</v>
+        <v>1893027</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2991,7 +2991,7 @@
         <v>audioclip_sfx_h0190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>2643018</v>
+        <v>2643119</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3011,7 +3011,7 @@
         <v>audioclip_sfx_h0191_jp.ab</v>
       </c>
       <c r="C132">
-        <v>565267</v>
+        <v>565236</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3031,7 +3031,7 @@
         <v>audioclip_sfx_h0192_jp.ab</v>
       </c>
       <c r="C133">
-        <v>817948</v>
+        <v>817905</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3051,7 +3051,7 @@
         <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C134">
-        <v>1562434</v>
+        <v>1562419</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3071,7 +3071,7 @@
         <v>audioclip_sfx_h0194_jp.ab</v>
       </c>
       <c r="C135">
-        <v>710861</v>
+        <v>710886</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3091,7 +3091,7 @@
         <v>audioclip_sfx_h0196_jp.ab</v>
       </c>
       <c r="C136">
-        <v>1046812</v>
+        <v>1046748</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3111,7 +3111,7 @@
         <v>audioclip_sfx_h0197_jp.ab</v>
       </c>
       <c r="C137">
-        <v>877460</v>
+        <v>877445</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3131,7 +3131,7 @@
         <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1081019</v>
+        <v>1081002</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3151,7 +3151,7 @@
         <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C139">
-        <v>922796</v>
+        <v>922855</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3171,7 +3171,7 @@
         <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C140">
-        <v>677193</v>
+        <v>677154</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3191,7 +3191,7 @@
         <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C141">
-        <v>810571</v>
+        <v>810506</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3211,7 +3211,7 @@
         <v>audioclip_sfx_h0203_jp.ab</v>
       </c>
       <c r="C142">
-        <v>967994</v>
+        <v>968057</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3371,7 +3371,7 @@
         <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C150">
-        <v>274141</v>
+        <v>274116</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3391,7 +3391,7 @@
         <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C151">
-        <v>220277</v>
+        <v>220291</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3411,7 +3411,7 @@
         <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C152">
-        <v>95937</v>
+        <v>95942</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3431,7 +3431,7 @@
         <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1390714</v>
+        <v>1390747</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3451,7 +3451,7 @@
         <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C154">
-        <v>4141815</v>
+        <v>4141773</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3471,7 +3471,7 @@
         <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1438360</v>
+        <v>1438284</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3491,7 +3491,7 @@
         <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1066356</v>
+        <v>1066426</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3511,7 +3511,7 @@
         <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C157">
-        <v>883191</v>
+        <v>883198</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3531,7 +3531,7 @@
         <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C158">
-        <v>903958</v>
+        <v>903934</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3551,7 +3551,7 @@
         <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1396253</v>
+        <v>1396239</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3571,7 +3571,7 @@
         <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C160">
-        <v>995093</v>
+        <v>995133</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3591,7 +3591,7 @@
         <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1222449</v>
+        <v>1222446</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3611,7 +3611,7 @@
         <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C162">
-        <v>694988</v>
+        <v>694931</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3631,7 +3631,7 @@
         <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C163">
-        <v>3816643</v>
+        <v>3816619</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3651,7 +3651,7 @@
         <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1950972</v>
+        <v>1950959</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3671,7 +3671,7 @@
         <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2974110</v>
+        <v>2974182</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3691,7 +3691,7 @@
         <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C166">
-        <v>1992972</v>
+        <v>1992937</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3711,7 +3711,7 @@
         <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C167">
-        <v>2340715</v>
+        <v>2340668</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3731,7 +3731,7 @@
         <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1950991</v>
+        <v>1951009</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3751,7 +3751,7 @@
         <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C169">
-        <v>2411041</v>
+        <v>2411004</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3771,7 +3771,7 @@
         <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C170">
-        <v>2120061</v>
+        <v>2119965</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3791,7 +3791,7 @@
         <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C171">
-        <v>1952778</v>
+        <v>1952741</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3811,7 +3811,7 @@
         <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C172">
-        <v>1736026</v>
+        <v>1735957</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3831,7 +3831,7 @@
         <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C173">
-        <v>2460158</v>
+        <v>2460205</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3851,7 +3851,7 @@
         <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C174">
-        <v>1973746</v>
+        <v>1973756</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3871,7 +3871,7 @@
         <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C175">
-        <v>2403903</v>
+        <v>2403876</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3971,7 +3971,7 @@
         <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C180">
-        <v>316222</v>
+        <v>316231</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3991,7 +3991,7 @@
         <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C181">
-        <v>164048</v>
+        <v>164052</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4011,7 +4011,7 @@
         <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C182">
-        <v>214576</v>
+        <v>214575</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4031,7 +4031,7 @@
         <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C183">
-        <v>310401</v>
+        <v>310384</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4051,7 +4051,7 @@
         <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C184">
-        <v>288960</v>
+        <v>288941</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4071,7 +4071,7 @@
         <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C185">
-        <v>270576</v>
+        <v>270597</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>

--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F305</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F307</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F305"/>
+  <dimension ref="A1:F307"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="C150">
-        <v>274116</v>
+        <v>1031304</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
+        <v>76f90c57f1b3b8f107a6a52a4eab7e7733623a4c6adcfdaafa0b2b22298922c7</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C151">
-        <v>220291</v>
+        <v>274116</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C152">
-        <v>95942</v>
+        <v>220291</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C153">
-        <v>1390747</v>
+        <v>95942</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C154">
-        <v>4141773</v>
+        <v>1390747</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C155">
-        <v>1438284</v>
+        <v>4141773</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1066426</v>
+        <v>1438284</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C157">
-        <v>883198</v>
+        <v>1066426</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C158">
-        <v>903934</v>
+        <v>883198</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1396239</v>
+        <v>903934</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C160">
-        <v>995133</v>
+        <v>1396239</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C161">
-        <v>1222446</v>
+        <v>995133</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C162">
-        <v>694931</v>
+        <v>1222446</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C163">
-        <v>3816619</v>
+        <v>694931</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1950959</v>
+        <v>3816619</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C165">
-        <v>2974182</v>
+        <v>1950959</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C166">
-        <v>1992937</v>
+        <v>2974182</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C167">
-        <v>2340668</v>
+        <v>1992937</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C168">
-        <v>1951009</v>
+        <v>2340668</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C169">
-        <v>2411004</v>
+        <v>1951009</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C170">
-        <v>2119965</v>
+        <v>2411004</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
+        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C171">
-        <v>1952741</v>
+        <v>2119965</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C172">
-        <v>1735957</v>
+        <v>1952741</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C173">
-        <v>2460205</v>
+        <v>1735957</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C174">
-        <v>1973756</v>
+        <v>2460205</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C175">
-        <v>2403876</v>
+        <v>1973756</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C176">
-        <v>1290319</v>
+        <v>2403876</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C177">
-        <v>940748</v>
+        <v>1290319</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C178">
-        <v>1484252</v>
+        <v>940748</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C179">
-        <v>1202892</v>
+        <v>1484252</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C180">
-        <v>316231</v>
+        <v>1202892</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C181">
-        <v>164052</v>
+        <v>316231</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C182">
-        <v>214575</v>
+        <v>164052</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C183">
-        <v>310384</v>
+        <v>214575</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C184">
-        <v>288941</v>
+        <v>310384</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C185">
-        <v>270597</v>
+        <v>288941</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C186">
-        <v>2427621</v>
+        <v>270597</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C187">
-        <v>2483491</v>
+        <v>2427621</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
+        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C188">
-        <v>2480824</v>
+        <v>2483491</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
+        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C189">
-        <v>2425865</v>
+        <v>2480824</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
+        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C190">
-        <v>719220</v>
+        <v>2425865</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
+        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C191">
-        <v>2665114</v>
+        <v>719220</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
+        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C192">
-        <v>677862</v>
+        <v>2665114</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
+        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C193">
-        <v>148141</v>
+        <v>677862</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
+        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C194">
-        <v>2369924</v>
+        <v>148141</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
+        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C195">
-        <v>2751802</v>
+        <v>2369924</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
+        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C196">
-        <v>2446728</v>
+        <v>2751802</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
+        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C197">
-        <v>2463327</v>
+        <v>2446728</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
+        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C198">
-        <v>651307</v>
+        <v>2463327</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
+        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C199">
-        <v>561312</v>
+        <v>651307</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
+        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C200">
-        <v>726451</v>
+        <v>561312</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
+        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C201">
-        <v>2962837</v>
+        <v>726451</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
+        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C202">
-        <v>739681</v>
+        <v>2962837</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
+        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C203">
-        <v>576970</v>
+        <v>739681</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
+        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C204">
-        <v>736669</v>
+        <v>576970</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
+        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C205">
-        <v>559888</v>
+        <v>736669</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
+        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C206">
-        <v>2475343</v>
+        <v>559888</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
+        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C207">
-        <v>2900414</v>
+        <v>2475343</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
+        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C208">
-        <v>3263699</v>
+        <v>2900414</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
+        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C209">
-        <v>3380874</v>
+        <v>3263699</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
+        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C210">
-        <v>2529038</v>
+        <v>3380874</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
+        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C211">
-        <v>2602264</v>
+        <v>2529038</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
+        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C212">
-        <v>2355620</v>
+        <v>2602264</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
+        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C213">
-        <v>2947535</v>
+        <v>2355620</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
+        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C214">
-        <v>2154552</v>
+        <v>2947535</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
+        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C215">
-        <v>2372246</v>
+        <v>2154552</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
+        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C216">
-        <v>3087325</v>
+        <v>2372246</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
+        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C217">
-        <v>2253985</v>
+        <v>3087325</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
+        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C218">
-        <v>799706</v>
+        <v>2253985</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
+        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C219">
-        <v>696705</v>
+        <v>799706</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
+        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C220">
-        <v>684156</v>
+        <v>696705</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
+        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C221">
-        <v>744489</v>
+        <v>684156</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
+        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C222">
-        <v>2629522</v>
+        <v>744489</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>56cc7f8271cba4559eb11c30ae0c3721beb06ed7343a23ef9fdd7eaec0083664</v>
+        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C223">
-        <v>704035</v>
+        <v>3390147</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
+        <v>cce228cb0a765ced9f4cffdaca391008a5143fc1fb79a47f0a7bc9a33927ddc8</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C224">
-        <v>2895821</v>
+        <v>704035</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>8b8932183ab82b6d234f672db3367c380fe70953b4ed998f50b023fcff508b94</v>
+        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C225">
-        <v>1957083</v>
+        <v>2895821</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
+        <v>8b8932183ab82b6d234f672db3367c380fe70953b4ed998f50b023fcff508b94</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C226">
-        <v>3131566</v>
+        <v>1957083</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
+        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C227">
-        <v>3415142</v>
+        <v>3131566</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
+        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C228">
-        <v>1804269</v>
+        <v>3415142</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
+        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C229">
-        <v>2832480</v>
+        <v>1804269</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
+        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C230">
-        <v>1855243</v>
+        <v>2832480</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
+        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C231">
-        <v>4395901</v>
+        <v>1855243</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
+        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C232">
-        <v>2719005</v>
+        <v>4395901</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
+        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C233">
-        <v>2700800</v>
+        <v>2719005</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
+        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C234">
-        <v>1746954</v>
+        <v>2700800</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
+        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C235">
-        <v>1807060</v>
+        <v>1746954</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
+        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C236">
-        <v>1897916</v>
+        <v>1807060</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
+        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C237">
-        <v>2687127</v>
+        <v>1897916</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
+        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C238">
-        <v>1936819</v>
+        <v>2687127</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
+        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C239">
-        <v>3426748</v>
+        <v>1936819</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
+        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C240">
-        <v>572490</v>
+        <v>3426748</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
+        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C241">
-        <v>1645805</v>
+        <v>572490</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
+        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C242">
-        <v>586768</v>
+        <v>1645805</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
+        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C243">
-        <v>777845</v>
+        <v>586768</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
+        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C244">
-        <v>684860</v>
+        <v>777845</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
+        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C245">
-        <v>824610</v>
+        <v>684860</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
+        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C246">
-        <v>771453</v>
+        <v>824610</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
+        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C247">
-        <v>790507</v>
+        <v>771453</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
+        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C248">
-        <v>726300</v>
+        <v>790507</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
+        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C249">
-        <v>707991</v>
+        <v>726300</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
+        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C250">
-        <v>622834</v>
+        <v>707991</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
+        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C251">
-        <v>732380</v>
+        <v>622834</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
+        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C252">
-        <v>729250</v>
+        <v>732380</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
+        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C253">
-        <v>822341</v>
+        <v>729250</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
+        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C254">
-        <v>677985</v>
+        <v>822341</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
+        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C255">
-        <v>2749662</v>
+        <v>677985</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
+        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C256">
-        <v>2067781</v>
+        <v>2749662</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
+        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C257">
-        <v>2069193</v>
+        <v>2067781</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
+        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C258">
-        <v>1773283</v>
+        <v>2069193</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>4c09696cb3b2ba00b890aa08019410cef2c73255380ed974826bcac02956ddc9</v>
+        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C259">
-        <v>2134450</v>
+        <v>2552695</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
+        <v>4c1fc19e790077faab874800d94de0d1d9ba22b30e00d23b016615d6735468e0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C260">
-        <v>734211</v>
+        <v>2134450</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
+        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C261">
-        <v>718743</v>
+        <v>734211</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
+        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C262">
-        <v>657606</v>
+        <v>718743</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
+        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C263">
-        <v>627572</v>
+        <v>657606</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
+        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C264">
-        <v>763856</v>
+        <v>627572</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
+        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C265">
-        <v>723672</v>
+        <v>763856</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
+        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C266">
-        <v>714014</v>
+        <v>723672</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
+        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C267">
-        <v>637743</v>
+        <v>714014</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
+        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C268">
-        <v>780991</v>
+        <v>637743</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
+        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C269">
-        <v>805855</v>
+        <v>780991</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
+        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C270">
-        <v>781334</v>
+        <v>805855</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
+        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C271">
-        <v>704983</v>
+        <v>781334</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
+        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C272">
-        <v>785511</v>
+        <v>704983</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
+        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C273">
-        <v>815817</v>
+        <v>785511</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
+        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C274">
-        <v>706075</v>
+        <v>815817</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
+        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C275">
-        <v>641687</v>
+        <v>706075</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
+        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C276">
-        <v>613287</v>
+        <v>641687</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>00430928152114c2b9da4c9b5ddb3183d118c7d71cc6b70d459a9d34813211fa</v>
+        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="C277">
-        <v>710342</v>
+        <v>613287</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>0c557431ff6648f32755cfd3427894308fd8cbb5e2c31fc247d6ba298c4c6575</v>
+        <v>00430928152114c2b9da4c9b5ddb3183d118c7d71cc6b70d459a9d34813211fa</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="C278">
-        <v>2759541</v>
+        <v>710342</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
+        <v>0c557431ff6648f32755cfd3427894308fd8cbb5e2c31fc247d6ba298c4c6575</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="C279">
-        <v>2163097</v>
+        <v>641341</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
+        <v>97af8db1a832d8d7bfd63b088849ae309ba6a9fd180f20dd29d4a94baf81445a</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C280">
-        <v>2034727</v>
+        <v>2759541</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
+        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C281">
-        <v>775654</v>
+        <v>2163097</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
+        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C282">
-        <v>806550</v>
+        <v>2034727</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
+        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C283">
-        <v>3872071</v>
+        <v>775654</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
+        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C284">
-        <v>2616770</v>
+        <v>806550</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
+        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C285">
-        <v>2307872</v>
+        <v>3872071</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
+        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C286">
-        <v>2603916</v>
+        <v>2616770</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
+        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C287">
-        <v>2286765</v>
+        <v>2307872</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
+        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C288">
-        <v>693998</v>
+        <v>2603916</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
+        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C289">
-        <v>631454</v>
+        <v>2286765</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
+        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C290">
-        <v>1586889</v>
+        <v>693998</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6180,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
+        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C291">
-        <v>1718936</v>
+        <v>631454</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
+        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C292">
-        <v>2648574</v>
+        <v>1586889</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,18 +6220,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
+        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C293">
-        <v>1947775</v>
+        <v>1718936</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6240,18 +6240,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
+        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C294">
-        <v>3511110</v>
+        <v>2648574</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6260,18 +6260,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
+        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C295">
-        <v>1989757</v>
+        <v>1947775</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6280,18 +6280,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
+        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C296">
-        <v>2278082</v>
+        <v>3511110</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6300,18 +6300,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>e34d8efde5544b456853eeee89fb95f5b8cecb103248ba1cfb0a42e472ef3a80</v>
+        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C297">
-        <v>1672877</v>
+        <v>1989757</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6320,18 +6320,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>6bf66b2458a666cd1ab33f15f2da92311fa21c091d01693c74d4d22fbcf0261c</v>
+        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C298">
-        <v>2018104</v>
+        <v>2278082</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6340,18 +6340,18 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>da5eff98dbf1b567db0786d63dede50b6e8c5f8afa85b511156b57bc7ae4b413</v>
+        <v>e34d8efde5544b456853eeee89fb95f5b8cecb103248ba1cfb0a42e472ef3a80</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B299" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C299">
-        <v>1986452</v>
+        <v>1672877</v>
       </c>
       <c r="D299" t="str">
         <v>Stage_1</v>
@@ -6360,18 +6360,18 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>2a3646d34f329e0f6e43fa29282deefba2d7d52b1318339bfdb08e661f5c9a4b</v>
+        <v>6bf66b2458a666cd1ab33f15f2da92311fa21c091d01693c74d4d22fbcf0261c</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B300" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C300">
-        <v>1996254</v>
+        <v>2018104</v>
       </c>
       <c r="D300" t="str">
         <v>Stage_1</v>
@@ -6380,18 +6380,18 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>e8cd81a03801634fff9f0bb2b3972ff0c36cdb72efc084ef4635d62b578ff334</v>
+        <v>da5eff98dbf1b567db0786d63dede50b6e8c5f8afa85b511156b57bc7ae4b413</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B301" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C301">
-        <v>2760079</v>
+        <v>1986452</v>
       </c>
       <c r="D301" t="str">
         <v>Stage_1</v>
@@ -6400,18 +6400,18 @@
         <v>0</v>
       </c>
       <c r="F301" t="str">
-        <v>714b5555bfd7d920ab44efe3dc261a9cfdba1f4b6e509b797517148318ebf103</v>
+        <v>2a3646d34f329e0f6e43fa29282deefba2d7d52b1318339bfdb08e661f5c9a4b</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B302" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C302">
-        <v>804205</v>
+        <v>1996254</v>
       </c>
       <c r="D302" t="str">
         <v>Stage_1</v>
@@ -6420,18 +6420,18 @@
         <v>0</v>
       </c>
       <c r="F302" t="str">
-        <v>f48f68c7957e35e5e15e49feb475cb2c4fa983f8232db3355516bf813be8ef00</v>
+        <v>e8cd81a03801634fff9f0bb2b3972ff0c36cdb72efc084ef4635d62b578ff334</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="B303" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C303">
-        <v>688167</v>
+        <v>2760079</v>
       </c>
       <c r="D303" t="str">
         <v>Stage_1</v>
@@ -6440,18 +6440,18 @@
         <v>0</v>
       </c>
       <c r="F303" t="str">
-        <v>20072ba4491ec0a6889f7a034d6ecdad6611678e68bef2245653ba356c155a77</v>
+        <v>714b5555bfd7d920ab44efe3dc261a9cfdba1f4b6e509b797517148318ebf103</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="B304" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C304">
-        <v>841779</v>
+        <v>804205</v>
       </c>
       <c r="D304" t="str">
         <v>Stage_1</v>
@@ -6460,33 +6460,73 @@
         <v>0</v>
       </c>
       <c r="F304" t="str">
-        <v>384cc234bc848d88c3493bb6d581b453fef90ff6149ca75cee2081a239829486</v>
+        <v>f48f68c7957e35e5e15e49feb475cb2c4fa983f8232db3355516bf813be8ef00</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="B305" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="C305">
+        <v>688167</v>
+      </c>
+      <c r="D305" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305" t="str">
+        <v>20072ba4491ec0a6889f7a034d6ecdad6611678e68bef2245653ba356c155a77</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="B306" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="C306">
+        <v>841779</v>
+      </c>
+      <c r="D306" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306" t="str">
+        <v>384cc234bc848d88c3493bb6d581b453fef90ff6149ca75cee2081a239829486</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="B305" t="str">
+      <c r="B307" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="C305">
+      <c r="C307">
         <v>729041</v>
       </c>
-      <c r="D305" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E305">
-        <v>0</v>
-      </c>
-      <c r="F305" t="str">
+      <c r="D307" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" t="str">
         <v>b6e4e9aa6a854ead5306d8fac272a8fa05c73655bd9e5d175c61efed7a45463e</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F305"/>
+  <autoFilter ref="A1:F307"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F305"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F307"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F307</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F309</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F307"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3385,13 +3385,13 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C151">
-        <v>274116</v>
+        <v>293419</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
+        <v>c695027281588c7a8e0f1dafc814a9d705288eb94d819b546e3792495b24860d</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C152">
-        <v>220291</v>
+        <v>357044</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
+        <v>137a0f8ae7e62f4115c8f409364f207a6b987339691879f68f8e6b76e01b5e00</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C153">
-        <v>95942</v>
+        <v>274116</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C154">
-        <v>1390747</v>
+        <v>220291</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C155">
-        <v>4141773</v>
+        <v>95942</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1438284</v>
+        <v>1390747</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C157">
-        <v>1066426</v>
+        <v>4141773</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C158">
-        <v>883198</v>
+        <v>1438284</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C159">
-        <v>903934</v>
+        <v>1066426</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C160">
-        <v>1396239</v>
+        <v>883198</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C161">
-        <v>995133</v>
+        <v>903934</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1222446</v>
+        <v>1396239</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C163">
-        <v>694931</v>
+        <v>995133</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C164">
-        <v>3816619</v>
+        <v>1222446</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C165">
-        <v>1950959</v>
+        <v>694931</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C166">
-        <v>2974182</v>
+        <v>3816619</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C167">
-        <v>1992937</v>
+        <v>1950959</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2340668</v>
+        <v>2974182</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1951009</v>
+        <v>1992937</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C170">
-        <v>2411004</v>
+        <v>2340668</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C171">
-        <v>2119965</v>
+        <v>1951009</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C172">
-        <v>1952741</v>
+        <v>2411004</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
+        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C173">
-        <v>1735957</v>
+        <v>2119965</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C174">
-        <v>2460205</v>
+        <v>1952741</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C175">
-        <v>1973756</v>
+        <v>1735957</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C176">
-        <v>2403876</v>
+        <v>2460205</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C177">
-        <v>1290319</v>
+        <v>1973756</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C178">
-        <v>940748</v>
+        <v>2403876</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C179">
-        <v>1484252</v>
+        <v>1290319</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C180">
-        <v>1202892</v>
+        <v>940748</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C181">
-        <v>316231</v>
+        <v>1484252</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C182">
-        <v>164052</v>
+        <v>1202892</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C183">
-        <v>214575</v>
+        <v>316231</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C184">
-        <v>310384</v>
+        <v>164052</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C185">
-        <v>288941</v>
+        <v>214575</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C186">
-        <v>270597</v>
+        <v>310384</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C187">
-        <v>2427621</v>
+        <v>288941</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C188">
-        <v>2483491</v>
+        <v>270597</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C189">
-        <v>2480824</v>
+        <v>2427621</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
+        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C190">
-        <v>2425865</v>
+        <v>2483491</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
+        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C191">
-        <v>719220</v>
+        <v>2480824</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
+        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C192">
-        <v>2665114</v>
+        <v>2425865</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
+        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C193">
-        <v>677862</v>
+        <v>719220</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
+        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C194">
-        <v>148141</v>
+        <v>2665114</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
+        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C195">
-        <v>2369924</v>
+        <v>677862</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
+        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C196">
-        <v>2751802</v>
+        <v>148141</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
+        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C197">
-        <v>2446728</v>
+        <v>2369924</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
+        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C198">
-        <v>2463327</v>
+        <v>2751802</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
+        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C199">
-        <v>651307</v>
+        <v>2446728</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
+        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C200">
-        <v>561312</v>
+        <v>2463327</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
+        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C201">
-        <v>726451</v>
+        <v>651307</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
+        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C202">
-        <v>2962837</v>
+        <v>561312</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
+        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C203">
-        <v>739681</v>
+        <v>726451</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
+        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C204">
-        <v>576970</v>
+        <v>2962837</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
+        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C205">
-        <v>736669</v>
+        <v>739681</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
+        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C206">
-        <v>559888</v>
+        <v>576970</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
+        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C207">
-        <v>2475343</v>
+        <v>736669</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
+        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C208">
-        <v>2900414</v>
+        <v>559888</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
+        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C209">
-        <v>3263699</v>
+        <v>2475343</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
+        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C210">
-        <v>3380874</v>
+        <v>2900414</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
+        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C211">
-        <v>2529038</v>
+        <v>3263699</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
+        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C212">
-        <v>2602264</v>
+        <v>3380874</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
+        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C213">
-        <v>2355620</v>
+        <v>2529038</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
+        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C214">
-        <v>2947535</v>
+        <v>2602264</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
+        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C215">
-        <v>2154552</v>
+        <v>2355620</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
+        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C216">
-        <v>2372246</v>
+        <v>2947535</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
+        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C217">
-        <v>3087325</v>
+        <v>2154552</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
+        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C218">
-        <v>2253985</v>
+        <v>2372246</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
+        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C219">
-        <v>799706</v>
+        <v>3087325</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
+        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C220">
-        <v>696705</v>
+        <v>2253985</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
+        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C221">
-        <v>684156</v>
+        <v>799706</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
+        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C222">
-        <v>744489</v>
+        <v>696705</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
+        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C223">
-        <v>3390147</v>
+        <v>684156</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>cce228cb0a765ced9f4cffdaca391008a5143fc1fb79a47f0a7bc9a33927ddc8</v>
+        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C224">
-        <v>704035</v>
+        <v>744489</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
+        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C225">
-        <v>2895821</v>
+        <v>3390147</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>8b8932183ab82b6d234f672db3367c380fe70953b4ed998f50b023fcff508b94</v>
+        <v>cce228cb0a765ced9f4cffdaca391008a5143fc1fb79a47f0a7bc9a33927ddc8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C226">
-        <v>1957083</v>
+        <v>704035</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
+        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C227">
-        <v>3131566</v>
+        <v>2895821</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
+        <v>8b8932183ab82b6d234f672db3367c380fe70953b4ed998f50b023fcff508b94</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C228">
-        <v>3415142</v>
+        <v>1957083</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
+        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C229">
-        <v>1804269</v>
+        <v>3131566</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
+        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C230">
-        <v>2832480</v>
+        <v>3415142</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
+        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C231">
-        <v>1855243</v>
+        <v>1804269</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
+        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C232">
-        <v>4395901</v>
+        <v>2832480</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
+        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C233">
-        <v>2719005</v>
+        <v>1855243</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
+        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C234">
-        <v>2700800</v>
+        <v>4395901</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
+        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C235">
-        <v>1746954</v>
+        <v>2719005</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
+        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C236">
-        <v>1807060</v>
+        <v>2700800</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
+        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C237">
-        <v>1897916</v>
+        <v>1746954</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
+        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C238">
-        <v>2687127</v>
+        <v>1807060</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
+        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C239">
-        <v>1936819</v>
+        <v>1897916</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
+        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C240">
-        <v>3426748</v>
+        <v>2687127</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
+        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C241">
-        <v>572490</v>
+        <v>1936819</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
+        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C242">
-        <v>1645805</v>
+        <v>3426748</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
+        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C243">
-        <v>586768</v>
+        <v>572490</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
+        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C244">
-        <v>777845</v>
+        <v>1645805</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
+        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C245">
-        <v>684860</v>
+        <v>586768</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
+        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C246">
-        <v>824610</v>
+        <v>777845</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
+        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C247">
-        <v>771453</v>
+        <v>684860</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
+        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C248">
-        <v>790507</v>
+        <v>824610</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
+        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C249">
-        <v>726300</v>
+        <v>771453</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
+        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C250">
-        <v>707991</v>
+        <v>790507</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
+        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C251">
-        <v>622834</v>
+        <v>726300</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
+        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C252">
-        <v>732380</v>
+        <v>707991</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
+        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C253">
-        <v>729250</v>
+        <v>622834</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
+        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C254">
-        <v>822341</v>
+        <v>732380</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
+        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C255">
-        <v>677985</v>
+        <v>729250</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
+        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C256">
-        <v>2749662</v>
+        <v>822341</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
+        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C257">
-        <v>2067781</v>
+        <v>677985</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
+        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C258">
-        <v>2069193</v>
+        <v>2749662</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
+        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C259">
-        <v>2552695</v>
+        <v>2067781</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>4c1fc19e790077faab874800d94de0d1d9ba22b30e00d23b016615d6735468e0</v>
+        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C260">
-        <v>2134450</v>
+        <v>2069193</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
+        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C261">
-        <v>734211</v>
+        <v>2552695</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
+        <v>4c1fc19e790077faab874800d94de0d1d9ba22b30e00d23b016615d6735468e0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C262">
-        <v>718743</v>
+        <v>2134450</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
+        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C263">
-        <v>657606</v>
+        <v>734211</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
+        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C264">
-        <v>627572</v>
+        <v>718743</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
+        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C265">
-        <v>763856</v>
+        <v>657606</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
+        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C266">
-        <v>723672</v>
+        <v>627572</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
+        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C267">
-        <v>714014</v>
+        <v>763856</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
+        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C268">
-        <v>637743</v>
+        <v>723672</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
+        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C269">
-        <v>780991</v>
+        <v>714014</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
+        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C270">
-        <v>805855</v>
+        <v>637743</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
+        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C271">
-        <v>781334</v>
+        <v>780991</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
+        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C272">
-        <v>704983</v>
+        <v>805855</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
+        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C273">
-        <v>785511</v>
+        <v>781334</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
+        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C274">
-        <v>815817</v>
+        <v>704983</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
+        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C275">
-        <v>706075</v>
+        <v>785511</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
+        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C276">
-        <v>641687</v>
+        <v>815817</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
+        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C277">
-        <v>613287</v>
+        <v>706075</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>00430928152114c2b9da4c9b5ddb3183d118c7d71cc6b70d459a9d34813211fa</v>
+        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C278">
-        <v>710342</v>
+        <v>641687</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>0c557431ff6648f32755cfd3427894308fd8cbb5e2c31fc247d6ba298c4c6575</v>
+        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="C279">
-        <v>641341</v>
+        <v>613287</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>97af8db1a832d8d7bfd63b088849ae309ba6a9fd180f20dd29d4a94baf81445a</v>
+        <v>00430928152114c2b9da4c9b5ddb3183d118c7d71cc6b70d459a9d34813211fa</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="C280">
-        <v>2759541</v>
+        <v>710342</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
+        <v>0c557431ff6648f32755cfd3427894308fd8cbb5e2c31fc247d6ba298c4c6575</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="C281">
-        <v>2163097</v>
+        <v>641341</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
+        <v>97af8db1a832d8d7bfd63b088849ae309ba6a9fd180f20dd29d4a94baf81445a</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C282">
-        <v>2034727</v>
+        <v>2759541</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
+        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C283">
-        <v>775654</v>
+        <v>2163097</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
+        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C284">
-        <v>806550</v>
+        <v>2034727</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
+        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C285">
-        <v>3872071</v>
+        <v>775654</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
+        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C286">
-        <v>2616770</v>
+        <v>806550</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
+        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C287">
-        <v>2307872</v>
+        <v>3872071</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
+        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C288">
-        <v>2603916</v>
+        <v>2616770</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
+        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C289">
-        <v>2286765</v>
+        <v>2307872</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
+        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C290">
-        <v>693998</v>
+        <v>2603916</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6180,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
+        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C291">
-        <v>631454</v>
+        <v>2286765</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
+        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C292">
-        <v>1586889</v>
+        <v>693998</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,18 +6220,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
+        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C293">
-        <v>1718936</v>
+        <v>631454</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6240,18 +6240,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
+        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C294">
-        <v>2648574</v>
+        <v>1586889</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6260,18 +6260,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
+        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C295">
-        <v>1947775</v>
+        <v>1718936</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6280,18 +6280,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
+        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C296">
-        <v>3511110</v>
+        <v>2648574</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6300,18 +6300,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
+        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C297">
-        <v>1989757</v>
+        <v>1947775</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6320,18 +6320,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
+        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C298">
-        <v>2278082</v>
+        <v>3511110</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6340,18 +6340,18 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>e34d8efde5544b456853eeee89fb95f5b8cecb103248ba1cfb0a42e472ef3a80</v>
+        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B299" t="str">
-        <v>character_largeimage_t0182.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C299">
-        <v>1672877</v>
+        <v>1989757</v>
       </c>
       <c r="D299" t="str">
         <v>Stage_1</v>
@@ -6360,18 +6360,18 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>6bf66b2458a666cd1ab33f15f2da92311fa21c091d01693c74d4d22fbcf0261c</v>
+        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="B300" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0181.ab</v>
       </c>
       <c r="C300">
-        <v>2018104</v>
+        <v>2278082</v>
       </c>
       <c r="D300" t="str">
         <v>Stage_1</v>
@@ -6380,18 +6380,18 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>da5eff98dbf1b567db0786d63dede50b6e8c5f8afa85b511156b57bc7ae4b413</v>
+        <v>e34d8efde5544b456853eeee89fb95f5b8cecb103248ba1cfb0a42e472ef3a80</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="B301" t="str">
-        <v>character_largeimage_t0187.ab</v>
+        <v>character_largeimage_t0182.ab</v>
       </c>
       <c r="C301">
-        <v>1986452</v>
+        <v>1672877</v>
       </c>
       <c r="D301" t="str">
         <v>Stage_1</v>
@@ -6400,18 +6400,18 @@
         <v>0</v>
       </c>
       <c r="F301" t="str">
-        <v>2a3646d34f329e0f6e43fa29282deefba2d7d52b1318339bfdb08e661f5c9a4b</v>
+        <v>6bf66b2458a666cd1ab33f15f2da92311fa21c091d01693c74d4d22fbcf0261c</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="B302" t="str">
-        <v>character_largeimage_t0188.ab</v>
+        <v>character_largeimage_t0184.ab</v>
       </c>
       <c r="C302">
-        <v>1996254</v>
+        <v>2018104</v>
       </c>
       <c r="D302" t="str">
         <v>Stage_1</v>
@@ -6420,18 +6420,18 @@
         <v>0</v>
       </c>
       <c r="F302" t="str">
-        <v>e8cd81a03801634fff9f0bb2b3972ff0c36cdb72efc084ef4635d62b578ff334</v>
+        <v>da5eff98dbf1b567db0786d63dede50b6e8c5f8afa85b511156b57bc7ae4b413</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="B303" t="str">
-        <v>character_largeimage_t0189.ab</v>
+        <v>character_largeimage_t0187.ab</v>
       </c>
       <c r="C303">
-        <v>2760079</v>
+        <v>1986452</v>
       </c>
       <c r="D303" t="str">
         <v>Stage_1</v>
@@ -6440,18 +6440,18 @@
         <v>0</v>
       </c>
       <c r="F303" t="str">
-        <v>714b5555bfd7d920ab44efe3dc261a9cfdba1f4b6e509b797517148318ebf103</v>
+        <v>2a3646d34f329e0f6e43fa29282deefba2d7d52b1318339bfdb08e661f5c9a4b</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="B304" t="str">
-        <v>character_largeimage_t0204.ab</v>
+        <v>character_largeimage_t0188.ab</v>
       </c>
       <c r="C304">
-        <v>804205</v>
+        <v>1996254</v>
       </c>
       <c r="D304" t="str">
         <v>Stage_1</v>
@@ -6460,18 +6460,18 @@
         <v>0</v>
       </c>
       <c r="F304" t="str">
-        <v>f48f68c7957e35e5e15e49feb475cb2c4fa983f8232db3355516bf813be8ef00</v>
+        <v>e8cd81a03801634fff9f0bb2b3972ff0c36cdb72efc084ef4635d62b578ff334</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="B305" t="str">
-        <v>character_largeimage_t0207.ab</v>
+        <v>character_largeimage_t0189.ab</v>
       </c>
       <c r="C305">
-        <v>688167</v>
+        <v>2760079</v>
       </c>
       <c r="D305" t="str">
         <v>Stage_1</v>
@@ -6480,18 +6480,18 @@
         <v>0</v>
       </c>
       <c r="F305" t="str">
-        <v>20072ba4491ec0a6889f7a034d6ecdad6611678e68bef2245653ba356c155a77</v>
+        <v>714b5555bfd7d920ab44efe3dc261a9cfdba1f4b6e509b797517148318ebf103</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="B306" t="str">
-        <v>character_largeimage_t0212.ab</v>
+        <v>character_largeimage_t0204.ab</v>
       </c>
       <c r="C306">
-        <v>841779</v>
+        <v>804205</v>
       </c>
       <c r="D306" t="str">
         <v>Stage_1</v>
@@ -6500,33 +6500,73 @@
         <v>0</v>
       </c>
       <c r="F306" t="str">
-        <v>384cc234bc848d88c3493bb6d581b453fef90ff6149ca75cee2081a239829486</v>
+        <v>f48f68c7957e35e5e15e49feb475cb2c4fa983f8232db3355516bf813be8ef00</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="B307" t="str">
+        <v>character_largeimage_t0207.ab</v>
+      </c>
+      <c r="C307">
+        <v>688167</v>
+      </c>
+      <c r="D307" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307" t="str">
+        <v>20072ba4491ec0a6889f7a034d6ecdad6611678e68bef2245653ba356c155a77</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="B308" t="str">
+        <v>character_largeimage_t0212.ab</v>
+      </c>
+      <c r="C308">
+        <v>841779</v>
+      </c>
+      <c r="D308" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308" t="str">
+        <v>384cc234bc848d88c3493bb6d581b453fef90ff6149ca75cee2081a239829486</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="B307" t="str">
+      <c r="B309" t="str">
         <v>character_largeimage_t0214.ab</v>
       </c>
-      <c r="C307">
+      <c r="C309">
         <v>729041</v>
       </c>
-      <c r="D307" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E307">
-        <v>0</v>
-      </c>
-      <c r="F307" t="str">
+      <c r="D309" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309" t="str">
         <v>b6e4e9aa6a854ead5306d8fac272a8fa05c73655bd9e5d175c61efed7a45463e</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F307"/>
+  <autoFilter ref="A1:F309"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F307"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F309"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/client_gamedata/androidExp.xlsx
+++ b/client_gamedata/androidExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F309</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F312</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_h0224_jp.ab</v>
+        <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_h0224_jp.ab</v>
+        <v>audioclip_sfx_h0221_jp.ab</v>
       </c>
       <c r="C150">
-        <v>1031304</v>
+        <v>1054459</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>76f90c57f1b3b8f107a6a52a4eab7e7733623a4c6adcfdaafa0b2b22298922c7</v>
+        <v>86d343e001bdcd963f79a4918f42764020840e169a4127babd4d256b02f0b5b4</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_h0232_jp.ab</v>
+        <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_h0232_jp.ab</v>
+        <v>audioclip_sfx_h0224_jp.ab</v>
       </c>
       <c r="C151">
-        <v>293419</v>
+        <v>1031304</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>c695027281588c7a8e0f1dafc814a9d705288eb94d819b546e3792495b24860d</v>
+        <v>76f90c57f1b3b8f107a6a52a4eab7e7733623a4c6adcfdaafa0b2b22298922c7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_h0233_jp.ab</v>
+        <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_h0233_jp.ab</v>
+        <v>audioclip_sfx_h0232_jp.ab</v>
       </c>
       <c r="C152">
-        <v>357044</v>
+        <v>293419</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>137a0f8ae7e62f4115c8f409364f207a6b987339691879f68f8e6b76e01b5e00</v>
+        <v>c695027281588c7a8e0f1dafc814a9d705288eb94d819b546e3792495b24860d</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0233_jp.ab</v>
       </c>
       <c r="C153">
-        <v>274116</v>
+        <v>357044</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
+        <v>137a0f8ae7e62f4115c8f409364f207a6b987339691879f68f8e6b76e01b5e00</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0234_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h0234_jp.ab</v>
       </c>
       <c r="C154">
-        <v>220291</v>
+        <v>362793</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
+        <v>04baee51ff7fd3be402d7d6e6acb4a91dc18c325ef8791ef1f8d57f66389f9e4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C155">
-        <v>95942</v>
+        <v>274116</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
+        <v>9eb4ecd3f3e085f0324fe131b664b0dd4662b72c3dc2fcf9d07102bf21c32b72</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C156">
-        <v>1390747</v>
+        <v>220291</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
+        <v>bfd1e4e5ecfbe76670e0cbcf8e995505ad8e5878e9a9dd0d01716b8b487c88c9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C157">
-        <v>4141773</v>
+        <v>95942</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
+        <v>3b4b8786386c69943f0f359fc0ea0779db199f5f19ebc3f5248302686bd825f1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C158">
-        <v>1438284</v>
+        <v>1390747</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
+        <v>4f71edf4bbd4c86e2d9f0bb49f2ef5275cd707aec9e30de127252d2bc84be384</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>audioclip_sfx_r0205_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C159">
-        <v>1066426</v>
+        <v>4141773</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
+        <v>53250ee3484ea26304c0a7fd112d551545735fdbe124452cac32da923cf3eccb</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C160">
-        <v>883198</v>
+        <v>1438284</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
+        <v>9ecc97c123ddd9aacf2f6ba002eabbbdf3b77e8dd505913f1ed17f488c97a29a</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_r0205_jp.ab</v>
       </c>
       <c r="C161">
-        <v>903934</v>
+        <v>1066426</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
+        <v>c92555b7120ac235346b35f30da6753a28158b9840ca72b3cac3d7a23cecdfc2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C162">
-        <v>1396239</v>
+        <v>883198</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
+        <v>b70487cba84494f69cee47573fab52e375c8bd92af04044cfdc5818cbe84153d</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C163">
-        <v>995133</v>
+        <v>903934</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
+        <v>2e9997e9cbd488446ab8e1dd429e313dc921fd5412e0eab5332297122bd1ca26</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C164">
-        <v>1222446</v>
+        <v>1396239</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
+        <v>b15bdd7b76908dfea388b149103cb7a3bb8ddedb9d0b66e61a9bbdb4ed76c6bb</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C165">
-        <v>694931</v>
+        <v>995133</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
+        <v>ba41a2a25880e9c9c32992a8d12134f3417542a623ef5796438664487de2dd84</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C166">
-        <v>3816619</v>
+        <v>1222446</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
+        <v>63963c9efe4a35bd1f713e9096337f19fd65c782f6a42ffe70e44f4b05fc8e64</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C167">
-        <v>1950959</v>
+        <v>694931</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
+        <v>a2e4375cd3ec14e8de1240ada61ea4bd86a4168a0f7da338bdf3289a455ace8d</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C168">
-        <v>2974182</v>
+        <v>3816619</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
+        <v>5a03da903cccdcd2779f8ac4d08194bc969a4f862a7edabfb6c8dfc402ecd59b</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C169">
-        <v>1992937</v>
+        <v>1950959</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
+        <v>67f07047bfa16f49fbf64d39e131045c4144ba87694de4e7f992355b9c299351</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C170">
-        <v>2340668</v>
+        <v>2974182</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
+        <v>15235b6c85359ae5ee7667d431699e6c187e2ed3e93cf47a2a46349be09b4179</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C171">
-        <v>1951009</v>
+        <v>1992937</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
+        <v>7c84d1990a85f4779a7eda24c273846c81610aa0fe2813d34e8445ed38b16296</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C172">
-        <v>2411004</v>
+        <v>2340668</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
+        <v>5c7114173bcc2aa7765ceeec641470a3748cba8820707c60590b601ffa9e7055</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C173">
-        <v>2119965</v>
+        <v>1951009</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
+        <v>e52de1bdb54e58c7e3ff0ad2ab16da9e6f5d9cc50b81d89beace7a56e732346d</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C174">
-        <v>1952741</v>
+        <v>2411004</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
+        <v>0349503d344833117eb1a85a80b3315e5a29a13eeef201e03e4cfde2ecdc8a0c</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C175">
-        <v>1735957</v>
+        <v>2119965</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
+        <v>dafa9dbdf2f8f8a22b7186d59bc97ac7a5c45f7bd8f4b5d0a6060d3a7f0b9375</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>audioclip_sfx_t0187_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C176">
-        <v>2460205</v>
+        <v>1952741</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
+        <v>c6062de6ae2cba59cbcc0cdb17d71b682a4cf7097952355c293ec991ad67657f</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>audioclip_sfx_t0188_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C177">
-        <v>1973756</v>
+        <v>1735957</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
+        <v>fac1fce0fd7de8c885aff7abb736d9580d0d9c03c7bcb811dda4c341e27b0b63</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>audioclip_sfx_t0189_jp.ab</v>
+        <v>audioclip_sfx_t0187_jp.ab</v>
       </c>
       <c r="C178">
-        <v>2403876</v>
+        <v>2460205</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
+        <v>c7515df8ff510981f8f8cf8b1ee59f740db4c11b7342c41539e5299ad250d8a2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>audioclip_sfx_t0204_jp.ab</v>
+        <v>audioclip_sfx_t0188_jp.ab</v>
       </c>
       <c r="C179">
-        <v>1290319</v>
+        <v>1973756</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
+        <v>29e965dcc6fc00f674215baf4b928c70be3f541088a6a5b986f879c73f5a5d42</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>audioclip_sfx_t0207_jp.ab</v>
+        <v>audioclip_sfx_t0189_jp.ab</v>
       </c>
       <c r="C180">
-        <v>940748</v>
+        <v>2403876</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
+        <v>b16c0ca313216b564f4b1e6eccb6e954925af42df5760bd9437c91e0a2061922</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>audioclip_sfx_t0212_jp.ab</v>
+        <v>audioclip_sfx_t0204_jp.ab</v>
       </c>
       <c r="C181">
-        <v>1484252</v>
+        <v>1290319</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
+        <v>3cd8c7dae7a51d1482da70e02c1ec32b0e9414370658e14b4e45fc0e0665a4e9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>audioclip_sfx_t0214_jp.ab</v>
+        <v>audioclip_sfx_t0207_jp.ab</v>
       </c>
       <c r="C182">
-        <v>1202892</v>
+        <v>940748</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
+        <v>6093f9e47c57dd3fc24f60af5f7622e81bacab91f35c0dacb54fcc1e2d36c7cf</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0212_jp.ab</v>
       </c>
       <c r="C183">
-        <v>316231</v>
+        <v>1484252</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
+        <v>e73e76ba60cbcfda52306bf47a263f3be4e0c31663be4278b999cff99d452011</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t0214_jp.ab</v>
       </c>
       <c r="C184">
-        <v>164052</v>
+        <v>1202892</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
+        <v>8d2f29e299d4c8d0cb34579b5ae0b2de70efd1d3d394e38a5323bfbe75a553e7</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C185">
-        <v>214575</v>
+        <v>316231</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
+        <v>01cdfbbf9f77a918a2016333f70e047b3087ef54fd0477a4cbb298f6a9eb631d</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C186">
-        <v>310384</v>
+        <v>164052</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
+        <v>8abe3d521ebcb185fcce96a49bbc96df07257c26e4d0764e87c1936ced63e4b5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C187">
-        <v>288941</v>
+        <v>214575</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
+        <v>d3418a4d00e7826aeec3b5f55296ba67194159666952d4f5645a7a3e3959bd33</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C188">
-        <v>270597</v>
+        <v>310384</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
+        <v>7922b41fbe5ace431e852e608c627644145a3374e7c72b17c7eb99e87d8a75f0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C189">
-        <v>2427621</v>
+        <v>288941</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
+        <v>318ed1740220025f770750eae32fd2966f4ee57185327d8b16d06272c6fb1b72</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C190">
-        <v>2483491</v>
+        <v>270597</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
+        <v>d6d2fac1b1df16b394e326376d1b0328ebf898c00bfa98e4d483d55222f879a7</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C191">
-        <v>2480824</v>
+        <v>2427621</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
+        <v>98872304b2907866cf16a321473e5983aa7c35ac72267097daeb369ad9b56227</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C192">
-        <v>2425865</v>
+        <v>2483491</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
+        <v>032989972f92c93d6bd094d0b505c258f946a5abc052ba01cdafc32de8af43a7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_b0202.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C193">
-        <v>719220</v>
+        <v>2480824</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
+        <v>fadb056f0a1442f65d37bf2c775602521727ce7c4ff5bb59acfb756d135b69b1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C194">
-        <v>2665114</v>
+        <v>2425865</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
+        <v>8318b77744ffd678126a8e7f72768587da5b43fe03abd436b12c049cc8164224</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_b0202.ab</v>
       </c>
       <c r="C195">
-        <v>677862</v>
+        <v>719220</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
+        <v>ede1f4b5c5e94ccd4e3c50afe10697abb7b56f9ccb5a6f32e9f562dcfe509127</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C196">
-        <v>148141</v>
+        <v>2665114</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
+        <v>20c6269c31838f3043582866ae13b98dac7f00ac0847867b8c5e5538b7ced619</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C197">
-        <v>2369924</v>
+        <v>677862</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
+        <v>65ef1bcb606e7e55b5b66c12a7e834aa3b2b8f31eebfd54392723f92723d81f1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C198">
-        <v>2751802</v>
+        <v>148141</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
+        <v>8dabf4c4129909caa6ffd2105200373cb0011c882c3247f8c89339c3cc6c8087</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C199">
-        <v>2446728</v>
+        <v>2369924</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
+        <v>d3c95b342c213e48d3550a2a118103181642ed10d5d64a5f9c42d7b51d29a7bd</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C200">
-        <v>2463327</v>
+        <v>2751802</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
+        <v>fa35470980a6f57823948a6823059f17eed679fbbf8689cba4bee408d1c719fb</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C201">
-        <v>651307</v>
+        <v>2446728</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
+        <v>8f159b8e8a399ec437a27d748b6d9a846701dc8e99b7abf6ca6690318a0fa17c</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C202">
-        <v>561312</v>
+        <v>2463327</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
+        <v>73db7f481877904e7444a1cae04f96a306b683e52a9f53197d32babaf9b5bac5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C203">
-        <v>726451</v>
+        <v>651307</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
+        <v>a6970d9250db3e2c66394abe0b02d37b4bba03797e28242f3956b49a0782b480</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C204">
-        <v>2962837</v>
+        <v>561312</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
+        <v>ef47741f09a800a281ea168ab0f1177ba1a61b588cb0af88fbe3899e420f41f0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C205">
-        <v>739681</v>
+        <v>726451</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
+        <v>ba3e41a42c98c28a4249290de16842ad7d0d1b9d1b616b06e0a7dd3485bdb0ae</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C206">
-        <v>576970</v>
+        <v>2962837</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
+        <v>17a7e029137e106c8ec006d6243191f12cb72bd1f3dd3d1220a50fb01a584c50</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C207">
-        <v>736669</v>
+        <v>739681</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
+        <v>ad59db2b514521989286912677ea78b7b573f455cd94c8a4f961e87975cf72ed</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C208">
-        <v>559888</v>
+        <v>576970</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
+        <v>7a7847ac667583b139b8a4ba4b78a41ffce8b52573c2900e89e43b853d1dd755</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C209">
-        <v>2475343</v>
+        <v>736669</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
+        <v>c4a4dc9355eccb02fa5d78b75c9fe67b5259a2427759f3b47312aae05141d360</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C210">
-        <v>2900414</v>
+        <v>559888</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
+        <v>130cc736a8ec0bed948a05d775fdcf1a65d01c9d25dad870c07d1bdf916678c6</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C211">
-        <v>3263699</v>
+        <v>2475343</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
+        <v>f6fa3d20886458afd90565b4452b39faff798425466caa1597c428b79d99a1a8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C212">
-        <v>3380874</v>
+        <v>2900414</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
+        <v>abf6d52de176161535c6201df3c3dc4d5eaf05802222cdc820fe736d8ea51dba</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C213">
-        <v>2529038</v>
+        <v>3263699</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
+        <v>5111368caeb5bdebedd4d7075ef2b1928140b8be31f7f4e8903e3a22bdc813a2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C214">
-        <v>2602264</v>
+        <v>3380874</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
+        <v>0ee1dbf4ce4f5fd644f22c666ca62c33abe6245b05131e709908a7c43f558e03</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C215">
-        <v>2355620</v>
+        <v>2529038</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
+        <v>c1f0d931eb51ca3df6e71feff4120cd08a3d9f6213db153bc05546ffa15ec094</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C216">
-        <v>2947535</v>
+        <v>2602264</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
+        <v>e0acb4660378539c229eba6a98d5deb253ee354f78a7dc348ac7743595340723</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C217">
-        <v>2154552</v>
+        <v>2355620</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
+        <v>11c7b345778416abf3f12d3a86418c30a5a8480519951446534bf5b3943d76cc</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C218">
-        <v>2372246</v>
+        <v>2947535</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
+        <v>0cbf5e8037f443bc47fcab7bf9fb824944bff9de0be5a8db03b45d7e97c03eb2</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C219">
-        <v>3087325</v>
+        <v>2154552</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
+        <v>451809c04213795d39795302b263720f678c8511d1f2a53facfd452d91c914d8</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C220">
-        <v>2253985</v>
+        <v>2372246</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
+        <v>22dbd9f23d1bda0fbe56bb6bee686847f1cb43198f58a55f6fc9d799a8f756c9</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C221">
-        <v>799706</v>
+        <v>3087325</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
+        <v>6bae35926c21698f68c71b8f8944d531e3248b3bd1ab393a7f4f0575287f910e</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C222">
-        <v>696705</v>
+        <v>2253985</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
+        <v>86d3de01a126358283945eaa842e005bee9b955783842b7029ed16182daa2af3</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C223">
-        <v>684156</v>
+        <v>799706</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
+        <v>952bf1b29a8b03a68ec9520afa52cb36ba6170bcaccfbf2de5e7fab0fa949760</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C224">
-        <v>744489</v>
+        <v>696705</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
+        <v>22603c3bce07955742dbdda17888b25eff23a1a1fff996d8417ddcb2bc05207b</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C225">
-        <v>3390147</v>
+        <v>684156</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>cce228cb0a765ced9f4cffdaca391008a5143fc1fb79a47f0a7bc9a33927ddc8</v>
+        <v>5551016c07e9cd2f566023e4b07dc06a466080f8b013b63cf0688dea8d263d36</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C226">
-        <v>704035</v>
+        <v>744489</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
+        <v>e7eb7b35a93692a9e6bc9c3e1ee815ef1f8216ad931f297a311b1c2472537d2a</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C227">
-        <v>2895821</v>
+        <v>3390147</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>8b8932183ab82b6d234f672db3367c380fe70953b4ed998f50b023fcff508b94</v>
+        <v>cce228cb0a765ced9f4cffdaca391008a5143fc1fb79a47f0a7bc9a33927ddc8</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C228">
-        <v>1957083</v>
+        <v>704035</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
+        <v>09d62304babd6778721c7fff3d89b17f506eca8bbe5a80c441b5b05b1f598ff4</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C229">
-        <v>3131566</v>
+        <v>2895821</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
+        <v>8b8932183ab82b6d234f672db3367c380fe70953b4ed998f50b023fcff508b94</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C230">
-        <v>3415142</v>
+        <v>1957083</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
+        <v>c59566ae9cd52f02a8cca1e715a5c165d306156b091662648d69cfb191838a4c</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C231">
-        <v>1804269</v>
+        <v>3131566</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
+        <v>e0be6c23e78ec794e94b66105f0ad70d71d93d644536d43896a2eeb9a383a371</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C232">
-        <v>2832480</v>
+        <v>3415142</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
+        <v>f30b0fe25b1ca65b163c35124a9471f60b67e79687aec68d8975d24243c39460</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C233">
-        <v>1855243</v>
+        <v>1804269</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
+        <v>7811a3d778d32e9b9994aae0064be2935e9b6d3464c643e243a966c0a57d5250</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C234">
-        <v>4395901</v>
+        <v>2832480</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
+        <v>f8e19170442947289e82a0b874ea00357d36958bb046a210dfb4b40e941b4a9a</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C235">
-        <v>2719005</v>
+        <v>1855243</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
+        <v>0957fd1730a49bde0bc9f4173ab45c2f208fbba4e7c952340a691010e0467a63</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C236">
-        <v>2700800</v>
+        <v>4395901</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
+        <v>b83981d93904a0add7add5cc7a1519946f3ad54fcc8527e662f4bae14a5dea7d</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C237">
-        <v>1746954</v>
+        <v>2719005</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
+        <v>5d74c5dc49587df4860f7fb63a867e1964c83f3b0eb00a2d656f9d6edba00478</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C238">
-        <v>1807060</v>
+        <v>2700800</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
+        <v>47dd5cd2b26fb835c7bec7ca0f3913ee9d2a525b6bbdf9fd10993411cc661864</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C239">
-        <v>1897916</v>
+        <v>1746954</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
+        <v>c7d61dbfb23851043e604ef54c566e8e9103bad0bb3ca1179b4bc7922c999a30</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C240">
-        <v>2687127</v>
+        <v>1807060</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
+        <v>15d561459f0a9f36d9d0ee7d366f13248724ff1db024ed05a614815fb33c6395</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C241">
-        <v>1936819</v>
+        <v>1897916</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
+        <v>44a98d330e3c72ba75724b4c09bc312bf33dcdff31d9fbdd14948460d769f90a</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C242">
-        <v>3426748</v>
+        <v>2687127</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
+        <v>cacc3c5a44201a6aae59709b333f39926e92494c748396527de01670f551a202</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C243">
-        <v>572490</v>
+        <v>1936819</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
+        <v>04f112b5fd5f577e71bfbca4f2a040a5cae29d26bbff105553c3ad45432cbf2f</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C244">
-        <v>1645805</v>
+        <v>3426748</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
+        <v>c2000ea25ae521513797794a6bce4c2eb98afa3f3f9f6154e7d5cc0d17566f27</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C245">
-        <v>586768</v>
+        <v>572490</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
+        <v>b8220f67f1ff777b957f9b44ade4f121eb7beb604b869d089741778fb95b01d0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C246">
-        <v>777845</v>
+        <v>1645805</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
+        <v>17ac02de88ddb3c189d9deb14a1bb14b0c77631936c5d88bc38e432862518501</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C247">
-        <v>684860</v>
+        <v>586768</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
+        <v>06310eee408dbb2ef72df542b7ff82f968e60bb5002f2a80297686a538bbe3bc</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C248">
-        <v>824610</v>
+        <v>777845</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
+        <v>0d8567c2f8050d9428efabb8b1187081bc87bc13eaf9a8cf44bc1af918f624bd</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C249">
-        <v>771453</v>
+        <v>684860</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
+        <v>ad8705e7e0066a69bf669c6684772779b2d4f42c54954bb4eff266d63f476da3</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C250">
-        <v>790507</v>
+        <v>824610</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
+        <v>8b7a00aeaf6ca2dd34bc0459dddcdc5ef70444028534e3913dc9c4482f8e6b77</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C251">
-        <v>726300</v>
+        <v>771453</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,18 +5400,18 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
+        <v>4df0d68a15069779d819240ad2f2337eda9db16446d13f54c9777c2547007e99</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B252" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C252">
-        <v>707991</v>
+        <v>790507</v>
       </c>
       <c r="D252" t="str">
         <v>Stage_1</v>
@@ -5420,18 +5420,18 @@
         <v>0</v>
       </c>
       <c r="F252" t="str">
-        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
+        <v>5681fea00e2c97662b4aa342cd2099a695a83671d87650adf4b643df83a5fc5e</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B253" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C253">
-        <v>622834</v>
+        <v>726300</v>
       </c>
       <c r="D253" t="str">
         <v>Stage_1</v>
@@ -5440,18 +5440,18 @@
         <v>0</v>
       </c>
       <c r="F253" t="str">
-        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
+        <v>8af3188e29ca3705913d3c73a23b13e9cb38a948c0552524abe14d2af8589237</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B254" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C254">
-        <v>732380</v>
+        <v>707991</v>
       </c>
       <c r="D254" t="str">
         <v>Stage_1</v>
@@ -5460,18 +5460,18 @@
         <v>0</v>
       </c>
       <c r="F254" t="str">
-        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
+        <v>f48847faeb345b6287681bdf753ac8a987e6f8a6d2193bfaaad0837c60722243</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B255" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C255">
-        <v>729250</v>
+        <v>622834</v>
       </c>
       <c r="D255" t="str">
         <v>Stage_1</v>
@@ -5480,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="F255" t="str">
-        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
+        <v>5a51c30a6c80d84a334fc3776e5807449edf202866dfdb5695ceeb81a323f3c6</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B256" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C256">
-        <v>822341</v>
+        <v>732380</v>
       </c>
       <c r="D256" t="str">
         <v>Stage_1</v>
@@ -5500,18 +5500,18 @@
         <v>0</v>
       </c>
       <c r="F256" t="str">
-        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
+        <v>e7caa9f81f099939481587b937c142386b20a2321bccec2c167ce7df58437b14</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B257" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C257">
-        <v>677985</v>
+        <v>729250</v>
       </c>
       <c r="D257" t="str">
         <v>Stage_1</v>
@@ -5520,18 +5520,18 @@
         <v>0</v>
       </c>
       <c r="F257" t="str">
-        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
+        <v>9b6a42bf0dfcb7f4c586954aabb5edb25ec05a05b7efd6db561e311d70e8007b</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B258" t="str">
-        <v>character_largeimage_h0179.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C258">
-        <v>2749662</v>
+        <v>822341</v>
       </c>
       <c r="D258" t="str">
         <v>Stage_1</v>
@@ -5540,18 +5540,18 @@
         <v>0</v>
       </c>
       <c r="F258" t="str">
-        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
+        <v>65dfac94470076fc2cdc5824f994298f1ecef5a84fce1518fb4c0506803bec70</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B259" t="str">
-        <v>character_largeimage_h0183.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C259">
-        <v>2067781</v>
+        <v>677985</v>
       </c>
       <c r="D259" t="str">
         <v>Stage_1</v>
@@ -5560,18 +5560,18 @@
         <v>0</v>
       </c>
       <c r="F259" t="str">
-        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
+        <v>f4931165ea8f9affe3682cbb09eefe3f0b7768c0b2e866a6a5fcc7c7360d86cd</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="B260" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0179.ab</v>
       </c>
       <c r="C260">
-        <v>2069193</v>
+        <v>2749662</v>
       </c>
       <c r="D260" t="str">
         <v>Stage_1</v>
@@ -5580,18 +5580,18 @@
         <v>0</v>
       </c>
       <c r="F260" t="str">
-        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
+        <v>3b382d5302d63e1d0fb6dd85cc8fed9a9d90f5a2bfc11aeff82723a4d693e567</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="B261" t="str">
-        <v>character_largeimage_h0186.ab</v>
+        <v>character_largeimage_h0183.ab</v>
       </c>
       <c r="C261">
-        <v>2552695</v>
+        <v>2067781</v>
       </c>
       <c r="D261" t="str">
         <v>Stage_1</v>
@@ -5600,18 +5600,18 @@
         <v>0</v>
       </c>
       <c r="F261" t="str">
-        <v>4c1fc19e790077faab874800d94de0d1d9ba22b30e00d23b016615d6735468e0</v>
+        <v>f0a0ef248331af3a35d83b91e7b5c352d60392ee0e7401584db62bc3bba3bbda</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B262" t="str">
-        <v>character_largeimage_h0190.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C262">
-        <v>2134450</v>
+        <v>2069193</v>
       </c>
       <c r="D262" t="str">
         <v>Stage_1</v>
@@ -5620,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="F262" t="str">
-        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
+        <v>277343dab99f2a427c1a17ebafcabfe5e921e7544221f3bed00e44b2d0ab9465</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="B263" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0186.ab</v>
       </c>
       <c r="C263">
-        <v>734211</v>
+        <v>2552695</v>
       </c>
       <c r="D263" t="str">
         <v>Stage_1</v>
@@ -5640,18 +5640,18 @@
         <v>0</v>
       </c>
       <c r="F263" t="str">
-        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
+        <v>4c1fc19e790077faab874800d94de0d1d9ba22b30e00d23b016615d6735468e0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="B264" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0190.ab</v>
       </c>
       <c r="C264">
-        <v>718743</v>
+        <v>2134450</v>
       </c>
       <c r="D264" t="str">
         <v>Stage_1</v>
@@ -5660,18 +5660,18 @@
         <v>0</v>
       </c>
       <c r="F264" t="str">
-        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
+        <v>7156ba10ccaea0a405729dd817e969fa2d07c7e01d46c25795981920ea6be18c</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B265" t="str">
-        <v>character_largeimage_h0193.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C265">
-        <v>657606</v>
+        <v>734211</v>
       </c>
       <c r="D265" t="str">
         <v>Stage_1</v>
@@ -5680,18 +5680,18 @@
         <v>0</v>
       </c>
       <c r="F265" t="str">
-        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
+        <v>4511be1a54704e80e5281c6a83e58e9e7176bee46e4520ded51fe1d66394374b</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B266" t="str">
-        <v>character_largeimage_h0194.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C266">
-        <v>627572</v>
+        <v>718743</v>
       </c>
       <c r="D266" t="str">
         <v>Stage_1</v>
@@ -5700,18 +5700,18 @@
         <v>0</v>
       </c>
       <c r="F266" t="str">
-        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
+        <v>8b206e8cd781e461008685f45341205f49b4095a89b8c4956cf1d9be8f1a38d6</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B267" t="str">
-        <v>character_largeimage_h0196.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C267">
-        <v>763856</v>
+        <v>657606</v>
       </c>
       <c r="D267" t="str">
         <v>Stage_1</v>
@@ -5720,18 +5720,18 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
+        <v>ad4693adb411221e5df81d2ea49e88781125fd4afe6948006fecff9eca645069</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="B268" t="str">
-        <v>character_largeimage_h0197.ab</v>
+        <v>character_largeimage_h0194.ab</v>
       </c>
       <c r="C268">
-        <v>723672</v>
+        <v>627572</v>
       </c>
       <c r="D268" t="str">
         <v>Stage_1</v>
@@ -5740,18 +5740,18 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
+        <v>9da88a6621d226abe3094ec7b8ee1d3e31bd3be278e143837feefc9c6976464c</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="B269" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0196.ab</v>
       </c>
       <c r="C269">
-        <v>714014</v>
+        <v>763856</v>
       </c>
       <c r="D269" t="str">
         <v>Stage_1</v>
@@ -5760,18 +5760,18 @@
         <v>0</v>
       </c>
       <c r="F269" t="str">
-        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
+        <v>67b08e1f170cfdfa0490b3da99067bc3ad32fdc5302e87d1fe641731dabda654</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="B270" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0197.ab</v>
       </c>
       <c r="C270">
-        <v>637743</v>
+        <v>723672</v>
       </c>
       <c r="D270" t="str">
         <v>Stage_1</v>
@@ -5780,18 +5780,18 @@
         <v>0</v>
       </c>
       <c r="F270" t="str">
-        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
+        <v>7d781f23bef5fda3ff424ded7350ac1fa15d838034e8ae678b40cf2873af3bc0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B271" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C271">
-        <v>780991</v>
+        <v>714014</v>
       </c>
       <c r="D271" t="str">
         <v>Stage_1</v>
@@ -5800,18 +5800,18 @@
         <v>0</v>
       </c>
       <c r="F271" t="str">
-        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
+        <v>4cb449eea57f727bb300b0167a9cd88a6111da77d1ed7e1634ba0690c7c98c19</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B272" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C272">
-        <v>805855</v>
+        <v>637743</v>
       </c>
       <c r="D272" t="str">
         <v>Stage_1</v>
@@ -5820,18 +5820,18 @@
         <v>0</v>
       </c>
       <c r="F272" t="str">
-        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
+        <v>97dc68a574bee1bf83758aff2c0169e5deb25c25c15e78a94ae53f1c35755c42</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B273" t="str">
-        <v>character_largeimage_h0203.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C273">
-        <v>781334</v>
+        <v>780991</v>
       </c>
       <c r="D273" t="str">
         <v>Stage_1</v>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="F273" t="str">
-        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
+        <v>7907c98b59c8d065923eeb7c69d50c98a0aeab1ababdc36c19b29b68cc4fcea7</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B274" t="str">
-        <v>character_largeimage_h0208.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C274">
-        <v>704983</v>
+        <v>805855</v>
       </c>
       <c r="D274" t="str">
         <v>Stage_1</v>
@@ -5860,18 +5860,18 @@
         <v>0</v>
       </c>
       <c r="F274" t="str">
-        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
+        <v>9c1c77e07a110d3c19bc8453bae0ae15c4a4873c7943d402a52f7f4fa9717022</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="B275" t="str">
-        <v>character_largeimage_h0209.ab</v>
+        <v>character_largeimage_h0203.ab</v>
       </c>
       <c r="C275">
-        <v>785511</v>
+        <v>781334</v>
       </c>
       <c r="D275" t="str">
         <v>Stage_1</v>
@@ -5880,18 +5880,18 @@
         <v>0</v>
       </c>
       <c r="F275" t="str">
-        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
+        <v>6887615886a8f2926c11c76ee039779106146c68cb02177ad58575f7d94cea3c</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="B276" t="str">
-        <v>character_largeimage_h0210.ab</v>
+        <v>character_largeimage_h0208.ab</v>
       </c>
       <c r="C276">
-        <v>815817</v>
+        <v>704983</v>
       </c>
       <c r="D276" t="str">
         <v>Stage_1</v>
@@ -5900,18 +5900,18 @@
         <v>0</v>
       </c>
       <c r="F276" t="str">
-        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
+        <v>fac98ce4ede327b94cabbde613a3696eb583c7b966e90878eb7154c795bd2be4</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="B277" t="str">
-        <v>character_largeimage_h0213.ab</v>
+        <v>character_largeimage_h0209.ab</v>
       </c>
       <c r="C277">
-        <v>706075</v>
+        <v>785511</v>
       </c>
       <c r="D277" t="str">
         <v>Stage_1</v>
@@ -5920,18 +5920,18 @@
         <v>0</v>
       </c>
       <c r="F277" t="str">
-        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
+        <v>a37205f11ef691e345605dd7ecfd1bb76d30423bcb30b9dc13699a04720f4987</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="B278" t="str">
-        <v>character_largeimage_h0215.ab</v>
+        <v>character_largeimage_h0210.ab</v>
       </c>
       <c r="C278">
-        <v>641687</v>
+        <v>815817</v>
       </c>
       <c r="D278" t="str">
         <v>Stage_1</v>
@@ -5940,18 +5940,18 @@
         <v>0</v>
       </c>
       <c r="F278" t="str">
-        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
+        <v>5c5dcbfba1ad8e782faf938cd1dda8e0d1977c2a2db428905b19084ebe414a0a</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="B279" t="str">
-        <v>character_largeimage_h0216.ab</v>
+        <v>character_largeimage_h0213.ab</v>
       </c>
       <c r="C279">
-        <v>613287</v>
+        <v>706075</v>
       </c>
       <c r="D279" t="str">
         <v>Stage_1</v>
@@ -5960,18 +5960,18 @@
         <v>0</v>
       </c>
       <c r="F279" t="str">
-        <v>00430928152114c2b9da4c9b5ddb3183d118c7d71cc6b70d459a9d34813211fa</v>
+        <v>85a6a421a93c9ef3ee9e22623a885c4e999ca9994b0a49d0393219b03040b237</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="B280" t="str">
-        <v>character_largeimage_h0217.ab</v>
+        <v>character_largeimage_h0215.ab</v>
       </c>
       <c r="C280">
-        <v>710342</v>
+        <v>641687</v>
       </c>
       <c r="D280" t="str">
         <v>Stage_1</v>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="F280" t="str">
-        <v>0c557431ff6648f32755cfd3427894308fd8cbb5e2c31fc247d6ba298c4c6575</v>
+        <v>2c8fe2b67a812c6de1a98a9be88d7cdb663fc18542861a7fe40330a0db44fc89</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="B281" t="str">
-        <v>character_largeimage_h0224.ab</v>
+        <v>character_largeimage_h0216.ab</v>
       </c>
       <c r="C281">
-        <v>641341</v>
+        <v>613287</v>
       </c>
       <c r="D281" t="str">
         <v>Stage_1</v>
@@ -6000,18 +6000,18 @@
         <v>0</v>
       </c>
       <c r="F281" t="str">
-        <v>97af8db1a832d8d7bfd63b088849ae309ba6a9fd180f20dd29d4a94baf81445a</v>
+        <v>00430928152114c2b9da4c9b5ddb3183d118c7d71cc6b70d459a9d34813211fa</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="B282" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0217.ab</v>
       </c>
       <c r="C282">
-        <v>2759541</v>
+        <v>710342</v>
       </c>
       <c r="D282" t="str">
         <v>Stage_1</v>
@@ -6020,18 +6020,18 @@
         <v>0</v>
       </c>
       <c r="F282" t="str">
-        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
+        <v>0c557431ff6648f32755cfd3427894308fd8cbb5e2c31fc247d6ba298c4c6575</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="B283" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0221.ab</v>
       </c>
       <c r="C283">
-        <v>2163097</v>
+        <v>696555</v>
       </c>
       <c r="D283" t="str">
         <v>Stage_1</v>
@@ -6040,18 +6040,18 @@
         <v>0</v>
       </c>
       <c r="F283" t="str">
-        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
+        <v>ee816ded5021eca449f407d89373bc79ab49556ac1136054724d996994841e1d</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="B284" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_h0224.ab</v>
       </c>
       <c r="C284">
-        <v>2034727</v>
+        <v>641341</v>
       </c>
       <c r="D284" t="str">
         <v>Stage_1</v>
@@ -6060,18 +6060,18 @@
         <v>0</v>
       </c>
       <c r="F284" t="str">
-        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
+        <v>97af8db1a832d8d7bfd63b088849ae309ba6a9fd180f20dd29d4a94baf81445a</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B285" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C285">
-        <v>775654</v>
+        <v>2759541</v>
       </c>
       <c r="D285" t="str">
         <v>Stage_1</v>
@@ -6080,18 +6080,18 @@
         <v>0</v>
       </c>
       <c r="F285" t="str">
-        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
+        <v>b537a2e664b9f6d75d7528b52a62a0533071277cd08b732e0ee0115df93e482a</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B286" t="str">
-        <v>character_largeimage_r0205.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C286">
-        <v>806550</v>
+        <v>2163097</v>
       </c>
       <c r="D286" t="str">
         <v>Stage_1</v>
@@ -6100,18 +6100,18 @@
         <v>0</v>
       </c>
       <c r="F286" t="str">
-        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
+        <v>30ce3e0862393a64120b44351e11cc7b4adf7c1612c8dc2392461636297c99e9</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B287" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C287">
-        <v>3872071</v>
+        <v>2034727</v>
       </c>
       <c r="D287" t="str">
         <v>Stage_1</v>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="F287" t="str">
-        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
+        <v>63526e46cbe06b72c806e233b8b26621ecb7c9e04177ee38c0df8f0bdf8be366</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B288" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C288">
-        <v>2616770</v>
+        <v>775654</v>
       </c>
       <c r="D288" t="str">
         <v>Stage_1</v>
@@ -6140,18 +6140,18 @@
         <v>0</v>
       </c>
       <c r="F288" t="str">
-        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
+        <v>e9eb8bc136786390db14a5aea2dee0bd8dc7a862d3b832df66a6dc6bb7d7f117</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="B289" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_r0205.ab</v>
       </c>
       <c r="C289">
-        <v>2307872</v>
+        <v>806550</v>
       </c>
       <c r="D289" t="str">
         <v>Stage_1</v>
@@ -6160,18 +6160,18 @@
         <v>0</v>
       </c>
       <c r="F289" t="str">
-        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
+        <v>e158bd3ea3e8de985ae971b07961bda34b2738c6cb1105560108a562da4c83bf</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B290" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C290">
-        <v>2603916</v>
+        <v>3872071</v>
       </c>
       <c r="D290" t="str">
         <v>Stage_1</v>
@@ -6180,18 +6180,18 @@
         <v>0</v>
       </c>
       <c r="F290" t="str">
-        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
+        <v>3d86877a315decafc4ba13eb98648cdc6d1e20f399c89b9b73a0c86f3cceae69</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B291" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C291">
-        <v>2286765</v>
+        <v>2616770</v>
       </c>
       <c r="D291" t="str">
         <v>Stage_1</v>
@@ -6200,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="F291" t="str">
-        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
+        <v>4ff6f418e8591b0bdcd1e9db5931f69178d830017267e61878b79459173693ef</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B292" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C292">
-        <v>693998</v>
+        <v>2307872</v>
       </c>
       <c r="D292" t="str">
         <v>Stage_1</v>
@@ -6220,18 +6220,18 @@
         <v>0</v>
       </c>
       <c r="F292" t="str">
-        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
+        <v>4bd084510cb4ccba5828be3ca2408e1b2e924f1eaf45c481afb100ae62b1199f</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B293" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C293">
-        <v>631454</v>
+        <v>2603916</v>
       </c>
       <c r="D293" t="str">
         <v>Stage_1</v>
@@ -6240,18 +6240,18 @@
         <v>0</v>
       </c>
       <c r="F293" t="str">
-        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
+        <v>6c2fb250e625d6b3a555cb2d032e4488b0928008dd26d3ae625637c6a2c63422</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B294" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C294">
-        <v>1586889</v>
+        <v>2286765</v>
       </c>
       <c r="D294" t="str">
         <v>Stage_1</v>
@@ -6260,18 +6260,18 @@
         <v>0</v>
       </c>
       <c r="F294" t="str">
-        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
+        <v>94337cd703cc0ae087562ba298a983b71bc10621c8757853694980ff0b70319c</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B295" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C295">
-        <v>1718936</v>
+        <v>693998</v>
       </c>
       <c r="D295" t="str">
         <v>Stage_1</v>
@@ -6280,18 +6280,18 @@
         <v>0</v>
       </c>
       <c r="F295" t="str">
-        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
+        <v>0f438af430e95e83e67761accde2ec09f847d93d46617273fea6d5c902fc60dc</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B296" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C296">
-        <v>2648574</v>
+        <v>631454</v>
       </c>
       <c r="D296" t="str">
         <v>Stage_1</v>
@@ -6300,18 +6300,18 @@
         <v>0</v>
       </c>
       <c r="F296" t="str">
-        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
+        <v>5708b224faf61feee96d3b1413b26db18738c3e6b49d646887402614c53fb309</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B297" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C297">
-        <v>1947775</v>
+        <v>1586889</v>
       </c>
       <c r="D297" t="str">
         <v>Stage_1</v>
@@ -6320,18 +6320,18 @@
         <v>0</v>
       </c>
       <c r="F297" t="str">
-        <v>805364dd06da983d54ea3464370e5bcd9b753a4c0b0243075061415c1c6f1f7c</v>
+        <v>2caa8827d6904901348cd18bbb3e2e37444f10a519e62d5438e200cc41f62b40</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B298" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C298">
-        <v>3511110</v>
+        <v>1718936</v>
       </c>
       <c r="D298" t="str">
         <v>Stage_1</v>
@@ -6340,18 +6340,18 @@
         <v>0</v>
       </c>
       <c r="F298" t="str">
-        <v>e822ea267aaaf93239a9eaa76fe7c0e84b4d09c69bb636627bb5ee379619f1d2</v>
+        <v>b2a51bbdc4f6d32c9747afd66a938265ab4bfb3f81c2fcdb1048474864021d59</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B299" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C299">
-        <v>1989757</v>
+        <v>2648574</v>
       </c>
       <c r="D299" t="str">
         <v>Stage_1</v>
@@ -6360,18 +6360,18 @@
         <v>0</v>
       </c>
       <c r="F299" t="str">
-        <v>8077c54579e2e16b719201395b4baf18716c86e7a62f4120e9225e2ce5220b92</v>
+        <v>28305683a196644401453f1604f297695689cd756b9581ace331d1457871282e</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B300" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C300">
-        <v>2278082</v>
+        <v>1947775</v>
       </c>
       <c r="D300" t="str">
         <v>Stage_1</v>
@@ -6380,18 +6380,18 @@
         <v>0</v>
       </c>
       <c r="F300" t="str">
-        <v>e34d8efde5544b456853e